--- a/BlueChannel.xlsx
+++ b/BlueChannel.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9196,6 +9196,8706 @@
         <v>0.8509681817418654</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>109.6100006103516</v>
+      </c>
+      <c r="B303" t="n">
+        <v>52.70440569210424</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-0.2986993549305267</v>
+      </c>
+      <c r="D303" t="n">
+        <v>-0.5286577230480631</v>
+      </c>
+      <c r="E303" t="n">
+        <v>7.575893392077435</v>
+      </c>
+      <c r="F303" t="n">
+        <v>828.4843903186273</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.01128790564478798</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.07084914432101044</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.8509681817418654</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>110.2406158447266</v>
+      </c>
+      <c r="B304" t="n">
+        <v>49.49774669238656</v>
+      </c>
+      <c r="C304" t="n">
+        <v>-0.4216248532441613</v>
+      </c>
+      <c r="D304" t="n">
+        <v>-0.751318036416956</v>
+      </c>
+      <c r="E304" t="n">
+        <v>7.454337071959962</v>
+      </c>
+      <c r="F304" t="n">
+        <v>830.9713848039218</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.01176827569792998</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.06350054242930456</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.8306198855451331</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>124.7058258056641</v>
+      </c>
+      <c r="B305" t="n">
+        <v>51.65920583596845</v>
+      </c>
+      <c r="C305" t="n">
+        <v>-0.6471858837229122</v>
+      </c>
+      <c r="D305" t="n">
+        <v>-0.2608266526798091</v>
+      </c>
+      <c r="E305" t="n">
+        <v>7.536180518590864</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1099.291835171569</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.009446762935377813</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.0472297563317322</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.7944726218972304</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>86.91175842285156</v>
+      </c>
+      <c r="B306" t="n">
+        <v>51.88192588057408</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.2141114181856525</v>
+      </c>
+      <c r="D306" t="n">
+        <v>-1.16622110098307</v>
+      </c>
+      <c r="E306" t="n">
+        <v>7.435953148869403</v>
+      </c>
+      <c r="F306" t="n">
+        <v>565.7875765931371</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.01398192143836333</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.1040472115066546</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.8947472586582648</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>134.3170318603516</v>
+      </c>
+      <c r="B307" t="n">
+        <v>61.93154130609496</v>
+      </c>
+      <c r="C307" t="n">
+        <v>-0.3860867591297006</v>
+      </c>
+      <c r="D307" t="n">
+        <v>-0.9921251398728383</v>
+      </c>
+      <c r="E307" t="n">
+        <v>7.675356928355379</v>
+      </c>
+      <c r="F307" t="n">
+        <v>604.8604166666667</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.01667954454452383</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.1485548866294219</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.9212388936559259</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>130.274658203125</v>
+      </c>
+      <c r="B308" t="n">
+        <v>51.15132223116482</v>
+      </c>
+      <c r="C308" t="n">
+        <v>-0.7295569646060721</v>
+      </c>
+      <c r="D308" t="n">
+        <v>-0.08442971169385949</v>
+      </c>
+      <c r="E308" t="n">
+        <v>7.458254801149158</v>
+      </c>
+      <c r="F308" t="n">
+        <v>592.6002144607845</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.01215889939603004</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.09330135615566559</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.8869762914494788</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>119.2673492431641</v>
+      </c>
+      <c r="B309" t="n">
+        <v>51.76931929488935</v>
+      </c>
+      <c r="C309" t="n">
+        <v>-0.8877822217189701</v>
+      </c>
+      <c r="D309" t="n">
+        <v>-0.2385300650333479</v>
+      </c>
+      <c r="E309" t="n">
+        <v>7.311122264413923</v>
+      </c>
+      <c r="F309" t="n">
+        <v>499.2228707107843</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.01856142354875007</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.1506149878978424</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.9070151882863146</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>110.1964874267578</v>
+      </c>
+      <c r="B310" t="n">
+        <v>23.61583288251912</v>
+      </c>
+      <c r="C310" t="n">
+        <v>-0.6957138177921113</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.751356495307113</v>
+      </c>
+      <c r="E310" t="n">
+        <v>6.516835399840567</v>
+      </c>
+      <c r="F310" t="n">
+        <v>113.1074754901961</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.02384281251920445</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.1869332993877661</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.8987688911999009</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>107.4969177246094</v>
+      </c>
+      <c r="B311" t="n">
+        <v>43.8980272301478</v>
+      </c>
+      <c r="C311" t="n">
+        <v>-0.14222057920533</v>
+      </c>
+      <c r="D311" t="n">
+        <v>-0.4763443635732258</v>
+      </c>
+      <c r="E311" t="n">
+        <v>7.455674651913474</v>
+      </c>
+      <c r="F311" t="n">
+        <v>639.7174325980393</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.01016554551619442</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.0654383364034082</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.8342181041067811</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>128.1523895263672</v>
+      </c>
+      <c r="B312" t="n">
+        <v>45.21254045257154</v>
+      </c>
+      <c r="C312" t="n">
+        <v>-0.3645560603576907</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.4078548129790081</v>
+      </c>
+      <c r="E312" t="n">
+        <v>7.46147936578936</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1377.112162990196</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.009349785472505364</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.0437369561388119</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.6633297817966149</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>89.93766784667969</v>
+      </c>
+      <c r="B313" t="n">
+        <v>47.81186528970589</v>
+      </c>
+      <c r="C313" t="n">
+        <v>-0.07672172849916531</v>
+      </c>
+      <c r="D313" t="n">
+        <v>-1.22154761483409</v>
+      </c>
+      <c r="E313" t="n">
+        <v>7.415186662827509</v>
+      </c>
+      <c r="F313" t="n">
+        <v>585.7647977941176</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.01070849854463051</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.07795289943328575</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.871844178495586</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>116.4435119628906</v>
+      </c>
+      <c r="B314" t="n">
+        <v>47.4937555133701</v>
+      </c>
+      <c r="C314" t="n">
+        <v>-0.2755331117131791</v>
+      </c>
+      <c r="D314" t="n">
+        <v>-0.1274543427539743</v>
+      </c>
+      <c r="E314" t="n">
+        <v>7.529555243331948</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2211.185049019608</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.008515724064841452</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.03973015946849956</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.5103184433968952</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>108.3268737792969</v>
+      </c>
+      <c r="B315" t="n">
+        <v>63.47971479070587</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.04616571990321468</v>
+      </c>
+      <c r="D315" t="n">
+        <v>-1.283112414248631</v>
+      </c>
+      <c r="E315" t="n">
+        <v>7.745897632659094</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1144.028339460784</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.009604400714146756</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.05812768037085179</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.8580670131431076</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>114.9888610839844</v>
+      </c>
+      <c r="B316" t="n">
+        <v>49.25534413865686</v>
+      </c>
+      <c r="C316" t="n">
+        <v>-0.5225037095286322</v>
+      </c>
+      <c r="D316" t="n">
+        <v>-0.4869412923752208</v>
+      </c>
+      <c r="E316" t="n">
+        <v>7.511560236406934</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1254.35228247549</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.008777640364355618</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.04091451551141102</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.7419795479988743</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>93.19303894042969</v>
+      </c>
+      <c r="B317" t="n">
+        <v>63.80705799828252</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.3365592256023719</v>
+      </c>
+      <c r="D317" t="n">
+        <v>-1.132912939097313</v>
+      </c>
+      <c r="E317" t="n">
+        <v>7.588668191992042</v>
+      </c>
+      <c r="F317" t="n">
+        <v>863.6598805147061</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.01714204377962471</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.1088780421228485</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.8937005531700279</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>91.49423217773438</v>
+      </c>
+      <c r="B318" t="n">
+        <v>40.69683436794649</v>
+      </c>
+      <c r="C318" t="n">
+        <v>-0.4237368914774052</v>
+      </c>
+      <c r="D318" t="n">
+        <v>-1.01307404554166</v>
+      </c>
+      <c r="E318" t="n">
+        <v>6.923180881436222</v>
+      </c>
+      <c r="F318" t="n">
+        <v>46.68235294117648</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.02901569641308334</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.2845983629320349</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.9859079658223292</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>113.54345703125</v>
+      </c>
+      <c r="B319" t="n">
+        <v>56.06769342724971</v>
+      </c>
+      <c r="C319" t="n">
+        <v>-0.2578460230370382</v>
+      </c>
+      <c r="D319" t="n">
+        <v>-0.6401292060936212</v>
+      </c>
+      <c r="E319" t="n">
+        <v>7.700124341577813</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1668.892110906863</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.008696124542564044</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.0493627968240571</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.7346527927508443</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>91.25430297851562</v>
+      </c>
+      <c r="B320" t="n">
+        <v>54.86112029421678</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.2443407874601075</v>
+      </c>
+      <c r="D320" t="n">
+        <v>-1.104528144621897</v>
+      </c>
+      <c r="E320" t="n">
+        <v>7.521059724210283</v>
+      </c>
+      <c r="F320" t="n">
+        <v>30.21401654411765</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.02514401395000452</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.354652037194384</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.9949869517976108</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>196.4781494140625</v>
+      </c>
+      <c r="B321" t="n">
+        <v>73.28950874533116</v>
+      </c>
+      <c r="C321" t="n">
+        <v>-1.196476585402203</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.1489905073479307</v>
+      </c>
+      <c r="E321" t="n">
+        <v>6.400081971322527</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1559.349525122549</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.1389274117717659</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.2053399566417489</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.8550955564332295</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>79.911376953125</v>
+      </c>
+      <c r="B322" t="n">
+        <v>40.26093163261707</v>
+      </c>
+      <c r="C322" t="n">
+        <v>-0.2988979859633592</v>
+      </c>
+      <c r="D322" t="n">
+        <v>-1.27352830536564</v>
+      </c>
+      <c r="E322" t="n">
+        <v>7.036950813641559</v>
+      </c>
+      <c r="F322" t="n">
+        <v>85.30759803921568</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.02347469575074739</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.2401822311697784</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.9736957536362507</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>127.3491973876953</v>
+      </c>
+      <c r="B323" t="n">
+        <v>56.85112522830543</v>
+      </c>
+      <c r="C323" t="n">
+        <v>-0.5991872579998812</v>
+      </c>
+      <c r="D323" t="n">
+        <v>-0.6412561522048144</v>
+      </c>
+      <c r="E323" t="n">
+        <v>7.583765448941381</v>
+      </c>
+      <c r="F323" t="n">
+        <v>741.8605238970589</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.01254452493994325</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.1072634367559997</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.8853769615431825</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>101.7585601806641</v>
+      </c>
+      <c r="B324" t="n">
+        <v>53.41504815166869</v>
+      </c>
+      <c r="C324" t="n">
+        <v>-0.1554077827046529</v>
+      </c>
+      <c r="D324" t="n">
+        <v>-0.8363287245466244</v>
+      </c>
+      <c r="E324" t="n">
+        <v>7.61736079196738</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1764.433302696078</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.008641389680866716</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.04352609589465395</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.6910599784944554</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>113.0584259033203</v>
+      </c>
+      <c r="B325" t="n">
+        <v>61.18915899749765</v>
+      </c>
+      <c r="C325" t="n">
+        <v>-0.1863080967656934</v>
+      </c>
+      <c r="D325" t="n">
+        <v>-1.169656923307057</v>
+      </c>
+      <c r="E325" t="n">
+        <v>7.655990901607591</v>
+      </c>
+      <c r="F325" t="n">
+        <v>581.1119178921568</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0157078314365039</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.1278992383911357</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.9224580843435668</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>83.58090209960938</v>
+      </c>
+      <c r="B326" t="n">
+        <v>50.48653739388459</v>
+      </c>
+      <c r="C326" t="n">
+        <v>-0.2155277036458295</v>
+      </c>
+      <c r="D326" t="n">
+        <v>-0.9310242024375528</v>
+      </c>
+      <c r="E326" t="n">
+        <v>6.876531219135358</v>
+      </c>
+      <c r="F326" t="n">
+        <v>552.8327052696079</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.1290385330645726</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.1853438948053787</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.8911402659860364</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>108.1358947753906</v>
+      </c>
+      <c r="B327" t="n">
+        <v>42.87607614860573</v>
+      </c>
+      <c r="C327" t="n">
+        <v>-0.6966484747707475</v>
+      </c>
+      <c r="D327" t="n">
+        <v>-0.8346914579490097</v>
+      </c>
+      <c r="E327" t="n">
+        <v>6.95097934062423</v>
+      </c>
+      <c r="F327" t="n">
+        <v>325.186856617647</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.02747081392717134</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.2027082066224421</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.9116742863449039</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>112.3080291748047</v>
+      </c>
+      <c r="B328" t="n">
+        <v>48.63799778064961</v>
+      </c>
+      <c r="C328" t="n">
+        <v>-0.3090015879841761</v>
+      </c>
+      <c r="D328" t="n">
+        <v>-0.7894940763056266</v>
+      </c>
+      <c r="E328" t="n">
+        <v>7.532901061558092</v>
+      </c>
+      <c r="F328" t="n">
+        <v>509.4239889705884</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0107618781917941</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.07819762565365046</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.8924777393832696</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>93.59089660644531</v>
+      </c>
+      <c r="B329" t="n">
+        <v>50.53372433997186</v>
+      </c>
+      <c r="C329" t="n">
+        <v>-0.1442101296091515</v>
+      </c>
+      <c r="D329" t="n">
+        <v>-1.570777749127523</v>
+      </c>
+      <c r="E329" t="n">
+        <v>7.105942296854582</v>
+      </c>
+      <c r="F329" t="n">
+        <v>112.1106617647059</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.02050866172938672</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.1769112306536511</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.9780791635980135</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>121.4512481689453</v>
+      </c>
+      <c r="B330" t="n">
+        <v>46.84795643031261</v>
+      </c>
+      <c r="C330" t="n">
+        <v>-0.7489900961510215</v>
+      </c>
+      <c r="D330" t="n">
+        <v>-0.04943300789791527</v>
+      </c>
+      <c r="E330" t="n">
+        <v>7.379880454158567</v>
+      </c>
+      <c r="F330" t="n">
+        <v>946.0125153186277</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0109669176874276</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.06100980225161179</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.7849317330854523</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>109.1058807373047</v>
+      </c>
+      <c r="B331" t="n">
+        <v>52.23678528256848</v>
+      </c>
+      <c r="C331" t="n">
+        <v>-0.3463512597597549</v>
+      </c>
+      <c r="D331" t="n">
+        <v>-0.6278041119178068</v>
+      </c>
+      <c r="E331" t="n">
+        <v>7.568286465261617</v>
+      </c>
+      <c r="F331" t="n">
+        <v>926.825306372549</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.01015843318962524</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.06720757566528331</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.8302295296782917</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>100.2625274658203</v>
+      </c>
+      <c r="B332" t="n">
+        <v>53.9935643938763</v>
+      </c>
+      <c r="C332" t="n">
+        <v>-0.09520931945267715</v>
+      </c>
+      <c r="D332" t="n">
+        <v>-0.7306002656737598</v>
+      </c>
+      <c r="E332" t="n">
+        <v>7.625240852556344</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2177.961167279412</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.008994395734123577</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.04965390174425845</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.6268336562207085</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>123.6862945556641</v>
+      </c>
+      <c r="B333" t="n">
+        <v>54.938597584427</v>
+      </c>
+      <c r="C333" t="n">
+        <v>-0.3134958329522414</v>
+      </c>
+      <c r="D333" t="n">
+        <v>-1.137929485218434</v>
+      </c>
+      <c r="E333" t="n">
+        <v>7.55059663711747</v>
+      </c>
+      <c r="F333" t="n">
+        <v>581.9024203431372</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.01436576929364091</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.1316847353763911</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.9037078168927269</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>97.67958068847656</v>
+      </c>
+      <c r="B334" t="n">
+        <v>37.29348991688259</v>
+      </c>
+      <c r="C334" t="n">
+        <v>-0.3382199852096086</v>
+      </c>
+      <c r="D334" t="n">
+        <v>-1.360069708266731</v>
+      </c>
+      <c r="E334" t="n">
+        <v>6.548996590133405</v>
+      </c>
+      <c r="F334" t="n">
+        <v>13.23722426470588</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04509385033395281</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.4138615669179117</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.9952448838967668</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>102.9039154052734</v>
+      </c>
+      <c r="B335" t="n">
+        <v>54.5500490791956</v>
+      </c>
+      <c r="C335" t="n">
+        <v>-0.1549429827684362</v>
+      </c>
+      <c r="D335" t="n">
+        <v>-0.8714527427325143</v>
+      </c>
+      <c r="E335" t="n">
+        <v>7.624639062543745</v>
+      </c>
+      <c r="F335" t="n">
+        <v>1801.132444852941</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.009679215096853032</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.05431453630144854</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.6975840606655895</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>130.7347717285156</v>
+      </c>
+      <c r="B336" t="n">
+        <v>51.48878250205654</v>
+      </c>
+      <c r="C336" t="n">
+        <v>-0.6503713985900322</v>
+      </c>
+      <c r="D336" t="n">
+        <v>-0.3553473817752852</v>
+      </c>
+      <c r="E336" t="n">
+        <v>7.489522556834413</v>
+      </c>
+      <c r="F336" t="n">
+        <v>623.4630667892156</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.01483460184976469</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.1364722639772155</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.8825908174455211</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>107.4048919677734</v>
+      </c>
+      <c r="B337" t="n">
+        <v>24.77769360158768</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.2329422103301463</v>
+      </c>
+      <c r="D337" t="n">
+        <v>-0.78648411359808</v>
+      </c>
+      <c r="E337" t="n">
+        <v>6.574590178716661</v>
+      </c>
+      <c r="F337" t="n">
+        <v>180.7128216911765</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.01824126308163547</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.114671357791076</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.8528993260333869</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>126.9564361572266</v>
+      </c>
+      <c r="B338" t="n">
+        <v>38.45207989829782</v>
+      </c>
+      <c r="C338" t="n">
+        <v>-1.173242613089972</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1.183933191592396</v>
+      </c>
+      <c r="E338" t="n">
+        <v>6.986746238926713</v>
+      </c>
+      <c r="F338" t="n">
+        <v>731.1280024509805</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.01387661354403861</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.05856836650806233</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.7533500533551098</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>105.1222076416016</v>
+      </c>
+      <c r="B339" t="n">
+        <v>73.9233143618082</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1130625170751891</v>
+      </c>
+      <c r="D339" t="n">
+        <v>-1.327354684491382</v>
+      </c>
+      <c r="E339" t="n">
+        <v>7.756113849331491</v>
+      </c>
+      <c r="F339" t="n">
+        <v>622.4559589460783</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.02375968994021435</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.1865746574493854</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.9430534863174301</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>205.6231384277344</v>
+      </c>
+      <c r="B340" t="n">
+        <v>65.86302678757616</v>
+      </c>
+      <c r="C340" t="n">
+        <v>-1.346065171638954</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.6776121337218153</v>
+      </c>
+      <c r="E340" t="n">
+        <v>6.056872172554101</v>
+      </c>
+      <c r="F340" t="n">
+        <v>1448.038924632353</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.2058031447317019</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.27531828297282</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.8334106047097524</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>113.2625274658203</v>
+      </c>
+      <c r="B341" t="n">
+        <v>47.6113255554913</v>
+      </c>
+      <c r="C341" t="n">
+        <v>-0.7523308762016374</v>
+      </c>
+      <c r="D341" t="n">
+        <v>-0.5909559788534033</v>
+      </c>
+      <c r="E341" t="n">
+        <v>7.197942528603934</v>
+      </c>
+      <c r="F341" t="n">
+        <v>465.8738357843138</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.01659863588947851</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.1099729359949675</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.8973996384701534</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>124.7627868652344</v>
+      </c>
+      <c r="B342" t="n">
+        <v>58.98014164814243</v>
+      </c>
+      <c r="C342" t="n">
+        <v>-0.2817809884646166</v>
+      </c>
+      <c r="D342" t="n">
+        <v>-1.220924086610026</v>
+      </c>
+      <c r="E342" t="n">
+        <v>7.586829885738871</v>
+      </c>
+      <c r="F342" t="n">
+        <v>819.7649509803922</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.01005557925700055</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.05857232865749564</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.882247705324954</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>105.1092529296875</v>
+      </c>
+      <c r="B343" t="n">
+        <v>54.10465268546988</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.06644414211867648</v>
+      </c>
+      <c r="D343" t="n">
+        <v>-0.821104801896364</v>
+      </c>
+      <c r="E343" t="n">
+        <v>7.69590474116107</v>
+      </c>
+      <c r="F343" t="n">
+        <v>930.209068627451</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.009273123251140054</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.06991856265446769</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.8411686235652179</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>89.00071716308594</v>
+      </c>
+      <c r="B344" t="n">
+        <v>44.41805084718177</v>
+      </c>
+      <c r="C344" t="n">
+        <v>-0.8087003193713308</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.06621634252530706</v>
+      </c>
+      <c r="E344" t="n">
+        <v>6.430863857873403</v>
+      </c>
+      <c r="F344" t="n">
+        <v>623.0737285539217</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.1284089974375919</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.1829575032865215</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.8411370940962766</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>97.45729064941406</v>
+      </c>
+      <c r="B345" t="n">
+        <v>67.37486303385926</v>
+      </c>
+      <c r="C345" t="n">
+        <v>-0.3208098135455027</v>
+      </c>
+      <c r="D345" t="n">
+        <v>-1.453287976909439</v>
+      </c>
+      <c r="E345" t="n">
+        <v>6.917412563140958</v>
+      </c>
+      <c r="F345" t="n">
+        <v>676.9204656862746</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.1283234536671042</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.2364073523232659</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.925291187858681</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>88.10549926757812</v>
+      </c>
+      <c r="B346" t="n">
+        <v>38.66893229374875</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.1429718310432662</v>
+      </c>
+      <c r="D346" t="n">
+        <v>-0.9321782945582711</v>
+      </c>
+      <c r="E346" t="n">
+        <v>7.219410748372567</v>
+      </c>
+      <c r="F346" t="n">
+        <v>188.2583792892157</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.01450372306709879</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.1252311945114555</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.9369872208320694</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>145.2352142333984</v>
+      </c>
+      <c r="B347" t="n">
+        <v>55.06155795449954</v>
+      </c>
+      <c r="C347" t="n">
+        <v>-0.5560761745141294</v>
+      </c>
+      <c r="D347" t="n">
+        <v>-0.8363241102025607</v>
+      </c>
+      <c r="E347" t="n">
+        <v>7.525101904391262</v>
+      </c>
+      <c r="F347" t="n">
+        <v>970.3299785539217</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.009795301050706485</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.04429799329968312</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.8401804068369867</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>93.397216796875</v>
+      </c>
+      <c r="B348" t="n">
+        <v>45.13175354227504</v>
+      </c>
+      <c r="C348" t="n">
+        <v>-0.07133575592912585</v>
+      </c>
+      <c r="D348" t="n">
+        <v>-1.285155859645732</v>
+      </c>
+      <c r="E348" t="n">
+        <v>7.101581175697494</v>
+      </c>
+      <c r="F348" t="n">
+        <v>155.129856004902</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.01930474071660089</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.1648035092120643</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.9619299457081082</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>118.3172607421875</v>
+      </c>
+      <c r="B349" t="n">
+        <v>48.04954793038979</v>
+      </c>
+      <c r="C349" t="n">
+        <v>-0.5652172108070282</v>
+      </c>
+      <c r="D349" t="n">
+        <v>-0.3172101674373753</v>
+      </c>
+      <c r="E349" t="n">
+        <v>7.48475349685788</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1353.040303308824</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.00912576293697163</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.04821090156508586</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.7074879559819353</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>98.298095703125</v>
+      </c>
+      <c r="B350" t="n">
+        <v>23.33181393067261</v>
+      </c>
+      <c r="C350" t="n">
+        <v>-0.02133627287945691</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.111364942045022</v>
+      </c>
+      <c r="E350" t="n">
+        <v>6.580536063627853</v>
+      </c>
+      <c r="F350" t="n">
+        <v>481.028768382353</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0149216799185754</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.07236727234061446</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.558086879855652</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>132.1043090820312</v>
+      </c>
+      <c r="B351" t="n">
+        <v>54.89562780527186</v>
+      </c>
+      <c r="C351" t="n">
+        <v>-0.6168965245792656</v>
+      </c>
+      <c r="D351" t="n">
+        <v>-0.3074243261368106</v>
+      </c>
+      <c r="E351" t="n">
+        <v>7.599863314552438</v>
+      </c>
+      <c r="F351" t="n">
+        <v>881.2188419117649</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.01024274500373104</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.06248863707831827</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.8539705548632326</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>97.26441955566406</v>
+      </c>
+      <c r="B352" t="n">
+        <v>55.24253012770946</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.09937722909013975</v>
+      </c>
+      <c r="D352" t="n">
+        <v>-1.139963132455384</v>
+      </c>
+      <c r="E352" t="n">
+        <v>7.53285399136741</v>
+      </c>
+      <c r="F352" t="n">
+        <v>217.2822763480393</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.01750878240692452</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.1941822105125986</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.9643666521702212</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>104.873291015625</v>
+      </c>
+      <c r="B353" t="n">
+        <v>58.13342142881991</v>
+      </c>
+      <c r="C353" t="n">
+        <v>-0.1275676680113965</v>
+      </c>
+      <c r="D353" t="n">
+        <v>-1.040260343199779</v>
+      </c>
+      <c r="E353" t="n">
+        <v>7.633502430484534</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1682.060799632353</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0150695435508074</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.07958281218648454</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.7513386038279505</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>81.173095703125</v>
+      </c>
+      <c r="B354" t="n">
+        <v>30.48427749434402</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.02637046036356733</v>
+      </c>
+      <c r="D354" t="n">
+        <v>-1.086941449807455</v>
+      </c>
+      <c r="E354" t="n">
+        <v>6.773324507405817</v>
+      </c>
+      <c r="F354" t="n">
+        <v>165.081724877451</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.02075803460800076</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.1598138306171698</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.9111022300455747</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>75.696044921875</v>
+      </c>
+      <c r="B355" t="n">
+        <v>56.28803011485544</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.6392830657208007</v>
+      </c>
+      <c r="D355" t="n">
+        <v>-0.5677867615512882</v>
+      </c>
+      <c r="E355" t="n">
+        <v>7.416453194145431</v>
+      </c>
+      <c r="F355" t="n">
+        <v>455.2930606617647</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.03007252968928564</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.1412317145965034</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.9278138691864173</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>122.6690368652344</v>
+      </c>
+      <c r="B356" t="n">
+        <v>61.06327907220436</v>
+      </c>
+      <c r="C356" t="n">
+        <v>-0.3739685184455309</v>
+      </c>
+      <c r="D356" t="n">
+        <v>-0.8380757852458429</v>
+      </c>
+      <c r="E356" t="n">
+        <v>7.67799452274216</v>
+      </c>
+      <c r="F356" t="n">
+        <v>702.2700827205882</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.01299109926799084</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.1178891575200739</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.9059768476092575</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>98.78678894042969</v>
+      </c>
+      <c r="B357" t="n">
+        <v>61.48580840851464</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.05932957920428695</v>
+      </c>
+      <c r="D357" t="n">
+        <v>-1.211077054165862</v>
+      </c>
+      <c r="E357" t="n">
+        <v>7.692221535530417</v>
+      </c>
+      <c r="F357" t="n">
+        <v>723.998743872549</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.01153105038969464</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0.11137636750344</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.9041802821117215</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>104.1493377685547</v>
+      </c>
+      <c r="B358" t="n">
+        <v>58.96976607053398</v>
+      </c>
+      <c r="C358" t="n">
+        <v>-0.2971290141229612</v>
+      </c>
+      <c r="D358" t="n">
+        <v>-1.365655468756269</v>
+      </c>
+      <c r="E358" t="n">
+        <v>7.367518067955161</v>
+      </c>
+      <c r="F358" t="n">
+        <v>675.0504748774512</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.01402627601986665</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.07359519499850108</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.9030450645367402</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>85.48609924316406</v>
+      </c>
+      <c r="B359" t="n">
+        <v>35.8529885500516</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.3588592615208319</v>
+      </c>
+      <c r="D359" t="n">
+        <v>-0.6181829763267572</v>
+      </c>
+      <c r="E359" t="n">
+        <v>7.100216824013676</v>
+      </c>
+      <c r="F359" t="n">
+        <v>48.8246629901961</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.02209629043409669</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.2342553796135141</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.9810063516136202</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>105.0437622070312</v>
+      </c>
+      <c r="B360" t="n">
+        <v>45.42196746428172</v>
+      </c>
+      <c r="C360" t="n">
+        <v>-0.7126660034317231</v>
+      </c>
+      <c r="D360" t="n">
+        <v>-0.9342511040948924</v>
+      </c>
+      <c r="E360" t="n">
+        <v>6.87015267643786</v>
+      </c>
+      <c r="F360" t="n">
+        <v>52.66536458333334</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.02928149125929429</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.2727762252917347</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.9872626376361471</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>112.0681457519531</v>
+      </c>
+      <c r="B361" t="n">
+        <v>51.33110181820895</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-0.2908729278190997</v>
+      </c>
+      <c r="D361" t="n">
+        <v>-0.1479636319512703</v>
+      </c>
+      <c r="E361" t="n">
+        <v>7.552498789749605</v>
+      </c>
+      <c r="F361" t="n">
+        <v>1417.99159007353</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.01107563248876523</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.06361669347593096</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.7308721169317417</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>121.752685546875</v>
+      </c>
+      <c r="B362" t="n">
+        <v>46.84515285554443</v>
+      </c>
+      <c r="C362" t="n">
+        <v>-0.5833520834958253</v>
+      </c>
+      <c r="D362" t="n">
+        <v>-0.2256005801647833</v>
+      </c>
+      <c r="E362" t="n">
+        <v>7.456378495259368</v>
+      </c>
+      <c r="F362" t="n">
+        <v>317.3773743872549</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.0134817150643213</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.1209157015877551</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.9278188610814054</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>90.15046691894531</v>
+      </c>
+      <c r="B363" t="n">
+        <v>33.82095659779158</v>
+      </c>
+      <c r="C363" t="n">
+        <v>-0.1093841052840576</v>
+      </c>
+      <c r="D363" t="n">
+        <v>-1.114476233975499</v>
+      </c>
+      <c r="E363" t="n">
+        <v>6.859898644839125</v>
+      </c>
+      <c r="F363" t="n">
+        <v>37.37656250000001</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.03195321015233167</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0.3452810785184313</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.9836755177012017</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>107.653564453125</v>
+      </c>
+      <c r="B364" t="n">
+        <v>44.69075199312146</v>
+      </c>
+      <c r="C364" t="n">
+        <v>-0.5467076491327564</v>
+      </c>
+      <c r="D364" t="n">
+        <v>-0.9523953792803423</v>
+      </c>
+      <c r="E364" t="n">
+        <v>7.144443498306991</v>
+      </c>
+      <c r="F364" t="n">
+        <v>320.6944852941177</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.01654954919463099</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0.1159158317349097</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.9198364492038837</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>77.16986083984375</v>
+      </c>
+      <c r="B365" t="n">
+        <v>47.10740743797635</v>
+      </c>
+      <c r="C365" t="n">
+        <v>-0.08130715972058214</v>
+      </c>
+      <c r="D365" t="n">
+        <v>-1.160513876529155</v>
+      </c>
+      <c r="E365" t="n">
+        <v>7.271855363703559</v>
+      </c>
+      <c r="F365" t="n">
+        <v>847.2251685049019</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.01487228099170217</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0.08980328219746393</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.8091440238916799</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>107.2960510253906</v>
+      </c>
+      <c r="B366" t="n">
+        <v>57.25541828192352</v>
+      </c>
+      <c r="C366" t="n">
+        <v>-0.4794978386153198</v>
+      </c>
+      <c r="D366" t="n">
+        <v>-0.8931760886051845</v>
+      </c>
+      <c r="E366" t="n">
+        <v>7.48873243559634</v>
+      </c>
+      <c r="F366" t="n">
+        <v>1143.884788602941</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.01535953484053438</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.06814260517578641</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.8257490242133041</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>105.642333984375</v>
+      </c>
+      <c r="B367" t="n">
+        <v>42.7333320664758</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.002472681713047132</v>
+      </c>
+      <c r="D367" t="n">
+        <v>-1.140890465227529</v>
+      </c>
+      <c r="E367" t="n">
+        <v>7.221691104325295</v>
+      </c>
+      <c r="F367" t="n">
+        <v>28.82182904411765</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.02704479273279378</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.3346192675546273</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.9921347894076566</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>109.7615051269531</v>
+      </c>
+      <c r="B368" t="n">
+        <v>58.12910067297658</v>
+      </c>
+      <c r="C368" t="n">
+        <v>-0.4235464397360736</v>
+      </c>
+      <c r="D368" t="n">
+        <v>-0.9538730631404944</v>
+      </c>
+      <c r="E368" t="n">
+        <v>7.574325658735194</v>
+      </c>
+      <c r="F368" t="n">
+        <v>1153.376945465686</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.01163671344621807</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.0664748553341941</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.8295218560042373</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>123.2222595214844</v>
+      </c>
+      <c r="B369" t="n">
+        <v>48.18771794770784</v>
+      </c>
+      <c r="C369" t="n">
+        <v>-0.6117620628972584</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.09348653806730622</v>
+      </c>
+      <c r="E369" t="n">
+        <v>7.469007008127289</v>
+      </c>
+      <c r="F369" t="n">
+        <v>1056.699923406863</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.01056885385303764</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0.0526283987141532</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.7728536612176758</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>93.93986511230469</v>
+      </c>
+      <c r="B370" t="n">
+        <v>47.46249129536158</v>
+      </c>
+      <c r="C370" t="n">
+        <v>-0.2841563740773316</v>
+      </c>
+      <c r="D370" t="n">
+        <v>-1.067546039410197</v>
+      </c>
+      <c r="E370" t="n">
+        <v>7.374951820736484</v>
+      </c>
+      <c r="F370" t="n">
+        <v>407.8221047794118</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.01261631964242841</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.0863273876301784</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.9095302348460937</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>82.4805908203125</v>
+      </c>
+      <c r="B371" t="n">
+        <v>39.89415380179266</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.0006132400433241488</v>
+      </c>
+      <c r="D371" t="n">
+        <v>-1.174351900832798</v>
+      </c>
+      <c r="E371" t="n">
+        <v>7.151488513607371</v>
+      </c>
+      <c r="F371" t="n">
+        <v>191.374525122549</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.01563661981430539</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0.1322258654031192</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.9398685045249683</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>94.69146728515625</v>
+      </c>
+      <c r="B372" t="n">
+        <v>44.50481388217366</v>
+      </c>
+      <c r="C372" t="n">
+        <v>-0.4537664547807024</v>
+      </c>
+      <c r="D372" t="n">
+        <v>-1.072606554517779</v>
+      </c>
+      <c r="E372" t="n">
+        <v>7.19377134110195</v>
+      </c>
+      <c r="F372" t="n">
+        <v>429.4440104166667</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.01428581720066719</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.09729408424927695</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.891683179792828</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>78.90084838867188</v>
+      </c>
+      <c r="B373" t="n">
+        <v>51.64911075100984</v>
+      </c>
+      <c r="C373" t="n">
+        <v>-0.04097709252754765</v>
+      </c>
+      <c r="D373" t="n">
+        <v>-0.9354562645248619</v>
+      </c>
+      <c r="E373" t="n">
+        <v>6.993866117924385</v>
+      </c>
+      <c r="F373" t="n">
+        <v>1051.208425245098</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.1226808133997869</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0.1647900439729103</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.8022367164683548</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>66.44865417480469</v>
+      </c>
+      <c r="B374" t="n">
+        <v>56.34798313126836</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.460883642339435</v>
+      </c>
+      <c r="D374" t="n">
+        <v>-1.360620380675868</v>
+      </c>
+      <c r="E374" t="n">
+        <v>7.1194739295168</v>
+      </c>
+      <c r="F374" t="n">
+        <v>19.06050857843137</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.0352379312182852</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.3724091828675991</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.9970020100760538</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>211.9590454101562</v>
+      </c>
+      <c r="B375" t="n">
+        <v>75.40740928752257</v>
+      </c>
+      <c r="C375" t="n">
+        <v>-1.667398230211171</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1.340882919350038</v>
+      </c>
+      <c r="E375" t="n">
+        <v>4.794430469653126</v>
+      </c>
+      <c r="F375" t="n">
+        <v>1130.275811887255</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.3305427604426407</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0.4327330466905746</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.9008841269086348</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>76.23689270019531</v>
+      </c>
+      <c r="B376" t="n">
+        <v>33.10589653135062</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.05203580341010722</v>
+      </c>
+      <c r="D376" t="n">
+        <v>-0.8844674704803031</v>
+      </c>
+      <c r="E376" t="n">
+        <v>6.920045352333609</v>
+      </c>
+      <c r="F376" t="n">
+        <v>32.66242340686274</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.02577869676899596</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0.2708466236614083</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.9851049822036493</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>90.87960815429688</v>
+      </c>
+      <c r="B377" t="n">
+        <v>61.67903366454252</v>
+      </c>
+      <c r="C377" t="n">
+        <v>-0.1442684879559099</v>
+      </c>
+      <c r="D377" t="n">
+        <v>-1.317086991875302</v>
+      </c>
+      <c r="E377" t="n">
+        <v>7.054548295782842</v>
+      </c>
+      <c r="F377" t="n">
+        <v>972.9807598039216</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1247116415331272</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0.1736923225226534</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.8718104495061474</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>81.917236328125</v>
+      </c>
+      <c r="B378" t="n">
+        <v>37.77868393023756</v>
+      </c>
+      <c r="C378" t="n">
+        <v>-0.6878238277164328</v>
+      </c>
+      <c r="D378" t="n">
+        <v>-0.9773342108323262</v>
+      </c>
+      <c r="E378" t="n">
+        <v>6.660540650439885</v>
+      </c>
+      <c r="F378" t="n">
+        <v>19.83270526960784</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.05322072585161509</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0.4069305506027662</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.9930629616868386</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>82.88941955566406</v>
+      </c>
+      <c r="B379" t="n">
+        <v>51.37585918122329</v>
+      </c>
+      <c r="C379" t="n">
+        <v>-0.33682698472315</v>
+      </c>
+      <c r="D379" t="n">
+        <v>-1.454566449301488</v>
+      </c>
+      <c r="E379" t="n">
+        <v>6.950621714806353</v>
+      </c>
+      <c r="F379" t="n">
+        <v>37.29502144607844</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.04496958879812751</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0.3104768764936587</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.9929381805900399</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>183.8214874267578</v>
+      </c>
+      <c r="B380" t="n">
+        <v>69.59139434638935</v>
+      </c>
+      <c r="C380" t="n">
+        <v>-0.9876839917263551</v>
+      </c>
+      <c r="D380" t="n">
+        <v>-0.08921471714197571</v>
+      </c>
+      <c r="E380" t="n">
+        <v>7.171672963898852</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1725.491743259804</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.04999236356915844</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.08668179919617063</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.822232776339952</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>80.37696838378906</v>
+      </c>
+      <c r="B381" t="n">
+        <v>50.17064051919387</v>
+      </c>
+      <c r="C381" t="n">
+        <v>-0.04115646342786962</v>
+      </c>
+      <c r="D381" t="n">
+        <v>-1.487311673398355</v>
+      </c>
+      <c r="E381" t="n">
+        <v>7.182767074828788</v>
+      </c>
+      <c r="F381" t="n">
+        <v>177.3353400735294</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.02453924587368299</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0.2298126048918818</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.9647802390873376</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>123.1475524902344</v>
+      </c>
+      <c r="B382" t="n">
+        <v>63.63238172806101</v>
+      </c>
+      <c r="C382" t="n">
+        <v>-0.4864449759550324</v>
+      </c>
+      <c r="D382" t="n">
+        <v>-1.07514369324836</v>
+      </c>
+      <c r="E382" t="n">
+        <v>7.591374554614529</v>
+      </c>
+      <c r="F382" t="n">
+        <v>655.4823223039216</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.015105316296781</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0.123670025070621</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.9192016006386268</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>115.4312896728516</v>
+      </c>
+      <c r="B383" t="n">
+        <v>20.52932524830538</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.1776891563323856</v>
+      </c>
+      <c r="D383" t="n">
+        <v>-0.7311255772138132</v>
+      </c>
+      <c r="E383" t="n">
+        <v>6.273802204586554</v>
+      </c>
+      <c r="F383" t="n">
+        <v>97.29836090686274</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.02523177438182185</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0.1782709279806717</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.8845452214757624</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>115.3778076171875</v>
+      </c>
+      <c r="B384" t="n">
+        <v>55.85262490402774</v>
+      </c>
+      <c r="C384" t="n">
+        <v>-0.250124194903434</v>
+      </c>
+      <c r="D384" t="n">
+        <v>-0.7918556347498864</v>
+      </c>
+      <c r="E384" t="n">
+        <v>7.639893718939778</v>
+      </c>
+      <c r="F384" t="n">
+        <v>711.1454656862745</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.01280466832993906</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.1246089495631713</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0.8859869366000226</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>132.5663299560547</v>
+      </c>
+      <c r="B385" t="n">
+        <v>49.02708646524412</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.11220275172444</v>
+      </c>
+      <c r="D385" t="n">
+        <v>-1.180791882264248</v>
+      </c>
+      <c r="E385" t="n">
+        <v>7.444742359196385</v>
+      </c>
+      <c r="F385" t="n">
+        <v>102.8769148284314</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.01625122278711251</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0.1800461240999093</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0.9785921765618859</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>76.43034362792969</v>
+      </c>
+      <c r="B386" t="n">
+        <v>41.59880529644322</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.3492505362546361</v>
+      </c>
+      <c r="D386" t="n">
+        <v>-0.849401170366245</v>
+      </c>
+      <c r="E386" t="n">
+        <v>7.204408561449339</v>
+      </c>
+      <c r="F386" t="n">
+        <v>24.85954350490196</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.02549593991658106</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.3153027694754055</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.9928073213053636</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>102.5636901855469</v>
+      </c>
+      <c r="B387" t="n">
+        <v>36.26322162511945</v>
+      </c>
+      <c r="C387" t="n">
+        <v>-0.09303142129546338</v>
+      </c>
+      <c r="D387" t="n">
+        <v>-0.9385786202610036</v>
+      </c>
+      <c r="E387" t="n">
+        <v>7.030594704190637</v>
+      </c>
+      <c r="F387" t="n">
+        <v>63.40151654411765</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.02326530885586798</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.2397729117787376</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.9759002959708966</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>102.2980194091797</v>
+      </c>
+      <c r="B388" t="n">
+        <v>30.64560959078056</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.4136458267483122</v>
+      </c>
+      <c r="D388" t="n">
+        <v>-0.2021632491197223</v>
+      </c>
+      <c r="E388" t="n">
+        <v>6.935518115495326</v>
+      </c>
+      <c r="F388" t="n">
+        <v>586.1292892156863</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.01290428665470142</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.06945030574056747</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.6879158826621802</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>104.8844299316406</v>
+      </c>
+      <c r="B389" t="n">
+        <v>27.82447256797966</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.384274175654834</v>
+      </c>
+      <c r="D389" t="n">
+        <v>-0.05801212416845702</v>
+      </c>
+      <c r="E389" t="n">
+        <v>6.80756917367808</v>
+      </c>
+      <c r="F389" t="n">
+        <v>535.4861366421569</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.01345326132884904</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0.06658738487340649</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.6535873365655547</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>98.97474670410156</v>
+      </c>
+      <c r="B390" t="n">
+        <v>43.50027872733699</v>
+      </c>
+      <c r="C390" t="n">
+        <v>-0.3158520977394754</v>
+      </c>
+      <c r="D390" t="n">
+        <v>-1.17246864725327</v>
+      </c>
+      <c r="E390" t="n">
+        <v>7.183334146194628</v>
+      </c>
+      <c r="F390" t="n">
+        <v>351.0486979166667</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.01535354476352466</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.1195964036979991</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.9073554011900521</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>84.67509460449219</v>
+      </c>
+      <c r="B391" t="n">
+        <v>39.97650921354892</v>
+      </c>
+      <c r="C391" t="n">
+        <v>-0.1847446498823645</v>
+      </c>
+      <c r="D391" t="n">
+        <v>-0.9052083339578645</v>
+      </c>
+      <c r="E391" t="n">
+        <v>7.078929595347729</v>
+      </c>
+      <c r="F391" t="n">
+        <v>27.05646446078431</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.03389538403416503</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.3647349295809181</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.9915434731372118</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>84.90687561035156</v>
+      </c>
+      <c r="B392" t="n">
+        <v>44.29099399167853</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.2429987510380037</v>
+      </c>
+      <c r="D392" t="n">
+        <v>-1.256492382141685</v>
+      </c>
+      <c r="E392" t="n">
+        <v>7.183096825053848</v>
+      </c>
+      <c r="F392" t="n">
+        <v>123.5649662990196</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.01892636104445702</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.1826843577730934</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.9684737768977113</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>83.63638305664062</v>
+      </c>
+      <c r="B393" t="n">
+        <v>46.9822346016845</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.2648890259070479</v>
+      </c>
+      <c r="D393" t="n">
+        <v>-1.165285824969851</v>
+      </c>
+      <c r="E393" t="n">
+        <v>7.215877521032194</v>
+      </c>
+      <c r="F393" t="n">
+        <v>17.10272671568627</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.03393700770719799</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0.3840216273377665</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.9961336048776153</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>101.5584411621094</v>
+      </c>
+      <c r="B394" t="n">
+        <v>59.19516533497367</v>
+      </c>
+      <c r="C394" t="n">
+        <v>-0.2900835126894812</v>
+      </c>
+      <c r="D394" t="n">
+        <v>-1.364922989105807</v>
+      </c>
+      <c r="E394" t="n">
+        <v>7.357224541189299</v>
+      </c>
+      <c r="F394" t="n">
+        <v>134.8428155637255</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.02296427289553969</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.2167255387074205</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.9807775664623751</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>86.9515380859375</v>
+      </c>
+      <c r="B395" t="n">
+        <v>51.85124351385529</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.214890726745286</v>
+      </c>
+      <c r="D395" t="n">
+        <v>-1.166422654282751</v>
+      </c>
+      <c r="E395" t="n">
+        <v>7.43661663396626</v>
+      </c>
+      <c r="F395" t="n">
+        <v>565.9011182598039</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.01381237409066497</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.1036454407538962</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.8946012928100033</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>121.7030181884766</v>
+      </c>
+      <c r="B396" t="n">
+        <v>50.17025499975207</v>
+      </c>
+      <c r="C396" t="n">
+        <v>-0.2387305678660203</v>
+      </c>
+      <c r="D396" t="n">
+        <v>-1.118218368168021</v>
+      </c>
+      <c r="E396" t="n">
+        <v>7.281846894630831</v>
+      </c>
+      <c r="F396" t="n">
+        <v>31.09350490196078</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.04007476495479415</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.4646633925194121</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.9938427576975253</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>119.8363342285156</v>
+      </c>
+      <c r="B397" t="n">
+        <v>64.08196880722811</v>
+      </c>
+      <c r="C397" t="n">
+        <v>-0.3870150669086184</v>
+      </c>
+      <c r="D397" t="n">
+        <v>-1.089113915539173</v>
+      </c>
+      <c r="E397" t="n">
+        <v>7.640350066320737</v>
+      </c>
+      <c r="F397" t="n">
+        <v>484.2093290441177</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.01726813640084726</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0.1749946543893836</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.9410521381536906</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>88.71144104003906</v>
+      </c>
+      <c r="B398" t="n">
+        <v>44.75343353252641</v>
+      </c>
+      <c r="C398" t="n">
+        <v>-0.7015640000463514</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.07147357953719258</v>
+      </c>
+      <c r="E398" t="n">
+        <v>6.471138039521971</v>
+      </c>
+      <c r="F398" t="n">
+        <v>526.0668504901962</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.125249154337086</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.1972972762759494</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.8678819366682063</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>145.8107147216797</v>
+      </c>
+      <c r="B399" t="n">
+        <v>46.84634425473995</v>
+      </c>
+      <c r="C399" t="n">
+        <v>-0.190036825859402</v>
+      </c>
+      <c r="D399" t="n">
+        <v>-1.110948427678411</v>
+      </c>
+      <c r="E399" t="n">
+        <v>7.39879287282225</v>
+      </c>
+      <c r="F399" t="n">
+        <v>263.6411305147059</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.01214980594396152</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.08759361902898508</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.9399562184629752</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>117.2882080078125</v>
+      </c>
+      <c r="B400" t="n">
+        <v>60.5886698397553</v>
+      </c>
+      <c r="C400" t="n">
+        <v>-0.1663256854926426</v>
+      </c>
+      <c r="D400" t="n">
+        <v>-1.028752476448944</v>
+      </c>
+      <c r="E400" t="n">
+        <v>7.74642420109763</v>
+      </c>
+      <c r="F400" t="n">
+        <v>729.0789368872548</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.01143763038731687</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0.1014490451208688</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.9008253122154286</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>95.44352722167969</v>
+      </c>
+      <c r="B401" t="n">
+        <v>47.38292376105153</v>
+      </c>
+      <c r="C401" t="n">
+        <v>-0.2639461849969559</v>
+      </c>
+      <c r="D401" t="n">
+        <v>-0.6219133256167502</v>
+      </c>
+      <c r="E401" t="n">
+        <v>7.444216928585138</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1876.002833946078</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.008914019747209068</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0.03883567099503989</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.5829456681189431</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>130.2746734619141</v>
+      </c>
+      <c r="B402" t="n">
+        <v>51.15095150164364</v>
+      </c>
+      <c r="C402" t="n">
+        <v>-0.7295137704217268</v>
+      </c>
+      <c r="D402" t="n">
+        <v>-0.08456589593408825</v>
+      </c>
+      <c r="E402" t="n">
+        <v>7.458164476217912</v>
+      </c>
+      <c r="F402" t="n">
+        <v>592.6239276960785</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.0121627779714285</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.09303605776029931</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.8869701271015727</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>88.47952270507812</v>
+      </c>
+      <c r="B403" t="n">
+        <v>34.07317343693136</v>
+      </c>
+      <c r="C403" t="n">
+        <v>-0.1250393292431208</v>
+      </c>
+      <c r="D403" t="n">
+        <v>-0.746156871980411</v>
+      </c>
+      <c r="E403" t="n">
+        <v>7.075708204923883</v>
+      </c>
+      <c r="F403" t="n">
+        <v>213.4274050245098</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.01492642845566191</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0.1219776457957084</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.9080673329686686</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>101.8212127685547</v>
+      </c>
+      <c r="B404" t="n">
+        <v>66.135762558566</v>
+      </c>
+      <c r="C404" t="n">
+        <v>-0.2136713824706772</v>
+      </c>
+      <c r="D404" t="n">
+        <v>-1.251348271714079</v>
+      </c>
+      <c r="E404" t="n">
+        <v>7.196863165869027</v>
+      </c>
+      <c r="F404" t="n">
+        <v>898.8278492647061</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1219221386001455</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0.1784636231111968</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.8969471340712724</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>94.97259521484375</v>
+      </c>
+      <c r="B405" t="n">
+        <v>43.64089995777167</v>
+      </c>
+      <c r="C405" t="n">
+        <v>-0.4298176622183122</v>
+      </c>
+      <c r="D405" t="n">
+        <v>-1.06472763053655</v>
+      </c>
+      <c r="E405" t="n">
+        <v>7.197432630493664</v>
+      </c>
+      <c r="F405" t="n">
+        <v>251.4745098039216</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.01487980537060772</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0.1264773384836051</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.9340678455406179</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>83.55036926269531</v>
+      </c>
+      <c r="B406" t="n">
+        <v>55.98207210366017</v>
+      </c>
+      <c r="C406" t="n">
+        <v>-0.05406649187347024</v>
+      </c>
+      <c r="D406" t="n">
+        <v>-1.048629947365563</v>
+      </c>
+      <c r="E406" t="n">
+        <v>7.066391807235255</v>
+      </c>
+      <c r="F406" t="n">
+        <v>843.1595894607842</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1229145971836225</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0.1727793184190114</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.8650669706647534</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>85.93287658691406</v>
+      </c>
+      <c r="B407" t="n">
+        <v>53.75488680945772</v>
+      </c>
+      <c r="C407" t="n">
+        <v>-0.006898220305057601</v>
+      </c>
+      <c r="D407" t="n">
+        <v>-1.565334646664674</v>
+      </c>
+      <c r="E407" t="n">
+        <v>7.212255467588144</v>
+      </c>
+      <c r="F407" t="n">
+        <v>131.4032628676471</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.02272093814838852</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0.2191647285844414</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.9772696547372196</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>95.93144226074219</v>
+      </c>
+      <c r="B408" t="n">
+        <v>62.36016889181965</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.6122125166804162</v>
+      </c>
+      <c r="D408" t="n">
+        <v>-0.5611231691207639</v>
+      </c>
+      <c r="E408" t="n">
+        <v>7.629261594928621</v>
+      </c>
+      <c r="F408" t="n">
+        <v>586.5400122549021</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.01458127354047937</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.1553349220290323</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.9243805073109801</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>104.4785614013672</v>
+      </c>
+      <c r="B409" t="n">
+        <v>25.52250422719357</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.2869531766159893</v>
+      </c>
+      <c r="D409" t="n">
+        <v>-0.4860067380909778</v>
+      </c>
+      <c r="E409" t="n">
+        <v>6.671208072206636</v>
+      </c>
+      <c r="F409" t="n">
+        <v>287.3903033088236</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.01562007323325918</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0.08910335942165866</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.7795163810530594</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>127.1048736572266</v>
+      </c>
+      <c r="B410" t="n">
+        <v>56.97657029366638</v>
+      </c>
+      <c r="C410" t="n">
+        <v>-0.2407621348807229</v>
+      </c>
+      <c r="D410" t="n">
+        <v>-0.8434247597056466</v>
+      </c>
+      <c r="E410" t="n">
+        <v>7.736222896890995</v>
+      </c>
+      <c r="F410" t="n">
+        <v>258.8293045343138</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.0142608276630795</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.169931737634427</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.9601385332144944</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>124.7142181396484</v>
+      </c>
+      <c r="B411" t="n">
+        <v>69.25388086692082</v>
+      </c>
+      <c r="C411" t="n">
+        <v>-0.4008124575392817</v>
+      </c>
+      <c r="D411" t="n">
+        <v>-1.130064139185019</v>
+      </c>
+      <c r="E411" t="n">
+        <v>7.720363550054683</v>
+      </c>
+      <c r="F411" t="n">
+        <v>431.6610294117648</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.01857886182503557</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.2066933194679069</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.9549697285318902</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>113.4693145751953</v>
+      </c>
+      <c r="B412" t="n">
+        <v>24.50098971228034</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.362012721916871</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.5831159683765175</v>
+      </c>
+      <c r="E412" t="n">
+        <v>6.631802873565374</v>
+      </c>
+      <c r="F412" t="n">
+        <v>587.7016390931374</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.01428957828383316</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.06104456507373419</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.5103474671154898</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>113.8357086181641</v>
+      </c>
+      <c r="B413" t="n">
+        <v>52.63110810117972</v>
+      </c>
+      <c r="C413" t="n">
+        <v>-0.6556804666787177</v>
+      </c>
+      <c r="D413" t="n">
+        <v>-0.8408413410470321</v>
+      </c>
+      <c r="E413" t="n">
+        <v>7.297543620354179</v>
+      </c>
+      <c r="F413" t="n">
+        <v>285.8324908088235</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.01949065249190044</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0.1702300829114497</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.9484988069603483</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>123.7270660400391</v>
+      </c>
+      <c r="B414" t="n">
+        <v>69.94315417197869</v>
+      </c>
+      <c r="C414" t="n">
+        <v>-0.3331217480369761</v>
+      </c>
+      <c r="D414" t="n">
+        <v>-1.343508576871339</v>
+      </c>
+      <c r="E414" t="n">
+        <v>7.647794749261737</v>
+      </c>
+      <c r="F414" t="n">
+        <v>390.5810508578431</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.01530567773721669</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.1557749521612073</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.960058046908946</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>103.9413146972656</v>
+      </c>
+      <c r="B415" t="n">
+        <v>44.10174315873193</v>
+      </c>
+      <c r="C415" t="n">
+        <v>-0.6497831274367643</v>
+      </c>
+      <c r="D415" t="n">
+        <v>-0.3218308124577023</v>
+      </c>
+      <c r="E415" t="n">
+        <v>7.28946818534347</v>
+      </c>
+      <c r="F415" t="n">
+        <v>564.0112591911766</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.01170353162491709</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.06182722370323385</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.855270116968601</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>102.816650390625</v>
+      </c>
+      <c r="B416" t="n">
+        <v>47.67039474882322</v>
+      </c>
+      <c r="C416" t="n">
+        <v>-0.2572458512558619</v>
+      </c>
+      <c r="D416" t="n">
+        <v>-0.9039823821809336</v>
+      </c>
+      <c r="E416" t="n">
+        <v>7.476886840552855</v>
+      </c>
+      <c r="F416" t="n">
+        <v>541.6721660539215</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.01225620397495182</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.1006851488178676</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.8808877340095371</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>117.5637512207031</v>
+      </c>
+      <c r="B417" t="n">
+        <v>55.96701763084079</v>
+      </c>
+      <c r="C417" t="n">
+        <v>-0.3257565310532555</v>
+      </c>
+      <c r="D417" t="n">
+        <v>-1.1960192272689</v>
+      </c>
+      <c r="E417" t="n">
+        <v>7.346712210042989</v>
+      </c>
+      <c r="F417" t="n">
+        <v>425.1312193627451</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.0166319806261892</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.1339272416679456</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.9321757998343589</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>82.88655090332031</v>
+      </c>
+      <c r="B418" t="n">
+        <v>37.9697087685111</v>
+      </c>
+      <c r="C418" t="n">
+        <v>-0.2839519571472837</v>
+      </c>
+      <c r="D418" t="n">
+        <v>-1.199712662540101</v>
+      </c>
+      <c r="E418" t="n">
+        <v>6.968469449598258</v>
+      </c>
+      <c r="F418" t="n">
+        <v>14.70266544117647</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.0367822670476645</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.401611096630008</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.9949097860756955</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>203.5299987792969</v>
+      </c>
+      <c r="B419" t="n">
+        <v>69.49079636729414</v>
+      </c>
+      <c r="C419" t="n">
+        <v>-1.343297498300561</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.6656594073463049</v>
+      </c>
+      <c r="E419" t="n">
+        <v>6.010158219583865</v>
+      </c>
+      <c r="F419" t="n">
+        <v>1042.827864583333</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1701994659122564</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.2342948127887096</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.8922552142478214</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>84.49879455566406</v>
+      </c>
+      <c r="B420" t="n">
+        <v>36.61752834826466</v>
+      </c>
+      <c r="C420" t="n">
+        <v>-0.1117764748743013</v>
+      </c>
+      <c r="D420" t="n">
+        <v>-1.501550892238187</v>
+      </c>
+      <c r="E420" t="n">
+        <v>6.754042270501983</v>
+      </c>
+      <c r="F420" t="n">
+        <v>34.18734681372549</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.03048171300879903</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.2993491921642057</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.9872513737986526</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>105.2569885253906</v>
+      </c>
+      <c r="B421" t="n">
+        <v>56.9205799340852</v>
+      </c>
+      <c r="C421" t="n">
+        <v>-0.334017382825317</v>
+      </c>
+      <c r="D421" t="n">
+        <v>-0.9425133869404725</v>
+      </c>
+      <c r="E421" t="n">
+        <v>7.563971049551544</v>
+      </c>
+      <c r="F421" t="n">
+        <v>557.0890165441177</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.01708847649707994</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.1487384716497086</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.9141391443627839</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>127.3730621337891</v>
+      </c>
+      <c r="B422" t="n">
+        <v>65.08547822961533</v>
+      </c>
+      <c r="C422" t="n">
+        <v>-0.01529153772289354</v>
+      </c>
+      <c r="D422" t="n">
+        <v>-0.9956321519986662</v>
+      </c>
+      <c r="E422" t="n">
+        <v>7.727004030445531</v>
+      </c>
+      <c r="F422" t="n">
+        <v>518.8668658088236</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.01706422216118881</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.1616666632670299</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.9387210274159511</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>85.64039611816406</v>
+      </c>
+      <c r="B423" t="n">
+        <v>48.02575758858311</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.007808449030211868</v>
+      </c>
+      <c r="D423" t="n">
+        <v>-1.193926633675317</v>
+      </c>
+      <c r="E423" t="n">
+        <v>7.294074219735492</v>
+      </c>
+      <c r="F423" t="n">
+        <v>205.3571844362745</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.01891906926402802</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.1269262524311506</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.955463478573761</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>113.4502868652344</v>
+      </c>
+      <c r="B424" t="n">
+        <v>30.95726957582919</v>
+      </c>
+      <c r="C424" t="n">
+        <v>-0.6726219385932407</v>
+      </c>
+      <c r="D424" t="n">
+        <v>-0.02212707566249383</v>
+      </c>
+      <c r="E424" t="n">
+        <v>6.806612290507137</v>
+      </c>
+      <c r="F424" t="n">
+        <v>175.2444393382353</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.02201055960480528</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.1871084188453617</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.9086613423653298</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>111.9918670654297</v>
+      </c>
+      <c r="B425" t="n">
+        <v>54.73451364565391</v>
+      </c>
+      <c r="C425" t="n">
+        <v>-0.458403644585508</v>
+      </c>
+      <c r="D425" t="n">
+        <v>-0.9245969623081347</v>
+      </c>
+      <c r="E425" t="n">
+        <v>7.566376749010731</v>
+      </c>
+      <c r="F425" t="n">
+        <v>934.7866727941175</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.009553986136148884</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.06525440276920483</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.8442314299313889</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>96.52323913574219</v>
+      </c>
+      <c r="B426" t="n">
+        <v>54.75806086966778</v>
+      </c>
+      <c r="C426" t="n">
+        <v>-0.260473747786194</v>
+      </c>
+      <c r="D426" t="n">
+        <v>-1.091830909508195</v>
+      </c>
+      <c r="E426" t="n">
+        <v>7.427326929630061</v>
+      </c>
+      <c r="F426" t="n">
+        <v>1077.486351102941</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.01642598357117519</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.1074117389852947</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.8203891455913085</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>215.9348907470703</v>
+      </c>
+      <c r="B427" t="n">
+        <v>72.84766695127024</v>
+      </c>
+      <c r="C427" t="n">
+        <v>-1.845574877608316</v>
+      </c>
+      <c r="D427" t="n">
+        <v>2.004763081762921</v>
+      </c>
+      <c r="E427" t="n">
+        <v>4.196922777023509</v>
+      </c>
+      <c r="F427" t="n">
+        <v>823.319929534314</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.5014361140552687</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.5734202488381039</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.9226450119070091</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>112.3038787841797</v>
+      </c>
+      <c r="B428" t="n">
+        <v>56.51135642828961</v>
+      </c>
+      <c r="C428" t="n">
+        <v>-0.19943742836836</v>
+      </c>
+      <c r="D428" t="n">
+        <v>-1.012355022243395</v>
+      </c>
+      <c r="E428" t="n">
+        <v>7.702388977732292</v>
+      </c>
+      <c r="F428" t="n">
+        <v>791.9264399509805</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.009402168717606525</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.07201442711942441</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.8761147354758003</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>116.5951995849609</v>
+      </c>
+      <c r="B429" t="n">
+        <v>58.76674151240895</v>
+      </c>
+      <c r="C429" t="n">
+        <v>-0.5160801675472456</v>
+      </c>
+      <c r="D429" t="n">
+        <v>-0.9374983947417195</v>
+      </c>
+      <c r="E429" t="n">
+        <v>7.492035680506717</v>
+      </c>
+      <c r="F429" t="n">
+        <v>711.8284313725492</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.01602799929691594</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.126012136103278</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0.897102218971887</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>109.1024169921875</v>
+      </c>
+      <c r="B430" t="n">
+        <v>68.86657470315805</v>
+      </c>
+      <c r="C430" t="n">
+        <v>-0.1308827397519972</v>
+      </c>
+      <c r="D430" t="n">
+        <v>-1.302487908288396</v>
+      </c>
+      <c r="E430" t="n">
+        <v>7.620050529878468</v>
+      </c>
+      <c r="F430" t="n">
+        <v>541.323973651961</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.02171383966167083</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.1990177428859961</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.9428971175280685</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>123.6268463134766</v>
+      </c>
+      <c r="B431" t="n">
+        <v>58.39577799214323</v>
+      </c>
+      <c r="C431" t="n">
+        <v>-0.2350177426974351</v>
+      </c>
+      <c r="D431" t="n">
+        <v>-0.924925145025929</v>
+      </c>
+      <c r="E431" t="n">
+        <v>7.755043440567114</v>
+      </c>
+      <c r="F431" t="n">
+        <v>485.6825061274511</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.01194998262907355</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.1295257011451045</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.9287545451556243</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>101.8573303222656</v>
+      </c>
+      <c r="B432" t="n">
+        <v>40.84210319224255</v>
+      </c>
+      <c r="C432" t="n">
+        <v>-0.6306496258875169</v>
+      </c>
+      <c r="D432" t="n">
+        <v>-0.6011829975639316</v>
+      </c>
+      <c r="E432" t="n">
+        <v>7.145231795496238</v>
+      </c>
+      <c r="F432" t="n">
+        <v>479.2794883578432</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.01266117688512967</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.0687562138536803</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.8565662408598148</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>105.9387359619141</v>
+      </c>
+      <c r="B433" t="n">
+        <v>56.42795432505427</v>
+      </c>
+      <c r="C433" t="n">
+        <v>-0.383615578849445</v>
+      </c>
+      <c r="D433" t="n">
+        <v>-0.9968883888403095</v>
+      </c>
+      <c r="E433" t="n">
+        <v>7.523896852758471</v>
+      </c>
+      <c r="F433" t="n">
+        <v>1025.030851715686</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.01308580244701982</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.08767943386071116</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0.8392187630858511</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>134.7770080566406</v>
+      </c>
+      <c r="B434" t="n">
+        <v>47.28360924574323</v>
+      </c>
+      <c r="C434" t="n">
+        <v>-0.1146082482235807</v>
+      </c>
+      <c r="D434" t="n">
+        <v>-1.028524778700688</v>
+      </c>
+      <c r="E434" t="n">
+        <v>7.351765857877415</v>
+      </c>
+      <c r="F434" t="n">
+        <v>292.1238970588236</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.01726208814279003</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.1433707748174374</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.9346334661754314</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>109.0765838623047</v>
+      </c>
+      <c r="B435" t="n">
+        <v>68.89416598637314</v>
+      </c>
+      <c r="C435" t="n">
+        <v>-0.1310165256637681</v>
+      </c>
+      <c r="D435" t="n">
+        <v>-1.302800103296501</v>
+      </c>
+      <c r="E435" t="n">
+        <v>7.619005504590517</v>
+      </c>
+      <c r="F435" t="n">
+        <v>540.6339613970589</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.02180346045515685</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.1994164289093758</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.9430161630514329</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>94.26173400878906</v>
+      </c>
+      <c r="B436" t="n">
+        <v>30.6618479187735</v>
+      </c>
+      <c r="C436" t="n">
+        <v>-0.1867371421767088</v>
+      </c>
+      <c r="D436" t="n">
+        <v>-1.081855634199295</v>
+      </c>
+      <c r="E436" t="n">
+        <v>6.714816526298208</v>
+      </c>
+      <c r="F436" t="n">
+        <v>23.85035232843137</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.03092784979240591</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.30792608731575</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.98731805300122</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>105.8488922119141</v>
+      </c>
+      <c r="B437" t="n">
+        <v>54.9659477354383</v>
+      </c>
+      <c r="C437" t="n">
+        <v>-0.3267135421151182</v>
+      </c>
+      <c r="D437" t="n">
+        <v>-0.9639389782262815</v>
+      </c>
+      <c r="E437" t="n">
+        <v>7.530270290583885</v>
+      </c>
+      <c r="F437" t="n">
+        <v>496.424555759804</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.01605224052435783</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.1182718328054607</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.9179759187452697</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>98.86422729492188</v>
+      </c>
+      <c r="B438" t="n">
+        <v>45.01771296736006</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.02691286868020672</v>
+      </c>
+      <c r="D438" t="n">
+        <v>-0.6164627628116319</v>
+      </c>
+      <c r="E438" t="n">
+        <v>7.419447766632633</v>
+      </c>
+      <c r="F438" t="n">
+        <v>411.0576286764708</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.01173048840200227</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.09154694679245282</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.8986123184511344</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>113.0144958496094</v>
+      </c>
+      <c r="B439" t="n">
+        <v>50.83875173339523</v>
+      </c>
+      <c r="C439" t="n">
+        <v>-0.4189941937217133</v>
+      </c>
+      <c r="D439" t="n">
+        <v>-0.6669422915096219</v>
+      </c>
+      <c r="E439" t="n">
+        <v>7.549007816493395</v>
+      </c>
+      <c r="F439" t="n">
+        <v>861.2084252450981</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.009861556043531937</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.06441890195813463</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.8336192812375283</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>122.7789764404297</v>
+      </c>
+      <c r="B440" t="n">
+        <v>48.18614144969223</v>
+      </c>
+      <c r="C440" t="n">
+        <v>-0.5334873091094082</v>
+      </c>
+      <c r="D440" t="n">
+        <v>-0.3107140373449075</v>
+      </c>
+      <c r="E440" t="n">
+        <v>7.495171427062242</v>
+      </c>
+      <c r="F440" t="n">
+        <v>807.5328737745099</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.01012724644573323</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.0637166489954893</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.8263924217819224</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>124.9105072021484</v>
+      </c>
+      <c r="B441" t="n">
+        <v>55.05497769984422</v>
+      </c>
+      <c r="C441" t="n">
+        <v>-0.5407142651898424</v>
+      </c>
+      <c r="D441" t="n">
+        <v>-0.4107406733630481</v>
+      </c>
+      <c r="E441" t="n">
+        <v>7.633707155356518</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1109.26190257353</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.01012557798264627</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0.05519262855467575</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0.8173567819141898</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>131.9805908203125</v>
+      </c>
+      <c r="B442" t="n">
+        <v>54.44894331811707</v>
+      </c>
+      <c r="C442" t="n">
+        <v>-0.7486886200368039</v>
+      </c>
+      <c r="D442" t="n">
+        <v>-0.4153830288409681</v>
+      </c>
+      <c r="E442" t="n">
+        <v>7.462004322512625</v>
+      </c>
+      <c r="F442" t="n">
+        <v>593.6255667892158</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.01439308758535887</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.1116443645320855</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.9000440591255729</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>101.5757751464844</v>
+      </c>
+      <c r="B443" t="n">
+        <v>53.32033964351166</v>
+      </c>
+      <c r="C443" t="n">
+        <v>-0.299096089104678</v>
+      </c>
+      <c r="D443" t="n">
+        <v>-0.9783422474590804</v>
+      </c>
+      <c r="E443" t="n">
+        <v>7.551596948317561</v>
+      </c>
+      <c r="F443" t="n">
+        <v>915.5971507352943</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.01042562871392618</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0.07702950744827504</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0.8389922205892895</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>86.95271301269531</v>
+      </c>
+      <c r="B444" t="n">
+        <v>51.85012411511042</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.2149929308065282</v>
+      </c>
+      <c r="D444" t="n">
+        <v>-1.166518234909074</v>
+      </c>
+      <c r="E444" t="n">
+        <v>7.436653297226463</v>
+      </c>
+      <c r="F444" t="n">
+        <v>565.4868259803923</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.0137784390711</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.1030449230371224</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0.8946738875047052</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>111.5143585205078</v>
+      </c>
+      <c r="B445" t="n">
+        <v>53.26473300748141</v>
+      </c>
+      <c r="C445" t="n">
+        <v>-0.6972296200292779</v>
+      </c>
+      <c r="D445" t="n">
+        <v>-0.9096257938742847</v>
+      </c>
+      <c r="E445" t="n">
+        <v>7.176421270033729</v>
+      </c>
+      <c r="F445" t="n">
+        <v>543.2534160539217</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.01399421806237275</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0.07862995029409646</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.9044548058007221</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>166.568603515625</v>
+      </c>
+      <c r="B446" t="n">
+        <v>42.87908997157083</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.2797804916361463</v>
+      </c>
+      <c r="D446" t="n">
+        <v>-0.4626028164310889</v>
+      </c>
+      <c r="E446" t="n">
+        <v>7.269355182150607</v>
+      </c>
+      <c r="F446" t="n">
+        <v>909.3610753676473</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.0122988260018249</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0.0631785995829577</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.7526399157889168</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>100.3700256347656</v>
+      </c>
+      <c r="B447" t="n">
+        <v>58.46706028736868</v>
+      </c>
+      <c r="C447" t="n">
+        <v>-0.3657201231002275</v>
+      </c>
+      <c r="D447" t="n">
+        <v>-1.336493973132386</v>
+      </c>
+      <c r="E447" t="n">
+        <v>7.383232110142878</v>
+      </c>
+      <c r="F447" t="n">
+        <v>504.5018382352943</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.01614096377529236</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0.119544744694953</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0.9262493388689557</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>109.2806701660156</v>
+      </c>
+      <c r="B448" t="n">
+        <v>67.50804681955123</v>
+      </c>
+      <c r="C448" t="n">
+        <v>-0.08364103479985048</v>
+      </c>
+      <c r="D448" t="n">
+        <v>-1.294971219921811</v>
+      </c>
+      <c r="E448" t="n">
+        <v>7.660091087687035</v>
+      </c>
+      <c r="F448" t="n">
+        <v>515.9238357843138</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.01820193323287589</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0.1926895884291986</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.9433236505571059</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>88.20529174804688</v>
+      </c>
+      <c r="B449" t="n">
+        <v>32.69829175606856</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.4145635541098199</v>
+      </c>
+      <c r="D449" t="n">
+        <v>-0.909534852571046</v>
+      </c>
+      <c r="E449" t="n">
+        <v>6.839877393557283</v>
+      </c>
+      <c r="F449" t="n">
+        <v>83.24898897058824</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.02243795661745862</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0.2144735775798917</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0.9609845841967957</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>97.66889953613281</v>
+      </c>
+      <c r="B450" t="n">
+        <v>21.80812827334198</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.1836243597954348</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.2014331921604637</v>
+      </c>
+      <c r="E450" t="n">
+        <v>6.486153799238111</v>
+      </c>
+      <c r="F450" t="n">
+        <v>371.1938878676471</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.0162676178460372</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0.07998174543017889</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.6100578454053667</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>105.5722961425781</v>
+      </c>
+      <c r="B451" t="n">
+        <v>57.61588683130385</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.3997260568176604</v>
+      </c>
+      <c r="D451" t="n">
+        <v>-0.7375860441361999</v>
+      </c>
+      <c r="E451" t="n">
+        <v>7.625178953229278</v>
+      </c>
+      <c r="F451" t="n">
+        <v>334.7263020833333</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.01406802229880597</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0.1432835083719902</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.9494487521034845</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>107.1318054199219</v>
+      </c>
+      <c r="B452" t="n">
+        <v>51.17947007459568</v>
+      </c>
+      <c r="C452" t="n">
+        <v>-0.1438181868006937</v>
+      </c>
+      <c r="D452" t="n">
+        <v>-1.339499808341919</v>
+      </c>
+      <c r="E452" t="n">
+        <v>7.31392767099297</v>
+      </c>
+      <c r="F452" t="n">
+        <v>44.01660539215685</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.03068870526681175</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0.2994456018535713</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.9916115253797771</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>131.9335632324219</v>
+      </c>
+      <c r="B453" t="n">
+        <v>68.12125813242578</v>
+      </c>
+      <c r="C453" t="n">
+        <v>-0.2387681911535453</v>
+      </c>
+      <c r="D453" t="n">
+        <v>-1.099104371357086</v>
+      </c>
+      <c r="E453" t="n">
+        <v>7.747358970840207</v>
+      </c>
+      <c r="F453" t="n">
+        <v>247.8415287990197</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.02062651906403643</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.2066110686509872</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.973305638315098</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>126.13623046875</v>
+      </c>
+      <c r="B454" t="n">
+        <v>53.12014766074751</v>
+      </c>
+      <c r="C454" t="n">
+        <v>-0.7185501065608042</v>
+      </c>
+      <c r="D454" t="n">
+        <v>-0.6022370025591264</v>
+      </c>
+      <c r="E454" t="n">
+        <v>7.371355351691786</v>
+      </c>
+      <c r="F454" t="n">
+        <v>423.2322610294119</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.01457486701229504</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.1109946625892424</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.9251518409415673</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>126.9204406738281</v>
+      </c>
+      <c r="B455" t="n">
+        <v>45.20292772545039</v>
+      </c>
+      <c r="C455" t="n">
+        <v>-0.7771557803695065</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.316188934984885</v>
+      </c>
+      <c r="E455" t="n">
+        <v>7.367701862230214</v>
+      </c>
+      <c r="F455" t="n">
+        <v>446.5354013480392</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.01239692520125074</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0.09272233125904435</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.8908314478976173</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>59.12031555175781</v>
+      </c>
+      <c r="B456" t="n">
+        <v>36.08268446615656</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.5706119142667109</v>
+      </c>
+      <c r="D456" t="n">
+        <v>-0.710238090400328</v>
+      </c>
+      <c r="E456" t="n">
+        <v>6.975274472868301</v>
+      </c>
+      <c r="F456" t="n">
+        <v>96.91594669117649</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.02130121108124441</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0.1987794258614518</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.9625737380906048</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>109.1339263916016</v>
+      </c>
+      <c r="B457" t="n">
+        <v>73.1161494218298</v>
+      </c>
+      <c r="C457" t="n">
+        <v>-0.1540399896310858</v>
+      </c>
+      <c r="D457" t="n">
+        <v>-1.437527634917179</v>
+      </c>
+      <c r="E457" t="n">
+        <v>7.599848318046003</v>
+      </c>
+      <c r="F457" t="n">
+        <v>670.7548100490199</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.02134350470177363</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.1644300349405194</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.9372808021959397</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>95.21730041503906</v>
+      </c>
+      <c r="B458" t="n">
+        <v>50.74270749240236</v>
+      </c>
+      <c r="C458" t="n">
+        <v>-0.3487472675457097</v>
+      </c>
+      <c r="D458" t="n">
+        <v>-1.429233201731759</v>
+      </c>
+      <c r="E458" t="n">
+        <v>7.112607741963484</v>
+      </c>
+      <c r="F458" t="n">
+        <v>179.5374080882353</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.01939851208370402</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.1479351553332777</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.9651587265525744</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>121.28076171875</v>
+      </c>
+      <c r="B459" t="n">
+        <v>49.27046637878981</v>
+      </c>
+      <c r="C459" t="n">
+        <v>-0.6351107797201202</v>
+      </c>
+      <c r="D459" t="n">
+        <v>-0.4196073684744519</v>
+      </c>
+      <c r="E459" t="n">
+        <v>7.437325070828774</v>
+      </c>
+      <c r="F459" t="n">
+        <v>672.3441482843137</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.0129256904590894</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0.1008805281235128</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.8616389037587298</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>111.3432312011719</v>
+      </c>
+      <c r="B460" t="n">
+        <v>39.61661849705715</v>
+      </c>
+      <c r="C460" t="n">
+        <v>-0.3751126979960572</v>
+      </c>
+      <c r="D460" t="n">
+        <v>-0.7015776246153806</v>
+      </c>
+      <c r="E460" t="n">
+        <v>7.26003369287917</v>
+      </c>
+      <c r="F460" t="n">
+        <v>781.2337316176471</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.01004635717659411</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0.04886128109649417</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.7512962372181093</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>87.35502624511719</v>
+      </c>
+      <c r="B461" t="n">
+        <v>49.34042292746563</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.04313271922728896</v>
+      </c>
+      <c r="D461" t="n">
+        <v>-1.255131267487214</v>
+      </c>
+      <c r="E461" t="n">
+        <v>7.32428875381001</v>
+      </c>
+      <c r="F461" t="n">
+        <v>257.4303002450981</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.01508916684992148</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0.1164132443709402</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.9470837956430446</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>108.3386993408203</v>
+      </c>
+      <c r="B462" t="n">
+        <v>63.46456123215788</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.04662185501615244</v>
+      </c>
+      <c r="D462" t="n">
+        <v>-1.283359960215618</v>
+      </c>
+      <c r="E462" t="n">
+        <v>7.746273378657892</v>
+      </c>
+      <c r="F462" t="n">
+        <v>1144.181709558823</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.009530968834288302</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0.05797666871387209</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.857980548293648</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>115.5980834960938</v>
+      </c>
+      <c r="B463" t="n">
+        <v>55.0095144912172</v>
+      </c>
+      <c r="C463" t="n">
+        <v>-0.625188581702698</v>
+      </c>
+      <c r="D463" t="n">
+        <v>-0.8769394290572423</v>
+      </c>
+      <c r="E463" t="n">
+        <v>7.408278996444073</v>
+      </c>
+      <c r="F463" t="n">
+        <v>812.228048406863</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.01422199060470723</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0.1150393979646901</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.8658949218634072</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>92.76446533203125</v>
+      </c>
+      <c r="B464" t="n">
+        <v>46.17135189775873</v>
+      </c>
+      <c r="C464" t="n">
+        <v>-0.1837223881483321</v>
+      </c>
+      <c r="D464" t="n">
+        <v>-0.9552032553210279</v>
+      </c>
+      <c r="E464" t="n">
+        <v>7.40034941880725</v>
+      </c>
+      <c r="F464" t="n">
+        <v>828.8008118872549</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.0119191128590024</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.08077561220328115</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0.805773390450323</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>86.80189514160156</v>
+      </c>
+      <c r="B465" t="n">
+        <v>53.87293793587843</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.2018180839997665</v>
+      </c>
+      <c r="D465" t="n">
+        <v>-0.9696039508175951</v>
+      </c>
+      <c r="E465" t="n">
+        <v>7.562357591511897</v>
+      </c>
+      <c r="F465" t="n">
+        <v>730.9029411764706</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.01332986436747994</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.09684100440349148</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0.8736196871349297</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>88.33920288085938</v>
+      </c>
+      <c r="B466" t="n">
+        <v>59.88138548119778</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.01212744924637217</v>
+      </c>
+      <c r="D466" t="n">
+        <v>-1.402564334467974</v>
+      </c>
+      <c r="E466" t="n">
+        <v>7.451442417930629</v>
+      </c>
+      <c r="F466" t="n">
+        <v>436.6061734068627</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.02910870562924409</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.1842212843718772</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.939108484069162</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>77.10682678222656</v>
+      </c>
+      <c r="B467" t="n">
+        <v>39.58076411856519</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.2954449321620666</v>
+      </c>
+      <c r="D467" t="n">
+        <v>-1.174293884063512</v>
+      </c>
+      <c r="E467" t="n">
+        <v>7.061696845254936</v>
+      </c>
+      <c r="F467" t="n">
+        <v>29.35977328431373</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.02814289107196616</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0.3355224637414543</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0.9906405977737858</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>106.0562438964844</v>
+      </c>
+      <c r="B468" t="n">
+        <v>48.61370587980564</v>
+      </c>
+      <c r="C468" t="n">
+        <v>-0.2275116085418446</v>
+      </c>
+      <c r="D468" t="n">
+        <v>-0.8538444497880051</v>
+      </c>
+      <c r="E468" t="n">
+        <v>7.528036210174956</v>
+      </c>
+      <c r="F468" t="n">
+        <v>694.4751685049018</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.01009408050794831</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0.08073365492750863</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.8530826116568573</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>94.96168518066406</v>
+      </c>
+      <c r="B469" t="n">
+        <v>59.8759843005848</v>
+      </c>
+      <c r="C469" t="n">
+        <v>-0.1048453143754944</v>
+      </c>
+      <c r="D469" t="n">
+        <v>-1.346750447211622</v>
+      </c>
+      <c r="E469" t="n">
+        <v>7.481313051825204</v>
+      </c>
+      <c r="F469" t="n">
+        <v>199.2810508578432</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0.0192309246113928</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0.1940744821365996</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0.9722263786879105</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>113.8351135253906</v>
+      </c>
+      <c r="B470" t="n">
+        <v>52.63306301613328</v>
+      </c>
+      <c r="C470" t="n">
+        <v>-0.6557180225446926</v>
+      </c>
+      <c r="D470" t="n">
+        <v>-0.8407560017711946</v>
+      </c>
+      <c r="E470" t="n">
+        <v>7.297566784182776</v>
+      </c>
+      <c r="F470" t="n">
+        <v>285.8843903186274</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.01950719996601832</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0.1699579220368427</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.9484934364988061</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>59.62220764160156</v>
+      </c>
+      <c r="B471" t="n">
+        <v>36.74230943804652</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.02222031588245774</v>
+      </c>
+      <c r="D471" t="n">
+        <v>-1.315836758592804</v>
+      </c>
+      <c r="E471" t="n">
+        <v>6.850976281244822</v>
+      </c>
+      <c r="F471" t="n">
+        <v>20.06971507352941</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.04067440891788886</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.4061894099409014</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0.9925783843171168</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>118.0859222412109</v>
+      </c>
+      <c r="B472" t="n">
+        <v>50.69938791900381</v>
+      </c>
+      <c r="C472" t="n">
+        <v>-0.2456142706752692</v>
+      </c>
+      <c r="D472" t="n">
+        <v>-1.298913903198372</v>
+      </c>
+      <c r="E472" t="n">
+        <v>7.234050337034591</v>
+      </c>
+      <c r="F472" t="n">
+        <v>161.6675551470588</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.02173316469302734</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.1832742099585426</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.9685545436579687</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>130.97802734375</v>
+      </c>
+      <c r="B473" t="n">
+        <v>73.42496198231717</v>
+      </c>
+      <c r="C473" t="n">
+        <v>-0.2593335731653506</v>
+      </c>
+      <c r="D473" t="n">
+        <v>-1.142391547067563</v>
+      </c>
+      <c r="E473" t="n">
+        <v>7.764817844271955</v>
+      </c>
+      <c r="F473" t="n">
+        <v>470.6933210784314</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.01952491126475187</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.1795051220940918</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0.9563516485451775</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>105.6817932128906</v>
+      </c>
+      <c r="B474" t="n">
+        <v>34.14898891838042</v>
+      </c>
+      <c r="C474" t="n">
+        <v>-0.3769407675561779</v>
+      </c>
+      <c r="D474" t="n">
+        <v>-0.9840069348680558</v>
+      </c>
+      <c r="E474" t="n">
+        <v>6.861097610590878</v>
+      </c>
+      <c r="F474" t="n">
+        <v>107.4002910539216</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.02882029486361247</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.2670053240581992</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.9540008309220129</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>86.1195068359375</v>
+      </c>
+      <c r="B475" t="n">
+        <v>41.6316085055423</v>
+      </c>
+      <c r="C475" t="n">
+        <v>-0.3494494041290014</v>
+      </c>
+      <c r="D475" t="n">
+        <v>-1.234215397025797</v>
+      </c>
+      <c r="E475" t="n">
+        <v>7.093308852342138</v>
+      </c>
+      <c r="F475" t="n">
+        <v>129.8186274509804</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.01777710710585546</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0.1619044520990263</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.9625626701757448</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>105.7985076904297</v>
+      </c>
+      <c r="B476" t="n">
+        <v>35.03834749959685</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.2578942524489582</v>
+      </c>
+      <c r="D476" t="n">
+        <v>-0.9495592849736592</v>
+      </c>
+      <c r="E476" t="n">
+        <v>6.910853056899509</v>
+      </c>
+      <c r="F476" t="n">
+        <v>81.48383884803921</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.02539336857275233</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.2414152569140028</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.9667779771687682</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>223.9690093994141</v>
+      </c>
+      <c r="B477" t="n">
+        <v>57.57912514741653</v>
+      </c>
+      <c r="C477" t="n">
+        <v>-2.200524500783895</v>
+      </c>
+      <c r="D477" t="n">
+        <v>4.231145108555298</v>
+      </c>
+      <c r="E477" t="n">
+        <v>4.429738462037604</v>
+      </c>
+      <c r="F477" t="n">
+        <v>850.0283700980392</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.4493604235270643</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0.5214977175114729</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.8721697648975297</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>114.5853271484375</v>
+      </c>
+      <c r="B478" t="n">
+        <v>53.30476347954065</v>
+      </c>
+      <c r="C478" t="n">
+        <v>-0.2305106331296678</v>
+      </c>
+      <c r="D478" t="n">
+        <v>-0.5339005500753409</v>
+      </c>
+      <c r="E478" t="n">
+        <v>7.671163377355869</v>
+      </c>
+      <c r="F478" t="n">
+        <v>689.7936734068627</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.01080655068001447</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.09220802048683731</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.8788522098760388</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>119.8699340820312</v>
+      </c>
+      <c r="B479" t="n">
+        <v>50.90264356273987</v>
+      </c>
+      <c r="C479" t="n">
+        <v>-0.6850101032552431</v>
+      </c>
+      <c r="D479" t="n">
+        <v>-0.3699231471687501</v>
+      </c>
+      <c r="E479" t="n">
+        <v>7.441575391513256</v>
+      </c>
+      <c r="F479" t="n">
+        <v>672.7196078431374</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.01460706433392425</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0.1226599902999159</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0.8703968069794688</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>204.2778930664062</v>
+      </c>
+      <c r="B480" t="n">
+        <v>74.91386299251442</v>
+      </c>
+      <c r="C480" t="n">
+        <v>-1.432375315904318</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.657304114406227</v>
+      </c>
+      <c r="E480" t="n">
+        <v>5.713126851758435</v>
+      </c>
+      <c r="F480" t="n">
+        <v>1701.574862132353</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.2663877918722644</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0.3414915164773001</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.8487407540654364</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>103.2577819824219</v>
+      </c>
+      <c r="B481" t="n">
+        <v>47.01485565964853</v>
+      </c>
+      <c r="C481" t="n">
+        <v>-0.225113906080198</v>
+      </c>
+      <c r="D481" t="n">
+        <v>-0.5399186765690938</v>
+      </c>
+      <c r="E481" t="n">
+        <v>7.511800509455624</v>
+      </c>
+      <c r="F481" t="n">
+        <v>990.0502144607841</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.009130724400382482</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0.04945679082520061</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0.7761174041642795</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>71.88673400878906</v>
+      </c>
+      <c r="B482" t="n">
+        <v>49.94096555011657</v>
+      </c>
+      <c r="C482" t="n">
+        <v>-0.1129233054961809</v>
+      </c>
+      <c r="D482" t="n">
+        <v>-1.301546158231291</v>
+      </c>
+      <c r="E482" t="n">
+        <v>6.808524040063201</v>
+      </c>
+      <c r="F482" t="n">
+        <v>520.4846200980392</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0.1317103071144403</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0.2014259160450752</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.8954286618736692</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>106.6286926269531</v>
+      </c>
+      <c r="B483" t="n">
+        <v>54.71622440474225</v>
+      </c>
+      <c r="C483" t="n">
+        <v>-0.4774498638460375</v>
+      </c>
+      <c r="D483" t="n">
+        <v>-1.184765022014519</v>
+      </c>
+      <c r="E483" t="n">
+        <v>7.324612039280674</v>
+      </c>
+      <c r="F483" t="n">
+        <v>418.0918198529412</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.01424564817606481</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0.1023985633451015</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0.9302450372079671</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>98.68348693847656</v>
+      </c>
+      <c r="B484" t="n">
+        <v>34.92999537893348</v>
+      </c>
+      <c r="C484" t="n">
+        <v>-0.7095783119343034</v>
+      </c>
+      <c r="D484" t="n">
+        <v>-0.5807068913354723</v>
+      </c>
+      <c r="E484" t="n">
+        <v>6.846294120200125</v>
+      </c>
+      <c r="F484" t="n">
+        <v>134.9117340686275</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.02481284775544923</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0.2040233297270104</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.9447925145349795</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>108.6661529541016</v>
+      </c>
+      <c r="B485" t="n">
+        <v>47.78193415736632</v>
+      </c>
+      <c r="C485" t="n">
+        <v>-0.638545588468304</v>
+      </c>
+      <c r="D485" t="n">
+        <v>-0.8161608759382264</v>
+      </c>
+      <c r="E485" t="n">
+        <v>7.229885144777068</v>
+      </c>
+      <c r="F485" t="n">
+        <v>407.2724264705882</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.01691612107325532</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0.1366697237943298</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.9109838414475947</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>103.3419952392578</v>
+      </c>
+      <c r="B486" t="n">
+        <v>66.91963407425582</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.1546353063749374</v>
+      </c>
+      <c r="D486" t="n">
+        <v>-1.386975046178155</v>
+      </c>
+      <c r="E486" t="n">
+        <v>7.560112949368357</v>
+      </c>
+      <c r="F486" t="n">
+        <v>457.477818627451</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.01832398566595255</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.1795696390223258</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.9489132729141622</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>81.5634765625</v>
+      </c>
+      <c r="B487" t="n">
+        <v>49.42295064850072</v>
+      </c>
+      <c r="C487" t="n">
+        <v>-0.05825570031014086</v>
+      </c>
+      <c r="D487" t="n">
+        <v>-1.181097578311174</v>
+      </c>
+      <c r="E487" t="n">
+        <v>7.369423608124176</v>
+      </c>
+      <c r="F487" t="n">
+        <v>992.6334252450981</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.01288654439289643</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0.09117799708870479</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0.7968406198529824</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>124.5196533203125</v>
+      </c>
+      <c r="B488" t="n">
+        <v>67.92471439513797</v>
+      </c>
+      <c r="C488" t="n">
+        <v>-0.3529809896211885</v>
+      </c>
+      <c r="D488" t="n">
+        <v>-1.136296227255957</v>
+      </c>
+      <c r="E488" t="n">
+        <v>7.696053730751917</v>
+      </c>
+      <c r="F488" t="n">
+        <v>446.1244791666668</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.01974270981660161</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.1878758939386668</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.9516918749727046</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>102.5145416259766</v>
+      </c>
+      <c r="B489" t="n">
+        <v>52.39840053735558</v>
+      </c>
+      <c r="C489" t="n">
+        <v>-0.3683264445751532</v>
+      </c>
+      <c r="D489" t="n">
+        <v>-0.52116866099079</v>
+      </c>
+      <c r="E489" t="n">
+        <v>7.444772783960586</v>
+      </c>
+      <c r="F489" t="n">
+        <v>1214.665226715686</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.01667867225919764</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0.06988372023052809</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0.7790191180526161</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>125.3943481445312</v>
+      </c>
+      <c r="B490" t="n">
+        <v>47.401555003892</v>
+      </c>
+      <c r="C490" t="n">
+        <v>-0.4271801383214071</v>
+      </c>
+      <c r="D490" t="n">
+        <v>-0.3824401935090052</v>
+      </c>
+      <c r="E490" t="n">
+        <v>7.54040514167049</v>
+      </c>
+      <c r="F490" t="n">
+        <v>1046.037837009804</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.009052855214906022</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0.05433810067562123</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.7671983482918699</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>67.51084899902344</v>
+      </c>
+      <c r="B491" t="n">
+        <v>19.36097033565938</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.6958621480886762</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.5805418115764676</v>
+      </c>
+      <c r="E491" t="n">
+        <v>6.240257445087544</v>
+      </c>
+      <c r="F491" t="n">
+        <v>234.4769761029412</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0.02229552420163521</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0.1211410640758734</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0.6872440611066247</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>123.7271270751953</v>
+      </c>
+      <c r="B492" t="n">
+        <v>69.9420112430949</v>
+      </c>
+      <c r="C492" t="n">
+        <v>-0.3331110495253804</v>
+      </c>
+      <c r="D492" t="n">
+        <v>-1.343553582665309</v>
+      </c>
+      <c r="E492" t="n">
+        <v>7.647504770842497</v>
+      </c>
+      <c r="F492" t="n">
+        <v>390.6039981617648</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0.01532023582242768</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0.1559445367978139</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.9600542711033738</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>84.47975158691406</v>
+      </c>
+      <c r="B493" t="n">
+        <v>51.28466653535336</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.004790474328849739</v>
+      </c>
+      <c r="D493" t="n">
+        <v>-1.501079086971921</v>
+      </c>
+      <c r="E493" t="n">
+        <v>7.243926401170346</v>
+      </c>
+      <c r="F493" t="n">
+        <v>129.1019454656863</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.01861362633195462</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0.1921660933907777</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0.9754633387549456</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>102.4732513427734</v>
+      </c>
+      <c r="B494" t="n">
+        <v>58.89193412197059</v>
+      </c>
+      <c r="C494" t="n">
+        <v>-0.2349624772825373</v>
+      </c>
+      <c r="D494" t="n">
+        <v>-1.441450828419116</v>
+      </c>
+      <c r="E494" t="n">
+        <v>7.414538477743595</v>
+      </c>
+      <c r="F494" t="n">
+        <v>129.1939950980393</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.01996391564022628</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0.2073514337734554</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0.9813908367081372</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>100.7543029785156</v>
+      </c>
+      <c r="B495" t="n">
+        <v>74.14138337938658</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.0149824457173135</v>
+      </c>
+      <c r="D495" t="n">
+        <v>-1.513660231544352</v>
+      </c>
+      <c r="E495" t="n">
+        <v>7.517425142112987</v>
+      </c>
+      <c r="F495" t="n">
+        <v>655.2023437500001</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.02470997647919002</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0.1709153689210018</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.9403832706317471</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>84.214111328125</v>
+      </c>
+      <c r="B496" t="n">
+        <v>46.71151170506862</v>
+      </c>
+      <c r="C496" t="n">
+        <v>-0.2294828161354641</v>
+      </c>
+      <c r="D496" t="n">
+        <v>-1.036614306124634</v>
+      </c>
+      <c r="E496" t="n">
+        <v>7.327720198404394</v>
+      </c>
+      <c r="F496" t="n">
+        <v>798.8726102941177</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0.01271503291294854</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0.0812701308691294</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.8170728998343083</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>87.0452880859375</v>
+      </c>
+      <c r="B497" t="n">
+        <v>49.57432410644008</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.02208919507629432</v>
+      </c>
+      <c r="D497" t="n">
+        <v>-1.241807395485343</v>
+      </c>
+      <c r="E497" t="n">
+        <v>7.094383135057218</v>
+      </c>
+      <c r="F497" t="n">
+        <v>29.91375612745098</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.03944510577124968</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0.3953979888864544</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0.9939196336275143</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>233.8098754882812</v>
+      </c>
+      <c r="B498" t="n">
+        <v>46.69472153438705</v>
+      </c>
+      <c r="C498" t="n">
+        <v>-2.6025364460128</v>
+      </c>
+      <c r="D498" t="n">
+        <v>6.648262765308333</v>
+      </c>
+      <c r="E498" t="n">
+        <v>3.650220673651178</v>
+      </c>
+      <c r="F498" t="n">
+        <v>473.6175857843136</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0.5144673995062446</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0.6110036421901346</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.891732917640208</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>75.11082458496094</v>
+      </c>
+      <c r="B499" t="n">
+        <v>46.06887538580398</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.02669476326120737</v>
+      </c>
+      <c r="D499" t="n">
+        <v>-1.432808672227006</v>
+      </c>
+      <c r="E499" t="n">
+        <v>7.135476907898183</v>
+      </c>
+      <c r="F499" t="n">
+        <v>29.41963848039216</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.02745687811404304</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0.3122779874363262</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0.9930663009677764</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>97.62712097167969</v>
+      </c>
+      <c r="B500" t="n">
+        <v>26.61971691321696</v>
+      </c>
+      <c r="C500" t="n">
+        <v>-0.4673322355587149</v>
+      </c>
+      <c r="D500" t="n">
+        <v>-0.2177731907945524</v>
+      </c>
+      <c r="E500" t="n">
+        <v>6.682129464517498</v>
+      </c>
+      <c r="F500" t="n">
+        <v>113.5340992647059</v>
+      </c>
+      <c r="G500" t="n">
+        <v>0.02318408348630918</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.1905382844765464</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0.919967638081108</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>76.56243896484375</v>
+      </c>
+      <c r="B501" t="n">
+        <v>54.54414112991677</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.2862904286115295</v>
+      </c>
+      <c r="D501" t="n">
+        <v>-1.304354173460758</v>
+      </c>
+      <c r="E501" t="n">
+        <v>7.36083769140595</v>
+      </c>
+      <c r="F501" t="n">
+        <v>430.9527879901962</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0.02046181038647605</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0.1577221669376321</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0.9275312704055384</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>108.9372100830078</v>
+      </c>
+      <c r="B502" t="n">
+        <v>81.28586053388339</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.08015749036070506</v>
+      </c>
+      <c r="D502" t="n">
+        <v>-1.518753587459692</v>
+      </c>
+      <c r="E502" t="n">
+        <v>7.466824173769694</v>
+      </c>
+      <c r="F502" t="n">
+        <v>419.242018995098</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.04290358413079287</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0.2548683709497606</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0.9682711804086869</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>109.9552307128906</v>
+      </c>
+      <c r="B503" t="n">
+        <v>21.03742575925501</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.6120354451141798</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.09045427904841441</v>
+      </c>
+      <c r="E503" t="n">
+        <v>6.332009647950557</v>
+      </c>
+      <c r="F503" t="n">
+        <v>239.6076746323529</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.02164223362923009</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0.1175556183079522</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0.7287952728619775</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>110.4174499511719</v>
+      </c>
+      <c r="B504" t="n">
+        <v>39.00839053235836</v>
+      </c>
+      <c r="C504" t="n">
+        <v>-1.058937007843851</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.5769791871662218</v>
+      </c>
+      <c r="E504" t="n">
+        <v>6.997428792065348</v>
+      </c>
+      <c r="F504" t="n">
+        <v>690.7666053921567</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.01422126459390465</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0.06286625062433357</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0.7735589314591607</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>90.69105529785156</v>
+      </c>
+      <c r="B505" t="n">
+        <v>59.58955706008649</v>
+      </c>
+      <c r="C505" t="n">
+        <v>-0.1037122223971293</v>
+      </c>
+      <c r="D505" t="n">
+        <v>-1.169723968919733</v>
+      </c>
+      <c r="E505" t="n">
+        <v>7.149702664475234</v>
+      </c>
+      <c r="F505" t="n">
+        <v>602.9245557598039</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0.1204500978222746</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0.1825291737118677</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0.9148945613626041</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>112.4081420898438</v>
+      </c>
+      <c r="B506" t="n">
+        <v>56.59877211992957</v>
+      </c>
+      <c r="C506" t="n">
+        <v>-0.3930830806924172</v>
+      </c>
+      <c r="D506" t="n">
+        <v>-0.8690697615800311</v>
+      </c>
+      <c r="E506" t="n">
+        <v>7.639826137012237</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1433.95625</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.009247275691953343</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.05120777668456036</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.7763660612532213</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>104.4458312988281</v>
+      </c>
+      <c r="B507" t="n">
+        <v>45.26983405180524</v>
+      </c>
+      <c r="C507" t="n">
+        <v>-0.3427660757660285</v>
+      </c>
+      <c r="D507" t="n">
+        <v>-0.9174423318456761</v>
+      </c>
+      <c r="E507" t="n">
+        <v>7.394229554061755</v>
+      </c>
+      <c r="F507" t="n">
+        <v>811.3820465686276</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.009883494857602241</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.05308928044713974</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0.8021122757927752</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>131.7453308105469</v>
+      </c>
+      <c r="B508" t="n">
+        <v>68.69431289290659</v>
+      </c>
+      <c r="C508" t="n">
+        <v>-0.1003785836385599</v>
+      </c>
+      <c r="D508" t="n">
+        <v>-1.250788011007146</v>
+      </c>
+      <c r="E508" t="n">
+        <v>7.84927165281572</v>
+      </c>
+      <c r="F508" t="n">
+        <v>718.0126685049021</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.01261462695194647</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.1276539433649738</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.923886269178179</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>213.2901611328125</v>
+      </c>
+      <c r="B509" t="n">
+        <v>37.2766460985803</v>
+      </c>
+      <c r="C509" t="n">
+        <v>-0.7990065236823559</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.3014773970684037</v>
+      </c>
+      <c r="E509" t="n">
+        <v>6.411138753257476</v>
+      </c>
+      <c r="F509" t="n">
+        <v>1085.9875</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0.0724796903933214</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0.1398679513972694</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0.6092333685187826</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>93.80473327636719</v>
+      </c>
+      <c r="B510" t="n">
+        <v>63.47203110890071</v>
+      </c>
+      <c r="C510" t="n">
+        <v>-0.105510523342866</v>
+      </c>
+      <c r="D510" t="n">
+        <v>-1.454315669701582</v>
+      </c>
+      <c r="E510" t="n">
+        <v>7.382415384531328</v>
+      </c>
+      <c r="F510" t="n">
+        <v>431.9697610294119</v>
+      </c>
+      <c r="G510" t="n">
+        <v>0.02654544437960401</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0.196151339039018</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.9464388923471249</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>110.1961364746094</v>
+      </c>
+      <c r="B511" t="n">
+        <v>23.61535733925429</v>
+      </c>
+      <c r="C511" t="n">
+        <v>-0.6955568662924146</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.7511307627626045</v>
+      </c>
+      <c r="E511" t="n">
+        <v>6.516960346491921</v>
+      </c>
+      <c r="F511" t="n">
+        <v>113.1005821078431</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.02383968256594982</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0.186731741102427</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0.898770971588798</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>90.41458129882812</v>
+      </c>
+      <c r="B512" t="n">
+        <v>62.9614561127898</v>
+      </c>
+      <c r="C512" t="n">
+        <v>-0.1553321670828785</v>
+      </c>
+      <c r="D512" t="n">
+        <v>-1.326203854090528</v>
+      </c>
+      <c r="E512" t="n">
+        <v>7.048514395508283</v>
+      </c>
+      <c r="F512" t="n">
+        <v>934.988419117647</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.1264998676195887</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0.1781590890390278</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.8818298514316694</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>113.4370422363281</v>
+      </c>
+      <c r="B513" t="n">
+        <v>30.97311816745782</v>
+      </c>
+      <c r="C513" t="n">
+        <v>-0.6728013629151313</v>
+      </c>
+      <c r="D513" t="n">
+        <v>-0.02251772384163431</v>
+      </c>
+      <c r="E513" t="n">
+        <v>6.806823102181888</v>
+      </c>
+      <c r="F513" t="n">
+        <v>175.0733609068628</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.02201141248925664</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.1872385250700157</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0.9088439636231668</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>87.65476989746094</v>
+      </c>
+      <c r="B514" t="n">
+        <v>47.02371951121545</v>
+      </c>
+      <c r="C514" t="n">
+        <v>-0.164817778684203</v>
+      </c>
+      <c r="D514" t="n">
+        <v>-1.084402302396489</v>
+      </c>
+      <c r="E514" t="n">
+        <v>7.380344106243421</v>
+      </c>
+      <c r="F514" t="n">
+        <v>618.6094975490198</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.01252157014108289</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.09060596435881212</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.8602364922524015</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>117.6384429931641</v>
+      </c>
+      <c r="B515" t="n">
+        <v>56.15054873580993</v>
+      </c>
+      <c r="C515" t="n">
+        <v>-0.4519493322634818</v>
+      </c>
+      <c r="D515" t="n">
+        <v>-0.7786540465343341</v>
+      </c>
+      <c r="E515" t="n">
+        <v>7.634920405825822</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1882.515747549019</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.008608741533106517</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0.04835864274410489</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0.7020197941950117</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>102.4133911132812</v>
+      </c>
+      <c r="B516" t="n">
+        <v>33.46211364271317</v>
+      </c>
+      <c r="C516" t="n">
+        <v>-0.3045416814054838</v>
+      </c>
+      <c r="D516" t="n">
+        <v>-0.8610213561337265</v>
+      </c>
+      <c r="E516" t="n">
+        <v>6.95547871348893</v>
+      </c>
+      <c r="F516" t="n">
+        <v>121.5667279411765</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0.02342666432207392</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0.235532142164667</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0.9457878850595735</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>103.7252349853516</v>
+      </c>
+      <c r="B517" t="n">
+        <v>55.77680896766537</v>
+      </c>
+      <c r="C517" t="n">
+        <v>-0.3539482820264487</v>
+      </c>
+      <c r="D517" t="n">
+        <v>-0.8721241204197754</v>
+      </c>
+      <c r="E517" t="n">
+        <v>7.500105884741611</v>
+      </c>
+      <c r="F517" t="n">
+        <v>876.8057904411766</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.01405199998340083</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0.09653190466606464</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0.85919546694682</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>78.66404724121094</v>
+      </c>
+      <c r="B518" t="n">
+        <v>52.12496696900852</v>
+      </c>
+      <c r="C518" t="n">
+        <v>-0.05242347702926117</v>
+      </c>
+      <c r="D518" t="n">
+        <v>-1.019172452061589</v>
+      </c>
+      <c r="E518" t="n">
+        <v>6.981578302316631</v>
+      </c>
+      <c r="F518" t="n">
+        <v>828.2870404411761</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.1267652380495242</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0.176193581110689</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.8469608705377366</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>105.5722808837891</v>
+      </c>
+      <c r="B519" t="n">
+        <v>57.61430866820876</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.3997042472563527</v>
+      </c>
+      <c r="D519" t="n">
+        <v>-0.737690012651528</v>
+      </c>
+      <c r="E519" t="n">
+        <v>7.625071793352098</v>
+      </c>
+      <c r="F519" t="n">
+        <v>334.7973039215687</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.01404401538883314</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0.1424374395291605</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.9494350658845931</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>95.68807983398438</v>
+      </c>
+      <c r="B520" t="n">
+        <v>23.41679480219442</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.7250253114358813</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.9253872698656478</v>
+      </c>
+      <c r="E520" t="n">
+        <v>6.525614758815752</v>
+      </c>
+      <c r="F520" t="n">
+        <v>500.7172947303922</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0.01634895899645251</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0.07663567877427514</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.5434939948840281</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>76.02056884765625</v>
+      </c>
+      <c r="B521" t="n">
+        <v>46.23812899826719</v>
+      </c>
+      <c r="C521" t="n">
+        <v>-0.01876769818767175</v>
+      </c>
+      <c r="D521" t="n">
+        <v>-1.51948054234356</v>
+      </c>
+      <c r="E521" t="n">
+        <v>7.069575154589212</v>
+      </c>
+      <c r="F521" t="n">
+        <v>62.41308210784313</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.0200763689552658</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0.1906465803136703</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.9854049914784433</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>126.8245086669922</v>
+      </c>
+      <c r="B522" t="n">
+        <v>54.94742036190399</v>
+      </c>
+      <c r="C522" t="n">
+        <v>-0.4438913558136196</v>
+      </c>
+      <c r="D522" t="n">
+        <v>-0.5198314063465608</v>
+      </c>
+      <c r="E522" t="n">
+        <v>7.697402847123656</v>
+      </c>
+      <c r="F522" t="n">
+        <v>1772.572273284314</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.00777619158027113</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.03790176360670464</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0.7069036898209576</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>130.7437133789062</v>
+      </c>
+      <c r="B523" t="n">
+        <v>58.39041795504399</v>
+      </c>
+      <c r="C523" t="n">
+        <v>-0.5505932431951983</v>
+      </c>
+      <c r="D523" t="n">
+        <v>-0.7912137480085533</v>
+      </c>
+      <c r="E523" t="n">
+        <v>7.616013132470846</v>
+      </c>
+      <c r="F523" t="n">
+        <v>469.8005208333334</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0.01239505109697831</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0.1112774994140921</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.9312471365493515</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>116.0611724853516</v>
+      </c>
+      <c r="B524" t="n">
+        <v>54.65225814237528</v>
+      </c>
+      <c r="C524" t="n">
+        <v>-0.2576548055457395</v>
+      </c>
+      <c r="D524" t="n">
+        <v>-0.977012475396501</v>
+      </c>
+      <c r="E524" t="n">
+        <v>7.672963216316236</v>
+      </c>
+      <c r="F524" t="n">
+        <v>976.6379748774509</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0.008625815605433986</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.05453484690848124</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.8366856701950376</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>100.5892791748047</v>
+      </c>
+      <c r="B525" t="n">
+        <v>49.87651707955116</v>
+      </c>
+      <c r="C525" t="n">
+        <v>-0.3637694048357516</v>
+      </c>
+      <c r="D525" t="n">
+        <v>-0.8666864579264284</v>
+      </c>
+      <c r="E525" t="n">
+        <v>7.46054054433873</v>
+      </c>
+      <c r="F525" t="n">
+        <v>1122.798927696078</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0.0106621388611946</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0.06776839887713774</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.7744984700572397</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>77.54530334472656</v>
+      </c>
+      <c r="B526" t="n">
+        <v>42.57303250336694</v>
+      </c>
+      <c r="C526" t="n">
+        <v>-0.2776234882255024</v>
+      </c>
+      <c r="D526" t="n">
+        <v>-1.296027306463208</v>
+      </c>
+      <c r="E526" t="n">
+        <v>7.095108010874412</v>
+      </c>
+      <c r="F526" t="n">
+        <v>41.34590992647059</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.02440956832193487</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0.2319193574578623</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.9886010378626365</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>125.3175659179688</v>
+      </c>
+      <c r="B527" t="n">
+        <v>55.45264109426305</v>
+      </c>
+      <c r="C527" t="n">
+        <v>-0.4317394119345365</v>
+      </c>
+      <c r="D527" t="n">
+        <v>-0.9553894401665848</v>
+      </c>
+      <c r="E527" t="n">
+        <v>7.585239462982819</v>
+      </c>
+      <c r="F527" t="n">
+        <v>441.9314031862745</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.013463112811471</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.1358919864234644</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.9281965555980733</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>104.3589324951172</v>
+      </c>
+      <c r="B528" t="n">
+        <v>55.84638778096326</v>
+      </c>
+      <c r="C528" t="n">
+        <v>-0.1408226334317733</v>
+      </c>
+      <c r="D528" t="n">
+        <v>-1.014542142137996</v>
+      </c>
+      <c r="E528" t="n">
+        <v>7.670462542253969</v>
+      </c>
+      <c r="F528" t="n">
+        <v>638.1050704656864</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.01174616131225761</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.1048015474567655</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.8975644112940979</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>105.4710083007812</v>
+      </c>
+      <c r="B529" t="n">
+        <v>55.4970610128447</v>
+      </c>
+      <c r="C529" t="n">
+        <v>-0.4890665616606338</v>
+      </c>
+      <c r="D529" t="n">
+        <v>-0.8967471807885632</v>
+      </c>
+      <c r="E529" t="n">
+        <v>7.454031087799786</v>
+      </c>
+      <c r="F529" t="n">
+        <v>1155.340670955883</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0.01597779106778548</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0.07024713232192348</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.8126716311475635</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>131.8217163085938</v>
+      </c>
+      <c r="B530" t="n">
+        <v>57.89868798930085</v>
+      </c>
+      <c r="C530" t="n">
+        <v>-0.430497084805854</v>
+      </c>
+      <c r="D530" t="n">
+        <v>-0.96258716851277</v>
+      </c>
+      <c r="E530" t="n">
+        <v>7.614864064744107</v>
+      </c>
+      <c r="F530" t="n">
+        <v>901.737775735294</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0.01029972383232691</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.05873039051568436</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.8656402250178957</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>105.5240020751953</v>
+      </c>
+      <c r="B531" t="n">
+        <v>71.35850237980522</v>
+      </c>
+      <c r="C531" t="n">
+        <v>-0.04349913642533364</v>
+      </c>
+      <c r="D531" t="n">
+        <v>-1.561042742247955</v>
+      </c>
+      <c r="E531" t="n">
+        <v>7.531500010368187</v>
+      </c>
+      <c r="F531" t="n">
+        <v>448.9112285539216</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0.01749782919010416</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.1485926971961858</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0.9559941225871927</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>88.45037841796875</v>
+      </c>
+      <c r="B532" t="n">
+        <v>38.25191610298965</v>
+      </c>
+      <c r="C532" t="n">
+        <v>-0.1382987387189468</v>
+      </c>
+      <c r="D532" t="n">
+        <v>-1.318758685171275</v>
+      </c>
+      <c r="E532" t="n">
+        <v>6.964288355162148</v>
+      </c>
+      <c r="F532" t="n">
+        <v>139.3855238970588</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.01929744598952955</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.1644840571557088</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.952359592197132</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>76.5621337890625</v>
+      </c>
+      <c r="B533" t="n">
+        <v>54.54455886560481</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.2862493592759388</v>
+      </c>
+      <c r="D533" t="n">
+        <v>-1.304379298783474</v>
+      </c>
+      <c r="E533" t="n">
+        <v>7.360492650278716</v>
+      </c>
+      <c r="F533" t="n">
+        <v>430.7965839460785</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.02046411536694382</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.1574597249327667</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0.9275589919767505</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>105.4639892578125</v>
+      </c>
+      <c r="B534" t="n">
+        <v>23.1707196294876</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.3325114866959161</v>
+      </c>
+      <c r="D534" t="n">
+        <v>-0.4883622659276239</v>
+      </c>
+      <c r="E534" t="n">
+        <v>6.517684830245167</v>
+      </c>
+      <c r="F534" t="n">
+        <v>222.8073529411765</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0.01781946869137132</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.1007301496813857</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.7926315435684637</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>100.0784759521484</v>
+      </c>
+      <c r="B535" t="n">
+        <v>44.48155591366516</v>
+      </c>
+      <c r="C535" t="n">
+        <v>-0.1459582874047927</v>
+      </c>
+      <c r="D535" t="n">
+        <v>-0.5793445553295964</v>
+      </c>
+      <c r="E535" t="n">
+        <v>7.454230003709035</v>
+      </c>
+      <c r="F535" t="n">
+        <v>747.4197150735295</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.009753648100579817</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.05640145541871966</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.8111142932347496</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>84.21420288085938</v>
+      </c>
+      <c r="B536" t="n">
+        <v>34.05067549831364</v>
+      </c>
+      <c r="C536" t="n">
+        <v>-0.2278578738736576</v>
+      </c>
+      <c r="D536" t="n">
+        <v>-1.216553737336362</v>
+      </c>
+      <c r="E536" t="n">
+        <v>6.829842735431894</v>
+      </c>
+      <c r="F536" t="n">
+        <v>14.37066482843137</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.04176130939597511</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.4203723958784153</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.9938065150516396</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>66.23249816894531</v>
+      </c>
+      <c r="B537" t="n">
+        <v>45.09316907106823</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.3503584145644934</v>
+      </c>
+      <c r="D537" t="n">
+        <v>-1.262314196393104</v>
+      </c>
+      <c r="E537" t="n">
+        <v>7.010470291288695</v>
+      </c>
+      <c r="F537" t="n">
+        <v>14.2710631127451</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0.04114075152395885</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.4080914113984667</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0.9965046005806635</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>110.0198516845703</v>
+      </c>
+      <c r="B538" t="n">
+        <v>28.70642055586775</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1.401255655667126</v>
+      </c>
+      <c r="D538" t="n">
+        <v>2.9978564086325</v>
+      </c>
+      <c r="E538" t="n">
+        <v>6.671005136114593</v>
+      </c>
+      <c r="F538" t="n">
+        <v>65.12279411764708</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.02538344178881833</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.2049321700857016</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.9605621619887066</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>89.3470458984375</v>
+      </c>
+      <c r="B539" t="n">
+        <v>44.56683419067528</v>
+      </c>
+      <c r="C539" t="n">
+        <v>-0.2236424529508961</v>
+      </c>
+      <c r="D539" t="n">
+        <v>-1.350665694580488</v>
+      </c>
+      <c r="E539" t="n">
+        <v>7.142230177997385</v>
+      </c>
+      <c r="F539" t="n">
+        <v>160.8163756127451</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0.01663422380336014</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0.1453820274184734</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0.9595258432183922</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>80.73013305664062</v>
+      </c>
+      <c r="B540" t="n">
+        <v>40.40637785419243</v>
+      </c>
+      <c r="C540" t="n">
+        <v>-0.2366807471516906</v>
+      </c>
+      <c r="D540" t="n">
+        <v>-1.145610058445575</v>
+      </c>
+      <c r="E540" t="n">
+        <v>7.144879909294441</v>
+      </c>
+      <c r="F540" t="n">
+        <v>93.08002450980393</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0.0213681400676451</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0.2300037275786934</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.9714983059999561</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>203.1543121337891</v>
+      </c>
+      <c r="B541" t="n">
+        <v>70.9342743064559</v>
+      </c>
+      <c r="C541" t="n">
+        <v>-1.186375644094964</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.2472395609802436</v>
+      </c>
+      <c r="E541" t="n">
+        <v>5.473674080460804</v>
+      </c>
+      <c r="F541" t="n">
+        <v>731.4291360294119</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.2763130037013887</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0.3603320413757654</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0.9274602155728391</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>73.91433715820312</v>
+      </c>
+      <c r="B542" t="n">
+        <v>52.45299628803276</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.6234619445678051</v>
+      </c>
+      <c r="D542" t="n">
+        <v>-0.7998370103349455</v>
+      </c>
+      <c r="E542" t="n">
+        <v>7.404397651354594</v>
+      </c>
+      <c r="F542" t="n">
+        <v>501.1041973039215</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.01460500788793263</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.1283096445381689</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0.9085921252295469</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>85.41815185546875</v>
+      </c>
+      <c r="B543" t="n">
+        <v>39.46234286007657</v>
+      </c>
+      <c r="C543" t="n">
+        <v>-0.4976503656130065</v>
+      </c>
+      <c r="D543" t="n">
+        <v>-1.290992446050112</v>
+      </c>
+      <c r="E543" t="n">
+        <v>6.740963535017154</v>
+      </c>
+      <c r="F543" t="n">
+        <v>35.23175551470589</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.0301311366345544</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0.2813898370462156</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0.9887052526383721</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>81.17440795898438</v>
+      </c>
+      <c r="B544" t="n">
+        <v>30.48368587170489</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.02626368125819052</v>
+      </c>
+      <c r="D544" t="n">
+        <v>-1.0871085709666</v>
+      </c>
+      <c r="E544" t="n">
+        <v>6.773157979505094</v>
+      </c>
+      <c r="F544" t="n">
+        <v>165.0177083333333</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0.02074932827473229</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.1594585527939203</v>
+      </c>
+      <c r="I544" t="n">
+        <v>0.9111331220875103</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>89.01072692871094</v>
+      </c>
+      <c r="B545" t="n">
+        <v>47.14422546478212</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.1034803457638524</v>
+      </c>
+      <c r="D545" t="n">
+        <v>-0.9217361892540774</v>
+      </c>
+      <c r="E545" t="n">
+        <v>7.472088552524059</v>
+      </c>
+      <c r="F545" t="n">
+        <v>1547.444178921569</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.00902736476611966</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0.052205688390162</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0.6518551054404316</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>118.3907470703125</v>
+      </c>
+      <c r="B546" t="n">
+        <v>48.71449962996383</v>
+      </c>
+      <c r="C546" t="n">
+        <v>-0.5311928660151358</v>
+      </c>
+      <c r="D546" t="n">
+        <v>-0.1174659120834947</v>
+      </c>
+      <c r="E546" t="n">
+        <v>7.458047863241712</v>
+      </c>
+      <c r="F546" t="n">
+        <v>686.2373008578433</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0.01138236900527274</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0.07628349867132854</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0.8555437299943502</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>105.3245086669922</v>
+      </c>
+      <c r="B547" t="n">
+        <v>59.53746426234566</v>
+      </c>
+      <c r="C547" t="n">
+        <v>-0.180465034244002</v>
+      </c>
+      <c r="D547" t="n">
+        <v>-1.206561092717189</v>
+      </c>
+      <c r="E547" t="n">
+        <v>7.632956982051764</v>
+      </c>
+      <c r="F547" t="n">
+        <v>803.2780637254903</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.01563553926563336</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0.1276922351420341</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0.8865704326074122</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>105.4619750976562</v>
+      </c>
+      <c r="B548" t="n">
+        <v>40.73163799367535</v>
+      </c>
+      <c r="C548" t="n">
+        <v>-0.08717894684191931</v>
+      </c>
+      <c r="D548" t="n">
+        <v>-1.211308824204223</v>
+      </c>
+      <c r="E548" t="n">
+        <v>7.134687331505075</v>
+      </c>
+      <c r="F548" t="n">
+        <v>248.318443627451</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0.01541072194176938</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0.1146412996980771</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0.9252432371210543</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>81.56391906738281</v>
+      </c>
+      <c r="B549" t="n">
+        <v>49.42157647956884</v>
+      </c>
+      <c r="C549" t="n">
+        <v>-0.05830634536187632</v>
+      </c>
+      <c r="D549" t="n">
+        <v>-1.18095341680842</v>
+      </c>
+      <c r="E549" t="n">
+        <v>7.369473168042144</v>
+      </c>
+      <c r="F549" t="n">
+        <v>992.3817401960786</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.012893389429123</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0.09123437860789727</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0.7968808057757981</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>105.6164855957031</v>
+      </c>
+      <c r="B550" t="n">
+        <v>51.32357177961528</v>
+      </c>
+      <c r="C550" t="n">
+        <v>-0.4602857638490686</v>
+      </c>
+      <c r="D550" t="n">
+        <v>-0.79955545030972</v>
+      </c>
+      <c r="E550" t="n">
+        <v>7.424897958804825</v>
+      </c>
+      <c r="F550" t="n">
+        <v>1125.809114583334</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0.01207914328850944</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0.0864462325557438</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0.7863615956273168</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>86.46635437011719</v>
+      </c>
+      <c r="B551" t="n">
+        <v>49.7161762233815</v>
+      </c>
+      <c r="C551" t="n">
+        <v>-0.1607694115241928</v>
+      </c>
+      <c r="D551" t="n">
+        <v>-1.136085505880552</v>
+      </c>
+      <c r="E551" t="n">
+        <v>7.395202470866982</v>
+      </c>
+      <c r="F551" t="n">
+        <v>1008.886197916667</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0.01295327412740553</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.08662227558995447</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0.7960439233613026</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>113.0836334228516</v>
+      </c>
+      <c r="B552" t="n">
+        <v>50.53709795519336</v>
+      </c>
+      <c r="C552" t="n">
+        <v>-0.5496317499989948</v>
+      </c>
+      <c r="D552" t="n">
+        <v>-0.7470582706496254</v>
+      </c>
+      <c r="E552" t="n">
+        <v>7.42193665110956</v>
+      </c>
+      <c r="F552" t="n">
+        <v>899.2064950980392</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.01061663772122552</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0.05361375740990247</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.824208606551422</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>78.89683532714844</v>
+      </c>
+      <c r="B553" t="n">
+        <v>35.07101375224055</v>
+      </c>
+      <c r="C553" t="n">
+        <v>-0.0933277672341301</v>
+      </c>
+      <c r="D553" t="n">
+        <v>-1.012907233541344</v>
+      </c>
+      <c r="E553" t="n">
+        <v>6.927260005582522</v>
+      </c>
+      <c r="F553" t="n">
+        <v>36.9593443627451</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.03105878065124804</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0.3164332323418693</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0.9849939562411525</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>109.1892395019531</v>
+      </c>
+      <c r="B554" t="n">
+        <v>57.57248518157928</v>
+      </c>
+      <c r="C554" t="n">
+        <v>-0.26595780566316</v>
+      </c>
+      <c r="D554" t="n">
+        <v>-1.143740356115745</v>
+      </c>
+      <c r="E554" t="n">
+        <v>7.619641212031553</v>
+      </c>
+      <c r="F554" t="n">
+        <v>802.7118412990197</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.01138873760636482</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0.09012311434695174</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0.8790787104443337</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>110.6042938232422</v>
+      </c>
+      <c r="B555" t="n">
+        <v>63.05427842796927</v>
+      </c>
+      <c r="C555" t="n">
+        <v>-0.1484955298256513</v>
+      </c>
+      <c r="D555" t="n">
+        <v>-1.237691371431753</v>
+      </c>
+      <c r="E555" t="n">
+        <v>7.721572982315733</v>
+      </c>
+      <c r="F555" t="n">
+        <v>751.5874846813728</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.01185265868443675</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0.08707796045831948</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0.9053258334641037</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>93.75398254394531</v>
+      </c>
+      <c r="B556" t="n">
+        <v>63.52692430779249</v>
+      </c>
+      <c r="C556" t="n">
+        <v>-0.1062967866660656</v>
+      </c>
+      <c r="D556" t="n">
+        <v>-1.453847809762244</v>
+      </c>
+      <c r="E556" t="n">
+        <v>7.378117577662378</v>
+      </c>
+      <c r="F556" t="n">
+        <v>431.8902113970589</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.02729564495511978</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.1972912837845141</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0.9465411481176264</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>134.3162536621094</v>
+      </c>
+      <c r="B557" t="n">
+        <v>61.93145276852174</v>
+      </c>
+      <c r="C557" t="n">
+        <v>-0.3859083903654506</v>
+      </c>
+      <c r="D557" t="n">
+        <v>-0.9925324801572124</v>
+      </c>
+      <c r="E557" t="n">
+        <v>7.675948228972937</v>
+      </c>
+      <c r="F557" t="n">
+        <v>605.2243872549019</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.01666242816185248</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0.1485103025341482</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0.9211912058595105</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>88.07485961914062</v>
+      </c>
+      <c r="B558" t="n">
+        <v>50.87560056120422</v>
+      </c>
+      <c r="C558" t="n">
+        <v>-0.1609539691317042</v>
+      </c>
+      <c r="D558" t="n">
+        <v>-1.44596020642526</v>
+      </c>
+      <c r="E558" t="n">
+        <v>7.279111793397716</v>
+      </c>
+      <c r="F558" t="n">
+        <v>44.89806985294118</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.02190932198544885</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.2268967121665263</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0.9913376787335562</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>114.5926818847656</v>
+      </c>
+      <c r="B559" t="n">
+        <v>53.29280813199495</v>
+      </c>
+      <c r="C559" t="n">
+        <v>-0.2298088752463693</v>
+      </c>
+      <c r="D559" t="n">
+        <v>-0.5347673988687327</v>
+      </c>
+      <c r="E559" t="n">
+        <v>7.670880130611851</v>
+      </c>
+      <c r="F559" t="n">
+        <v>689.8868872549019</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.01076569335140367</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.09160170840439383</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0.8787817685588221</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>100.2533721923828</v>
+      </c>
+      <c r="B560" t="n">
+        <v>60.91214313113622</v>
+      </c>
+      <c r="C560" t="n">
+        <v>-0.3053039231929235</v>
+      </c>
+      <c r="D560" t="n">
+        <v>-0.9705732405551437</v>
+      </c>
+      <c r="E560" t="n">
+        <v>7.150561602340366</v>
+      </c>
+      <c r="F560" t="n">
+        <v>1199.013909313725</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.1221714599808841</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.1687974542826401</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.8378367664299383</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>124.6775817871094</v>
+      </c>
+      <c r="B561" t="n">
+        <v>44.62129350812001</v>
+      </c>
+      <c r="C561" t="n">
+        <v>-0.1275975211143348</v>
+      </c>
+      <c r="D561" t="n">
+        <v>-1.034098675980617</v>
+      </c>
+      <c r="E561" t="n">
+        <v>7.247562975850236</v>
+      </c>
+      <c r="F561" t="n">
+        <v>89.57984068627454</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.02376497323007947</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0.236492344204682</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0.9775228841346357</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>84.81056213378906</v>
+      </c>
+      <c r="B562" t="n">
+        <v>46.9518668471088</v>
+      </c>
+      <c r="C562" t="n">
+        <v>-0.1772900008979831</v>
+      </c>
+      <c r="D562" t="n">
+        <v>-1.21970072024841</v>
+      </c>
+      <c r="E562" t="n">
+        <v>7.273793403600107</v>
+      </c>
+      <c r="F562" t="n">
+        <v>320.1938725490196</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.01587138439691675</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0.1265534416917026</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0.9273620830427617</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>77.40058898925781</v>
+      </c>
+      <c r="B563" t="n">
+        <v>58.31122280571235</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.4620722596894882</v>
+      </c>
+      <c r="D563" t="n">
+        <v>-0.9583085156507249</v>
+      </c>
+      <c r="E563" t="n">
+        <v>7.510577789233529</v>
+      </c>
+      <c r="F563" t="n">
+        <v>403.8732077205883</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.02454818532800182</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0.194201549072784</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0.9403334298306244</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>131.0511322021484</v>
+      </c>
+      <c r="B564" t="n">
+        <v>73.33882038400426</v>
+      </c>
+      <c r="C564" t="n">
+        <v>-0.2568088627574063</v>
+      </c>
+      <c r="D564" t="n">
+        <v>-1.14487307199967</v>
+      </c>
+      <c r="E564" t="n">
+        <v>7.769064479328438</v>
+      </c>
+      <c r="F564" t="n">
+        <v>471.2792738970588</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.01890844899252862</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0.1781128264415689</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0.9561945731731439</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>90.06391906738281</v>
+      </c>
+      <c r="B565" t="n">
+        <v>26.91956902436064</v>
+      </c>
+      <c r="C565" t="n">
+        <v>-0.3988482020363834</v>
+      </c>
+      <c r="D565" t="n">
+        <v>-0.4945896890525385</v>
+      </c>
+      <c r="E565" t="n">
+        <v>6.628864392376879</v>
+      </c>
+      <c r="F565" t="n">
+        <v>108.8723192401961</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.0266568415052126</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0.2416690808704781</v>
+      </c>
+      <c r="I565" t="n">
+        <v>0.9247865822233969</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>122.4061431884766</v>
+      </c>
+      <c r="B566" t="n">
+        <v>55.31169897663725</v>
+      </c>
+      <c r="C566" t="n">
+        <v>-0.3334287908321201</v>
+      </c>
+      <c r="D566" t="n">
+        <v>-0.9598320127817841</v>
+      </c>
+      <c r="E566" t="n">
+        <v>7.539319610890696</v>
+      </c>
+      <c r="F566" t="n">
+        <v>606.7626685049021</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.01229861612115488</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0.1009282062513284</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.9009297814520196</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>102.3382110595703</v>
+      </c>
+      <c r="B567" t="n">
+        <v>64.19934252724518</v>
+      </c>
+      <c r="C567" t="n">
+        <v>-0.01041283894620321</v>
+      </c>
+      <c r="D567" t="n">
+        <v>-1.268857964672144</v>
+      </c>
+      <c r="E567" t="n">
+        <v>7.614246243580982</v>
+      </c>
+      <c r="F567" t="n">
+        <v>449.5250919117648</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0.0293521291475143</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0.2470244951548162</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0.945441546187052</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>121.5558319091797</v>
+      </c>
+      <c r="B568" t="n">
+        <v>51.19324841553842</v>
+      </c>
+      <c r="C568" t="n">
+        <v>-1.055112185672686</v>
+      </c>
+      <c r="D568" t="n">
+        <v>-0.3353889671597008</v>
+      </c>
+      <c r="E568" t="n">
+        <v>6.830367459051392</v>
+      </c>
+      <c r="F568" t="n">
+        <v>242.2709099264706</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0.02095729323165926</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0.1410054845022898</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.9538794497626429</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>97.32852172851562</v>
+      </c>
+      <c r="B569" t="n">
+        <v>58.65770714207383</v>
+      </c>
+      <c r="C569" t="n">
+        <v>-0.06280617382915539</v>
+      </c>
+      <c r="D569" t="n">
+        <v>-1.248204768064129</v>
+      </c>
+      <c r="E569" t="n">
+        <v>7.624298666560702</v>
+      </c>
+      <c r="F569" t="n">
+        <v>706.4332873774511</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.01193905953286588</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0.1031798106110773</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0.8973042975204144</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>111.1027526855469</v>
+      </c>
+      <c r="B570" t="n">
+        <v>38.53132327447498</v>
+      </c>
+      <c r="C570" t="n">
+        <v>-0.9942925581471919</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.5301957444146459</v>
+      </c>
+      <c r="E570" t="n">
+        <v>6.998092369415543</v>
+      </c>
+      <c r="F570" t="n">
+        <v>654.7862285539215</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0.01555183996919129</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0.08185717154783517</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0.7799306664811679</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>92.23936462402344</v>
+      </c>
+      <c r="B571" t="n">
+        <v>47.11136955625908</v>
+      </c>
+      <c r="C571" t="n">
+        <v>-0.1775361740501094</v>
+      </c>
+      <c r="D571" t="n">
+        <v>-1.26243205509568</v>
+      </c>
+      <c r="E571" t="n">
+        <v>7.302596163972309</v>
+      </c>
+      <c r="F571" t="n">
+        <v>65.75632659313726</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.01920552718270521</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0.2062160233340516</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0.9852078319379987</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>86.51751708984375</v>
+      </c>
+      <c r="B572" t="n">
+        <v>45.3154494410476</v>
+      </c>
+      <c r="C572" t="n">
+        <v>-0.3925382120516719</v>
+      </c>
+      <c r="D572" t="n">
+        <v>-1.24417763239538</v>
+      </c>
+      <c r="E572" t="n">
+        <v>6.961087547439292</v>
+      </c>
+      <c r="F572" t="n">
+        <v>39.89928002450979</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.03538918583664512</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0.3112597204186151</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0.9902980981105554</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>131.7484436035156</v>
+      </c>
+      <c r="B573" t="n">
+        <v>68.69716751514575</v>
+      </c>
+      <c r="C573" t="n">
+        <v>-0.1002012956912399</v>
+      </c>
+      <c r="D573" t="n">
+        <v>-1.250743957470059</v>
+      </c>
+      <c r="E573" t="n">
+        <v>7.849267160751787</v>
+      </c>
+      <c r="F573" t="n">
+        <v>717.7050857843137</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.01263451567252642</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0.1274767367504751</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0.9239259234239505</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>108.9099578857422</v>
+      </c>
+      <c r="B574" t="n">
+        <v>35.83003796831947</v>
+      </c>
+      <c r="C574" t="n">
+        <v>-0.3307879157708534</v>
+      </c>
+      <c r="D574" t="n">
+        <v>-0.9687761438128502</v>
+      </c>
+      <c r="E574" t="n">
+        <v>6.921699728591651</v>
+      </c>
+      <c r="F574" t="n">
+        <v>54.07423406862746</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0.02701277400120981</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0.2760581879050382</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.9789543906011339</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>116.7723541259766</v>
+      </c>
+      <c r="B575" t="n">
+        <v>53.09502956758568</v>
+      </c>
+      <c r="C575" t="n">
+        <v>-0.3363006316128214</v>
+      </c>
+      <c r="D575" t="n">
+        <v>-0.4669570089497355</v>
+      </c>
+      <c r="E575" t="n">
+        <v>7.644968618877164</v>
+      </c>
+      <c r="F575" t="n">
+        <v>1017.251286764706</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.01000811783032989</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0.06205254736490889</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0.8183329455520688</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>102.8656463623047</v>
+      </c>
+      <c r="B576" t="n">
+        <v>36.27026600801848</v>
+      </c>
+      <c r="C576" t="n">
+        <v>-0.2441393784086602</v>
+      </c>
+      <c r="D576" t="n">
+        <v>-0.8619211235846955</v>
+      </c>
+      <c r="E576" t="n">
+        <v>7.014183411109025</v>
+      </c>
+      <c r="F576" t="n">
+        <v>174.5984681372549</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.0176619456543821</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0.1363264234740051</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.9336610431603631</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>100.3795318603516</v>
+      </c>
+      <c r="B577" t="n">
+        <v>58.45940365216517</v>
+      </c>
+      <c r="C577" t="n">
+        <v>-0.365702398081014</v>
+      </c>
+      <c r="D577" t="n">
+        <v>-1.33639592775267</v>
+      </c>
+      <c r="E577" t="n">
+        <v>7.384555310384038</v>
+      </c>
+      <c r="F577" t="n">
+        <v>504.8515165441178</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0.01600943884534013</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0.1186510794092638</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0.9261793747827445</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>113.6089782714844</v>
+      </c>
+      <c r="B578" t="n">
+        <v>55.29929161200059</v>
+      </c>
+      <c r="C578" t="n">
+        <v>0.11537325333247</v>
+      </c>
+      <c r="D578" t="n">
+        <v>-1.264778111131049</v>
+      </c>
+      <c r="E578" t="n">
+        <v>7.551690907162079</v>
+      </c>
+      <c r="F578" t="n">
+        <v>378.2782628676472</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0.01324101963463438</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0.1229101748392187</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0.9381941348894683</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>70.23536682128906</v>
+      </c>
+      <c r="B579" t="n">
+        <v>39.54176777439376</v>
+      </c>
+      <c r="C579" t="n">
+        <v>0.001972582139413648</v>
+      </c>
+      <c r="D579" t="n">
+        <v>-1.24213067098859</v>
+      </c>
+      <c r="E579" t="n">
+        <v>7.062789679016483</v>
+      </c>
+      <c r="F579" t="n">
+        <v>24.94424019607843</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0.02786452017234593</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0.3166929716682857</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0.9920369214925914</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>105.3891754150391</v>
+      </c>
+      <c r="B580" t="n">
+        <v>59.3714242705472</v>
+      </c>
+      <c r="C580" t="n">
+        <v>0.01469051304699123</v>
+      </c>
+      <c r="D580" t="n">
+        <v>-1.218376463166132</v>
+      </c>
+      <c r="E580" t="n">
+        <v>7.668360547795522</v>
+      </c>
+      <c r="F580" t="n">
+        <v>568.5228247549019</v>
+      </c>
+      <c r="G580" t="n">
+        <v>0.01281818589785191</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0.10708574868062</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0.9193212881701029</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>100.8574066162109</v>
+      </c>
+      <c r="B581" t="n">
+        <v>74.03687588943581</v>
+      </c>
+      <c r="C581" t="n">
+        <v>0.01578094733593714</v>
+      </c>
+      <c r="D581" t="n">
+        <v>-1.51330651271538</v>
+      </c>
+      <c r="E581" t="n">
+        <v>7.526425717378725</v>
+      </c>
+      <c r="F581" t="n">
+        <v>656.1566023284315</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.02269330444882891</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0.1688820666488379</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0.9401272660504705</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>85.01620483398438</v>
+      </c>
+      <c r="B582" t="n">
+        <v>70.61010355967511</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.3796489242976505</v>
+      </c>
+      <c r="D582" t="n">
+        <v>-1.328775699523043</v>
+      </c>
+      <c r="E582" t="n">
+        <v>7.413306056444401</v>
+      </c>
+      <c r="F582" t="n">
+        <v>557.1869791666668</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0.0280291787828988</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0.1936232751264828</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0.9440386228493813</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>99.72575378417969</v>
+      </c>
+      <c r="B583" t="n">
+        <v>45.40541691880745</v>
+      </c>
+      <c r="C583" t="n">
+        <v>-0.3763459462974804</v>
+      </c>
+      <c r="D583" t="n">
+        <v>-0.5985677354031793</v>
+      </c>
+      <c r="E583" t="n">
+        <v>7.41942196189665</v>
+      </c>
+      <c r="F583" t="n">
+        <v>921.7379289215686</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.009956117974929735</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0.05086594632084291</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0.7767230002237232</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>84.88758850097656</v>
+      </c>
+      <c r="B584" t="n">
+        <v>31.73536954540167</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.08110347616491845</v>
+      </c>
+      <c r="D584" t="n">
+        <v>-0.56090290627693</v>
+      </c>
+      <c r="E584" t="n">
+        <v>6.920564967335076</v>
+      </c>
+      <c r="F584" t="n">
+        <v>51.95124080882353</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0.02420258786380736</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0.2539173514471437</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0.9742169617094989</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>125.384033203125</v>
+      </c>
+      <c r="B585" t="n">
+        <v>51.84848906245431</v>
+      </c>
+      <c r="C585" t="n">
+        <v>-0.2564135894493851</v>
+      </c>
+      <c r="D585" t="n">
+        <v>-1.379561191548093</v>
+      </c>
+      <c r="E585" t="n">
+        <v>7.18976528133631</v>
+      </c>
+      <c r="F585" t="n">
+        <v>51.94868259803923</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.02623533092583294</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0.283136551167695</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0.99034949300775</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>110.1317138671875</v>
+      </c>
+      <c r="B586" t="n">
+        <v>48.87649058470864</v>
+      </c>
+      <c r="C586" t="n">
+        <v>-0.3589110100774254</v>
+      </c>
+      <c r="D586" t="n">
+        <v>-0.7591381532285393</v>
+      </c>
+      <c r="E586" t="n">
+        <v>7.517870872336601</v>
+      </c>
+      <c r="F586" t="n">
+        <v>1391.58606004902</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0.008924280538187888</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0.05082280189191678</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0.7090416073858389</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>109.8757934570312</v>
+      </c>
+      <c r="B587" t="n">
+        <v>54.13418676753841</v>
+      </c>
+      <c r="C587" t="n">
+        <v>-0.4195103898901796</v>
+      </c>
+      <c r="D587" t="n">
+        <v>-0.7807025775146772</v>
+      </c>
+      <c r="E587" t="n">
+        <v>7.537539358096008</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1177.06803002451</v>
+      </c>
+      <c r="G587" t="n">
+        <v>0.01063141439546077</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0.07129763439795118</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0.7993663473358202</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>140.6981658935547</v>
+      </c>
+      <c r="B588" t="n">
+        <v>26.10144804216372</v>
+      </c>
+      <c r="C588" t="n">
+        <v>-1.085486092316466</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1.831850167882226</v>
+      </c>
+      <c r="E588" t="n">
+        <v>6.603152894031387</v>
+      </c>
+      <c r="F588" t="n">
+        <v>114.2106770833334</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0.02385277051766155</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0.1699989347866185</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0.9162430623527515</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>81.32896423339844</v>
+      </c>
+      <c r="B589" t="n">
+        <v>45.30569097212684</v>
+      </c>
+      <c r="C589" t="n">
+        <v>-0.07096682990705337</v>
+      </c>
+      <c r="D589" t="n">
+        <v>-1.43684710261658</v>
+      </c>
+      <c r="E589" t="n">
+        <v>7.180361599453792</v>
+      </c>
+      <c r="F589" t="n">
+        <v>84.31207107843136</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0.02191220292733592</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0.2585010569028118</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0.9794669931149851</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>120.4608154296875</v>
+      </c>
+      <c r="B590" t="n">
+        <v>54.45194882131025</v>
+      </c>
+      <c r="C590" t="n">
+        <v>-0.4965320997266013</v>
+      </c>
+      <c r="D590" t="n">
+        <v>-0.824834154015043</v>
+      </c>
+      <c r="E590" t="n">
+        <v>7.570371647597106</v>
+      </c>
+      <c r="F590" t="n">
+        <v>502.6990502450981</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.01216372330728839</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0.1103773295663383</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0.9153659033565343</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>73.02519226074219</v>
+      </c>
+      <c r="B591" t="n">
+        <v>40.75565329954189</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0.5506723843099294</v>
+      </c>
+      <c r="D591" t="n">
+        <v>-0.5925933644602566</v>
+      </c>
+      <c r="E591" t="n">
+        <v>7.193045596053463</v>
+      </c>
+      <c r="F591" t="n">
+        <v>190.4867953431373</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.0155911873428317</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0.1368608857934471</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0.9424640731449692</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>112.3883666992188</v>
+      </c>
+      <c r="B592" t="n">
+        <v>53.06026462705653</v>
+      </c>
+      <c r="C592" t="n">
+        <v>-0.8400676997878707</v>
+      </c>
+      <c r="D592" t="n">
+        <v>-0.7155717053490114</v>
+      </c>
+      <c r="E592" t="n">
+        <v>7.114287242575148</v>
+      </c>
+      <c r="F592" t="n">
+        <v>276.2350490196079</v>
+      </c>
+      <c r="G592" t="n">
+        <v>0.01667356425356678</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0.1272313108103185</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.9510379381651641</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>74.95901489257812</v>
+      </c>
+      <c r="B593" t="n">
+        <v>39.61969399801518</v>
+      </c>
+      <c r="C593" t="n">
+        <v>-0.1885863755222831</v>
+      </c>
+      <c r="D593" t="n">
+        <v>-1.013430314846291</v>
+      </c>
+      <c r="E593" t="n">
+        <v>6.966458463736102</v>
+      </c>
+      <c r="F593" t="n">
+        <v>29.39975490196078</v>
+      </c>
+      <c r="G593" t="n">
+        <v>0.03348852372328372</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0.3447927258045056</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0.9906481158505182</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>134.2663116455078</v>
+      </c>
+      <c r="B594" t="n">
+        <v>47.13136132210951</v>
+      </c>
+      <c r="C594" t="n">
+        <v>-1.252994250431356</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.8601092541628472</v>
+      </c>
+      <c r="E594" t="n">
+        <v>7.141853768606413</v>
+      </c>
+      <c r="F594" t="n">
+        <v>609.8315257352941</v>
+      </c>
+      <c r="G594" t="n">
+        <v>0.01728280651710673</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0.1163764293189083</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.8629776539929117</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>83.63374328613281</v>
+      </c>
+      <c r="B595" t="n">
+        <v>56.51357838548744</v>
+      </c>
+      <c r="C595" t="n">
+        <v>0.09326199299522046</v>
+      </c>
+      <c r="D595" t="n">
+        <v>-1.40910613444404</v>
+      </c>
+      <c r="E595" t="n">
+        <v>7.426417017041612</v>
+      </c>
+      <c r="F595" t="n">
+        <v>496.2194087009805</v>
+      </c>
+      <c r="G595" t="n">
+        <v>0.01837681186911372</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0.1304654907317323</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0.9222270436791973</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>96.560546875</v>
+      </c>
+      <c r="B596" t="n">
+        <v>62.8251811269691</v>
+      </c>
+      <c r="C596" t="n">
+        <v>-0.1630345662459206</v>
+      </c>
+      <c r="D596" t="n">
+        <v>-1.533660389511748</v>
+      </c>
+      <c r="E596" t="n">
+        <v>7.364213706141727</v>
+      </c>
+      <c r="F596" t="n">
+        <v>430.6692861519609</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0.02032386449012246</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0.1645068844241159</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.9455340732602586</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>215.1889801025391</v>
+      </c>
+      <c r="B597" t="n">
+        <v>72.48315554773113</v>
+      </c>
+      <c r="C597" t="n">
+        <v>-1.789795049644294</v>
+      </c>
+      <c r="D597" t="n">
+        <v>1.813071883911079</v>
+      </c>
+      <c r="E597" t="n">
+        <v>4.371702912530152</v>
+      </c>
+      <c r="F597" t="n">
+        <v>457.2828431372549</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0.4711991352807841</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0.5553857741242103</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0.9566016395788159</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>123.3035125732422</v>
+      </c>
+      <c r="B598" t="n">
+        <v>55.80560948214389</v>
+      </c>
+      <c r="C598" t="n">
+        <v>-0.4574294815291669</v>
+      </c>
+      <c r="D598" t="n">
+        <v>-0.7416980150779375</v>
+      </c>
+      <c r="E598" t="n">
+        <v>7.627500126864445</v>
+      </c>
+      <c r="F598" t="n">
+        <v>657.4265165441178</v>
+      </c>
+      <c r="G598" t="n">
+        <v>0.01307871721570255</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0.1131676478685587</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0.894660437114029</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>84.59893798828125</v>
+      </c>
+      <c r="B599" t="n">
+        <v>50.55412888778324</v>
+      </c>
+      <c r="C599" t="n">
+        <v>-0.1272680401777906</v>
+      </c>
+      <c r="D599" t="n">
+        <v>-1.385715012579002</v>
+      </c>
+      <c r="E599" t="n">
+        <v>7.239302050732412</v>
+      </c>
+      <c r="F599" t="n">
+        <v>38.81116727941177</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0.02893472602320551</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0.2605167901062488</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0.9924149942195647</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>128.0905151367188</v>
+      </c>
+      <c r="B600" t="n">
+        <v>55.0395702636112</v>
+      </c>
+      <c r="C600" t="n">
+        <v>-0.3834521784282666</v>
+      </c>
+      <c r="D600" t="n">
+        <v>-0.7291775907549023</v>
+      </c>
+      <c r="E600" t="n">
+        <v>7.673210072940212</v>
+      </c>
+      <c r="F600" t="n">
+        <v>551.0987132352942</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0.01083792621509701</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0.0973731982642472</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.9091696347333994</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>97.25379943847656</v>
+      </c>
+      <c r="B601" t="n">
+        <v>32.10570366450907</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0.08765989268716698</v>
+      </c>
+      <c r="D601" t="n">
+        <v>-0.6584623141417207</v>
+      </c>
+      <c r="E601" t="n">
+        <v>6.994195154349424</v>
+      </c>
+      <c r="F601" t="n">
+        <v>254.3264093137255</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0.01441472261687319</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0.1023076619832045</v>
+      </c>
+      <c r="I601" t="n">
+        <v>0.8764623865572982</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>92.34385681152344</v>
+      </c>
+      <c r="B602" t="n">
+        <v>61.51412332604823</v>
+      </c>
+      <c r="C602" t="n">
+        <v>-0.1433864584063052</v>
+      </c>
+      <c r="D602" t="n">
+        <v>-1.212944281653628</v>
+      </c>
+      <c r="E602" t="n">
+        <v>7.147582986759695</v>
+      </c>
+      <c r="F602" t="n">
+        <v>797.3447303921571</v>
+      </c>
+      <c r="G602" t="n">
+        <v>0.1241333725364358</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0.1966166261914522</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0.8943485177590624</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BlueChannel.xlsx
+++ b/BlueChannel.xlsx
@@ -423,47 +423,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>MeanB</t>
+          <t>Mean_B</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>VarianceB</t>
+          <t>Variance_B</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SkewnessB</t>
+          <t>Skewness_B</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>KurtosisB</t>
+          <t>Kurtosis_B</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ContrastB</t>
+          <t>Contrast_B</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>EntropyB</t>
+          <t>Entropy_B</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>EnergyB</t>
+          <t>Energy_B</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>HomoB</t>
+          <t>Homogeneity_B</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>CorreB</t>
+          <t>Correlation_B</t>
         </is>
       </c>
     </row>

--- a/BlueChannel.xlsx
+++ b/BlueChannel.xlsx
@@ -472,7 +472,7 @@
         <v>109.6100006103516</v>
       </c>
       <c r="B2" t="n">
-        <v>52.70440569210424</v>
+        <v>2777.75437935791</v>
       </c>
       <c r="C2" t="n">
         <v>-0.2986993549305267</v>
@@ -501,7 +501,7 @@
         <v>110.2406158447266</v>
       </c>
       <c r="B3" t="n">
-        <v>49.49774669238656</v>
+        <v>2450.026927623665</v>
       </c>
       <c r="C3" t="n">
         <v>-0.4216248532441613</v>
@@ -530,7 +530,7 @@
         <v>124.7058258056641</v>
       </c>
       <c r="B4" t="n">
-        <v>51.65920583596845</v>
+        <v>2668.673547602957</v>
       </c>
       <c r="C4" t="n">
         <v>-0.6471858837229122</v>
@@ -559,7 +559,7 @@
         <v>86.91175842285156</v>
       </c>
       <c r="B5" t="n">
-        <v>51.88192588057408</v>
+        <v>2691.734233077383</v>
       </c>
       <c r="C5" t="n">
         <v>0.2141114181856525</v>
@@ -588,7 +588,7 @@
         <v>134.3170318603516</v>
       </c>
       <c r="B6" t="n">
-        <v>61.93154130609496</v>
+        <v>3835.515808548545</v>
       </c>
       <c r="C6" t="n">
         <v>-0.3860867591297006</v>
@@ -617,7 +617,7 @@
         <v>130.274658203125</v>
       </c>
       <c r="B7" t="n">
-        <v>51.15132223116482</v>
+        <v>2616.457765996456</v>
       </c>
       <c r="C7" t="n">
         <v>-0.7295569646060721</v>
@@ -646,7 +646,7 @@
         <v>119.2673492431641</v>
       </c>
       <c r="B8" t="n">
-        <v>51.76931929488935</v>
+        <v>2680.062420256203</v>
       </c>
       <c r="C8" t="n">
         <v>-0.8877822217189701</v>
@@ -675,7 +675,7 @@
         <v>110.1964874267578</v>
       </c>
       <c r="B9" t="n">
-        <v>23.61583288251912</v>
+        <v>557.7075627350714</v>
       </c>
       <c r="C9" t="n">
         <v>-0.6957138177921113</v>
@@ -704,7 +704,7 @@
         <v>107.4969177246094</v>
       </c>
       <c r="B10" t="n">
-        <v>43.8980272301478</v>
+        <v>1927.036794698797</v>
       </c>
       <c r="C10" t="n">
         <v>-0.14222057920533</v>
@@ -733,7 +733,7 @@
         <v>128.1523895263672</v>
       </c>
       <c r="B11" t="n">
-        <v>45.21254045257154</v>
+        <v>2044.173814175418</v>
       </c>
       <c r="C11" t="n">
         <v>-0.3645560603576907</v>
@@ -762,7 +762,7 @@
         <v>89.93766784667969</v>
       </c>
       <c r="B12" t="n">
-        <v>47.81186528970589</v>
+        <v>2285.974462480983</v>
       </c>
       <c r="C12" t="n">
         <v>-0.07672172849916531</v>
@@ -791,7 +791,7 @@
         <v>116.4435119628906</v>
       </c>
       <c r="B13" t="n">
-        <v>47.4937555133701</v>
+        <v>2255.656812763773</v>
       </c>
       <c r="C13" t="n">
         <v>-0.2755331117131791</v>
@@ -820,7 +820,7 @@
         <v>108.3268737792969</v>
       </c>
       <c r="B14" t="n">
-        <v>63.47971479070587</v>
+        <v>4029.674189909361</v>
       </c>
       <c r="C14" t="n">
         <v>0.04616571990321468</v>
@@ -849,7 +849,7 @@
         <v>114.9888610839844</v>
       </c>
       <c r="B15" t="n">
-        <v>49.25534413865686</v>
+        <v>2426.088926217519</v>
       </c>
       <c r="C15" t="n">
         <v>-0.5225037095286322</v>
@@ -878,7 +878,7 @@
         <v>93.19303894042969</v>
       </c>
       <c r="B16" t="n">
-        <v>63.80705799828252</v>
+        <v>4071.340650396189</v>
       </c>
       <c r="C16" t="n">
         <v>0.3365592256023719</v>
@@ -907,7 +907,7 @@
         <v>91.49423217773438</v>
       </c>
       <c r="B17" t="n">
-        <v>40.69683436794649</v>
+        <v>1656.23232757207</v>
       </c>
       <c r="C17" t="n">
         <v>-0.4237368914774052</v>
@@ -936,7 +936,7 @@
         <v>113.54345703125</v>
       </c>
       <c r="B18" t="n">
-        <v>56.06769342724971</v>
+        <v>3143.58624625206</v>
       </c>
       <c r="C18" t="n">
         <v>-0.2578460230370382</v>
@@ -965,7 +965,7 @@
         <v>91.25430297851562</v>
       </c>
       <c r="B19" t="n">
-        <v>54.86112029421678</v>
+        <v>3009.742519936524</v>
       </c>
       <c r="C19" t="n">
         <v>0.2443407874601075</v>
@@ -994,7 +994,7 @@
         <v>196.4781494140625</v>
       </c>
       <c r="B20" t="n">
-        <v>73.28950874533116</v>
+        <v>5371.352092131972</v>
       </c>
       <c r="C20" t="n">
         <v>-1.196476585402203</v>
@@ -1023,7 +1023,7 @@
         <v>79.911376953125</v>
       </c>
       <c r="B21" t="n">
-        <v>40.26093163261707</v>
+        <v>1620.942615926266</v>
       </c>
       <c r="C21" t="n">
         <v>-0.2988979859633592</v>
@@ -1052,7 +1052,7 @@
         <v>127.3491973876953</v>
       </c>
       <c r="B22" t="n">
-        <v>56.85112522830543</v>
+        <v>3232.050439724466</v>
       </c>
       <c r="C22" t="n">
         <v>-0.5991872579998812</v>
@@ -1081,7 +1081,7 @@
         <v>101.7585601806641</v>
       </c>
       <c r="B23" t="n">
-        <v>53.41504815166869</v>
+        <v>2853.167369045084</v>
       </c>
       <c r="C23" t="n">
         <v>-0.1554077827046529</v>
@@ -1110,7 +1110,7 @@
         <v>113.0584259033203</v>
       </c>
       <c r="B24" t="n">
-        <v>61.18915899749765</v>
+        <v>3744.113178821048</v>
       </c>
       <c r="C24" t="n">
         <v>-0.1863080967656934</v>
@@ -1139,7 +1139,7 @@
         <v>83.58090209960938</v>
       </c>
       <c r="B25" t="n">
-        <v>50.48653739388459</v>
+        <v>2548.890458024107</v>
       </c>
       <c r="C25" t="n">
         <v>-0.2155277036458295</v>
@@ -1168,7 +1168,7 @@
         <v>108.1358947753906</v>
       </c>
       <c r="B26" t="n">
-        <v>42.87607614860573</v>
+        <v>1838.357905901037</v>
       </c>
       <c r="C26" t="n">
         <v>-0.6966484747707475</v>
@@ -1197,7 +1197,7 @@
         <v>112.3080291748047</v>
       </c>
       <c r="B27" t="n">
-        <v>48.63799778064961</v>
+        <v>2365.654828110477</v>
       </c>
       <c r="C27" t="n">
         <v>-0.3090015879841761</v>
@@ -1226,7 +1226,7 @@
         <v>93.59089660644531</v>
       </c>
       <c r="B28" t="n">
-        <v>50.53372433997186</v>
+        <v>2553.657295668265</v>
       </c>
       <c r="C28" t="n">
         <v>-0.1442101296091515</v>
@@ -1255,7 +1255,7 @@
         <v>121.4512481689453</v>
       </c>
       <c r="B29" t="n">
-        <v>46.84795643031261</v>
+        <v>2194.731021696469</v>
       </c>
       <c r="C29" t="n">
         <v>-0.7489900961510215</v>
@@ -1284,7 +1284,7 @@
         <v>109.1058807373047</v>
       </c>
       <c r="B30" t="n">
-        <v>52.23678528256848</v>
+        <v>2728.681736657163</v>
       </c>
       <c r="C30" t="n">
         <v>-0.3463512597597549</v>
@@ -1313,7 +1313,7 @@
         <v>100.2625274658203</v>
       </c>
       <c r="B31" t="n">
-        <v>53.9935643938763</v>
+        <v>2915.304995955667</v>
       </c>
       <c r="C31" t="n">
         <v>-0.09520931945267715</v>
@@ -1342,7 +1342,7 @@
         <v>123.6862945556641</v>
       </c>
       <c r="B32" t="n">
-        <v>54.938597584427</v>
+        <v>3018.249504543608</v>
       </c>
       <c r="C32" t="n">
         <v>-0.3134958329522414</v>
@@ -1371,7 +1371,7 @@
         <v>97.67958068847656</v>
       </c>
       <c r="B33" t="n">
-        <v>37.29348991688259</v>
+        <v>1390.804390180623</v>
       </c>
       <c r="C33" t="n">
         <v>-0.3382199852096086</v>
@@ -1400,7 +1400,7 @@
         <v>102.9039154052734</v>
       </c>
       <c r="B34" t="n">
-        <v>54.5500490791956</v>
+        <v>2975.707854542648</v>
       </c>
       <c r="C34" t="n">
         <v>-0.1549429827684362</v>
@@ -1429,7 +1429,7 @@
         <v>130.7347717285156</v>
       </c>
       <c r="B35" t="n">
-        <v>51.48878250205654</v>
+        <v>2651.094723544084</v>
       </c>
       <c r="C35" t="n">
         <v>-0.6503713985900322</v>
@@ -1458,7 +1458,7 @@
         <v>107.4048919677734</v>
       </c>
       <c r="B36" t="n">
-        <v>24.77769360158768</v>
+        <v>613.9341002141591</v>
       </c>
       <c r="C36" t="n">
         <v>0.2329422103301463</v>
@@ -1487,7 +1487,7 @@
         <v>126.9564361572266</v>
       </c>
       <c r="B37" t="n">
-        <v>38.45207989829782</v>
+        <v>1478.562448505079</v>
       </c>
       <c r="C37" t="n">
         <v>-1.173242613089972</v>
@@ -1516,7 +1516,7 @@
         <v>105.1222076416016</v>
       </c>
       <c r="B38" t="n">
-        <v>73.9233143618082</v>
+        <v>5464.656406234717</v>
       </c>
       <c r="C38" t="n">
         <v>0.1130625170751891</v>
@@ -1545,7 +1545,7 @@
         <v>205.6231384277344</v>
       </c>
       <c r="B39" t="n">
-        <v>65.86302678757616</v>
+        <v>4337.938297620974</v>
       </c>
       <c r="C39" t="n">
         <v>-1.346065171638954</v>
@@ -1574,7 +1574,7 @@
         <v>113.2625274658203</v>
       </c>
       <c r="B40" t="n">
-        <v>47.6113255554913</v>
+        <v>2266.838321150979</v>
       </c>
       <c r="C40" t="n">
         <v>-0.7523308762016374</v>
@@ -1603,7 +1603,7 @@
         <v>124.7627868652344</v>
       </c>
       <c r="B41" t="n">
-        <v>58.98014164814243</v>
+        <v>3478.657108834945</v>
       </c>
       <c r="C41" t="n">
         <v>-0.2817809884646166</v>
@@ -1632,7 +1632,7 @@
         <v>105.1092529296875</v>
       </c>
       <c r="B42" t="n">
-        <v>54.10465268546988</v>
+        <v>2927.313442215323</v>
       </c>
       <c r="C42" t="n">
         <v>0.06644414211867648</v>
@@ -1661,7 +1661,7 @@
         <v>89.00071716308594</v>
       </c>
       <c r="B43" t="n">
-        <v>44.41805084718177</v>
+        <v>1972.963241062826</v>
       </c>
       <c r="C43" t="n">
         <v>-0.8087003193713308</v>
@@ -1690,7 +1690,7 @@
         <v>97.45729064941406</v>
       </c>
       <c r="B44" t="n">
-        <v>67.37486303385926</v>
+        <v>4539.372168831294</v>
       </c>
       <c r="C44" t="n">
         <v>-0.3208098135455027</v>
@@ -1719,7 +1719,7 @@
         <v>88.10549926757812</v>
       </c>
       <c r="B45" t="n">
-        <v>38.66893229374875</v>
+        <v>1495.286324738525</v>
       </c>
       <c r="C45" t="n">
         <v>0.1429718310432662</v>
@@ -1748,7 +1748,7 @@
         <v>145.2352142333984</v>
       </c>
       <c r="B46" t="n">
-        <v>55.06155795449954</v>
+        <v>3031.775164376711</v>
       </c>
       <c r="C46" t="n">
         <v>-0.5560761745141294</v>
@@ -1777,7 +1777,7 @@
         <v>93.397216796875</v>
       </c>
       <c r="B47" t="n">
-        <v>45.13175354227504</v>
+        <v>2036.875177800655</v>
       </c>
       <c r="C47" t="n">
         <v>-0.07133575592912585</v>
@@ -1806,7 +1806,7 @@
         <v>118.3172607421875</v>
       </c>
       <c r="B48" t="n">
-        <v>48.04954793038979</v>
+        <v>2308.759056314826</v>
       </c>
       <c r="C48" t="n">
         <v>-0.5652172108070282</v>
@@ -1835,7 +1835,7 @@
         <v>98.298095703125</v>
       </c>
       <c r="B49" t="n">
-        <v>23.33181393067261</v>
+        <v>544.3735412955284</v>
       </c>
       <c r="C49" t="n">
         <v>-0.02133627287945691</v>
@@ -1864,7 +1864,7 @@
         <v>132.1043090820312</v>
       </c>
       <c r="B50" t="n">
-        <v>54.89562780527186</v>
+        <v>3013.529952134937</v>
       </c>
       <c r="C50" t="n">
         <v>-0.6168965245792656</v>
@@ -1893,7 +1893,7 @@
         <v>97.26441955566406</v>
       </c>
       <c r="B51" t="n">
-        <v>55.24253012770946</v>
+        <v>3051.737134910887</v>
       </c>
       <c r="C51" t="n">
         <v>0.09937722909013975</v>
@@ -1922,7 +1922,7 @@
         <v>104.873291015625</v>
       </c>
       <c r="B52" t="n">
-        <v>58.13342142881991</v>
+        <v>3379.494687020779</v>
       </c>
       <c r="C52" t="n">
         <v>-0.1275676680113965</v>
@@ -1951,7 +1951,7 @@
         <v>81.173095703125</v>
       </c>
       <c r="B53" t="n">
-        <v>30.48427749434402</v>
+        <v>929.291174352169</v>
       </c>
       <c r="C53" t="n">
         <v>0.02637046036356733</v>
@@ -1980,7 +1980,7 @@
         <v>75.696044921875</v>
       </c>
       <c r="B54" t="n">
-        <v>56.28803011485544</v>
+        <v>3168.342334210873</v>
       </c>
       <c r="C54" t="n">
         <v>0.6392830657208007</v>
@@ -2009,7 +2009,7 @@
         <v>122.6690368652344</v>
       </c>
       <c r="B55" t="n">
-        <v>61.06327907220436</v>
+        <v>3728.72405104991</v>
       </c>
       <c r="C55" t="n">
         <v>-0.3739685184455309</v>
@@ -2038,7 +2038,7 @@
         <v>98.78678894042969</v>
       </c>
       <c r="B56" t="n">
-        <v>61.48580840851464</v>
+        <v>3780.504635648569</v>
       </c>
       <c r="C56" t="n">
         <v>0.05932957920428695</v>
@@ -2067,7 +2067,7 @@
         <v>104.1493377685547</v>
       </c>
       <c r="B57" t="n">
-        <v>58.96976607053398</v>
+        <v>3477.4333104135</v>
       </c>
       <c r="C57" t="n">
         <v>-0.2971290141229612</v>
@@ -2096,7 +2096,7 @@
         <v>85.48609924316406</v>
       </c>
       <c r="B58" t="n">
-        <v>35.8529885500516</v>
+        <v>1285.436787970131</v>
       </c>
       <c r="C58" t="n">
         <v>0.3588592615208319</v>
@@ -2125,7 +2125,7 @@
         <v>105.0437622070312</v>
       </c>
       <c r="B59" t="n">
-        <v>45.42196746428172</v>
+        <v>2063.155128326267</v>
       </c>
       <c r="C59" t="n">
         <v>-0.7126660034317231</v>
@@ -2154,7 +2154,7 @@
         <v>112.0681457519531</v>
       </c>
       <c r="B60" t="n">
-        <v>51.33110181820895</v>
+        <v>2634.882013871334</v>
       </c>
       <c r="C60" t="n">
         <v>-0.2908729278190997</v>
@@ -2183,7 +2183,7 @@
         <v>121.752685546875</v>
       </c>
       <c r="B61" t="n">
-        <v>46.84515285554443</v>
+        <v>2194.468346059322</v>
       </c>
       <c r="C61" t="n">
         <v>-0.5833520834958253</v>
@@ -2212,7 +2212,7 @@
         <v>90.15046691894531</v>
       </c>
       <c r="B62" t="n">
-        <v>33.82095659779158</v>
+        <v>1143.857105189702</v>
       </c>
       <c r="C62" t="n">
         <v>-0.1093841052840576</v>
@@ -2241,7 +2241,7 @@
         <v>107.653564453125</v>
       </c>
       <c r="B63" t="n">
-        <v>44.69075199312146</v>
+        <v>1997.26331371069</v>
       </c>
       <c r="C63" t="n">
         <v>-0.5467076491327564</v>
@@ -2270,7 +2270,7 @@
         <v>77.16986083984375</v>
       </c>
       <c r="B64" t="n">
-        <v>47.10740743797635</v>
+        <v>2219.107835527509</v>
       </c>
       <c r="C64" t="n">
         <v>-0.08130715972058214</v>
@@ -2299,7 +2299,7 @@
         <v>107.2960510253906</v>
       </c>
       <c r="B65" t="n">
-        <v>57.25541828192352</v>
+        <v>3278.182922638021</v>
       </c>
       <c r="C65" t="n">
         <v>-0.4794978386153198</v>
@@ -2328,7 +2328,7 @@
         <v>105.642333984375</v>
       </c>
       <c r="B66" t="n">
-        <v>42.7333320664758</v>
+        <v>1826.137669503689</v>
       </c>
       <c r="C66" t="n">
         <v>0.002472681713047132</v>
@@ -2357,7 +2357,7 @@
         <v>109.7615051269531</v>
       </c>
       <c r="B67" t="n">
-        <v>58.12910067297658</v>
+        <v>3378.992345049046</v>
       </c>
       <c r="C67" t="n">
         <v>-0.4235464397360736</v>
@@ -2386,7 +2386,7 @@
         <v>123.2222595214844</v>
       </c>
       <c r="B68" t="n">
-        <v>48.18771794770784</v>
+        <v>2322.056161007844</v>
       </c>
       <c r="C68" t="n">
         <v>-0.6117620628972584</v>
@@ -2415,7 +2415,7 @@
         <v>93.93986511230469</v>
       </c>
       <c r="B69" t="n">
-        <v>47.46249129536158</v>
+        <v>2252.688079962274</v>
       </c>
       <c r="C69" t="n">
         <v>-0.2841563740773316</v>
@@ -2444,7 +2444,7 @@
         <v>82.4805908203125</v>
       </c>
       <c r="B70" t="n">
-        <v>39.89415380179266</v>
+        <v>1591.543507561088</v>
       </c>
       <c r="C70" t="n">
         <v>0.0006132400433241488</v>
@@ -2473,7 +2473,7 @@
         <v>94.69146728515625</v>
       </c>
       <c r="B71" t="n">
-        <v>44.50481388217366</v>
+        <v>1980.678458686918</v>
       </c>
       <c r="C71" t="n">
         <v>-0.4537664547807024</v>
@@ -2502,7 +2502,7 @@
         <v>78.90084838867188</v>
       </c>
       <c r="B72" t="n">
-        <v>51.64911075100984</v>
+        <v>2667.63064137008</v>
       </c>
       <c r="C72" t="n">
         <v>-0.04097709252754765</v>
@@ -2531,7 +2531,7 @@
         <v>66.44865417480469</v>
       </c>
       <c r="B73" t="n">
-        <v>56.34798313126836</v>
+        <v>3175.095202961704</v>
       </c>
       <c r="C73" t="n">
         <v>0.460883642339435</v>
@@ -2560,7 +2560,7 @@
         <v>211.9590454101562</v>
       </c>
       <c r="B74" t="n">
-        <v>75.40740928752257</v>
+        <v>5686.277375455946</v>
       </c>
       <c r="C74" t="n">
         <v>-1.667398230211171</v>
@@ -2589,7 +2589,7 @@
         <v>76.23689270019531</v>
       </c>
       <c r="B75" t="n">
-        <v>33.10589653135062</v>
+        <v>1096.000385144493</v>
       </c>
       <c r="C75" t="n">
         <v>0.05203580341010722</v>
@@ -2618,7 +2618,7 @@
         <v>90.87960815429688</v>
       </c>
       <c r="B76" t="n">
-        <v>61.67903366454252</v>
+        <v>3804.303193791769</v>
       </c>
       <c r="C76" t="n">
         <v>-0.1442684879559099</v>
@@ -2647,7 +2647,7 @@
         <v>81.917236328125</v>
       </c>
       <c r="B77" t="n">
-        <v>37.77868393023756</v>
+        <v>1427.22895950079</v>
       </c>
       <c r="C77" t="n">
         <v>-0.6878238277164328</v>
@@ -2676,7 +2676,7 @@
         <v>82.88941955566406</v>
       </c>
       <c r="B78" t="n">
-        <v>51.37585918122329</v>
+        <v>2639.478906608885</v>
       </c>
       <c r="C78" t="n">
         <v>-0.33682698472315</v>
@@ -2705,7 +2705,7 @@
         <v>183.8214874267578</v>
       </c>
       <c r="B79" t="n">
-        <v>69.59139434638935</v>
+        <v>4842.962167074671</v>
       </c>
       <c r="C79" t="n">
         <v>-0.9876839917263551</v>
@@ -2734,7 +2734,7 @@
         <v>80.37696838378906</v>
       </c>
       <c r="B80" t="n">
-        <v>50.17064051919387</v>
+        <v>2517.093170106178</v>
       </c>
       <c r="C80" t="n">
         <v>-0.04115646342786962</v>
@@ -2763,7 +2763,7 @@
         <v>123.1475524902344</v>
       </c>
       <c r="B81" t="n">
-        <v>63.63238172806101</v>
+        <v>4049.080004385673</v>
       </c>
       <c r="C81" t="n">
         <v>-0.4864449759550324</v>
@@ -2792,7 +2792,7 @@
         <v>115.4312896728516</v>
       </c>
       <c r="B82" t="n">
-        <v>20.52932524830538</v>
+        <v>421.4531951507088</v>
       </c>
       <c r="C82" t="n">
         <v>0.1776891563323856</v>
@@ -2821,7 +2821,7 @@
         <v>115.3778076171875</v>
       </c>
       <c r="B83" t="n">
-        <v>55.85262490402774</v>
+        <v>3119.51570867002</v>
       </c>
       <c r="C83" t="n">
         <v>-0.250124194903434</v>
@@ -2850,7 +2850,7 @@
         <v>132.5663299560547</v>
       </c>
       <c r="B84" t="n">
-        <v>49.02708646524412</v>
+        <v>2403.655207270524</v>
       </c>
       <c r="C84" t="n">
         <v>0.11220275172444</v>
@@ -2879,7 +2879,7 @@
         <v>76.43034362792969</v>
       </c>
       <c r="B85" t="n">
-        <v>41.59880529644322</v>
+        <v>1730.460602091393</v>
       </c>
       <c r="C85" t="n">
         <v>0.3492505362546361</v>
@@ -2908,7 +2908,7 @@
         <v>102.5636901855469</v>
       </c>
       <c r="B86" t="n">
-        <v>36.26322162511945</v>
+        <v>1315.021242632531</v>
       </c>
       <c r="C86" t="n">
         <v>-0.09303142129546338</v>
@@ -2937,7 +2937,7 @@
         <v>102.2980194091797</v>
       </c>
       <c r="B87" t="n">
-        <v>30.64560959078056</v>
+        <v>939.1533871905413</v>
       </c>
       <c r="C87" t="n">
         <v>0.4136458267483122</v>
@@ -2966,7 +2966,7 @@
         <v>104.8844299316406</v>
       </c>
       <c r="B88" t="n">
-        <v>27.82447256797966</v>
+        <v>774.2012736862525</v>
       </c>
       <c r="C88" t="n">
         <v>0.384274175654834</v>
@@ -2995,7 +2995,7 @@
         <v>98.97474670410156</v>
       </c>
       <c r="B89" t="n">
-        <v>43.50027872733699</v>
+        <v>1892.274249356007</v>
       </c>
       <c r="C89" t="n">
         <v>-0.3158520977394754</v>
@@ -3024,7 +3024,7 @@
         <v>84.67509460449219</v>
       </c>
       <c r="B90" t="n">
-        <v>39.97650921354892</v>
+        <v>1598.121288900962</v>
       </c>
       <c r="C90" t="n">
         <v>-0.1847446498823645</v>
@@ -3053,7 +3053,7 @@
         <v>84.90687561035156</v>
       </c>
       <c r="B91" t="n">
-        <v>44.29099399167853</v>
+        <v>1961.692148770904</v>
       </c>
       <c r="C91" t="n">
         <v>0.2429987510380037</v>
@@ -3082,7 +3082,7 @@
         <v>83.63638305664062</v>
       </c>
       <c r="B92" t="n">
-        <v>46.9822346016845</v>
+        <v>2207.330368167721</v>
       </c>
       <c r="C92" t="n">
         <v>0.2648890259070479</v>
@@ -3111,7 +3111,7 @@
         <v>101.5584411621094</v>
       </c>
       <c r="B93" t="n">
-        <v>59.19516533497367</v>
+        <v>3504.067599034868</v>
       </c>
       <c r="C93" t="n">
         <v>-0.2900835126894812</v>
@@ -3140,7 +3140,7 @@
         <v>86.9515380859375</v>
       </c>
       <c r="B94" t="n">
-        <v>51.85124351385529</v>
+        <v>2688.55145393312</v>
       </c>
       <c r="C94" t="n">
         <v>0.214890726745286</v>
@@ -3169,7 +3169,7 @@
         <v>121.7030181884766</v>
       </c>
       <c r="B95" t="n">
-        <v>50.17025499975207</v>
+        <v>2517.054486740148</v>
       </c>
       <c r="C95" t="n">
         <v>-0.2387305678660203</v>
@@ -3198,7 +3198,7 @@
         <v>119.8363342285156</v>
       </c>
       <c r="B96" t="n">
-        <v>64.08196880722811</v>
+        <v>4106.498726210557</v>
       </c>
       <c r="C96" t="n">
         <v>-0.3870150669086184</v>
@@ -3227,7 +3227,7 @@
         <v>88.71144104003906</v>
       </c>
       <c r="B97" t="n">
-        <v>44.75343353252641</v>
+        <v>2002.869812950259</v>
       </c>
       <c r="C97" t="n">
         <v>-0.7015640000463514</v>
@@ -3256,7 +3256,7 @@
         <v>145.8107147216797</v>
       </c>
       <c r="B98" t="n">
-        <v>46.84634425473995</v>
+        <v>2194.579970033607</v>
       </c>
       <c r="C98" t="n">
         <v>-0.190036825859402</v>
@@ -3285,7 +3285,7 @@
         <v>117.2882080078125</v>
       </c>
       <c r="B99" t="n">
-        <v>60.5886698397553</v>
+        <v>3670.986912950873</v>
       </c>
       <c r="C99" t="n">
         <v>-0.1663256854926426</v>
@@ -3314,7 +3314,7 @@
         <v>95.44352722167969</v>
       </c>
       <c r="B100" t="n">
-        <v>47.38292376105153</v>
+        <v>2245.141464145621</v>
       </c>
       <c r="C100" t="n">
         <v>-0.2639461849969559</v>
@@ -3343,7 +3343,7 @@
         <v>130.2746734619141</v>
       </c>
       <c r="B101" t="n">
-        <v>51.15095150164364</v>
+        <v>2616.4198395235</v>
       </c>
       <c r="C101" t="n">
         <v>-0.7295137704217268</v>
@@ -3372,7 +3372,7 @@
         <v>88.47952270507812</v>
       </c>
       <c r="B102" t="n">
-        <v>34.07317343693136</v>
+        <v>1160.981148063205</v>
       </c>
       <c r="C102" t="n">
         <v>-0.1250393292431208</v>
@@ -3401,7 +3401,7 @@
         <v>101.8212127685547</v>
       </c>
       <c r="B103" t="n">
-        <v>66.135762558566</v>
+        <v>4373.939089203021</v>
       </c>
       <c r="C103" t="n">
         <v>-0.2136713824706772</v>
@@ -3430,7 +3430,7 @@
         <v>94.97259521484375</v>
       </c>
       <c r="B104" t="n">
-        <v>43.64089995777167</v>
+        <v>1904.528149124235</v>
       </c>
       <c r="C104" t="n">
         <v>-0.4298176622183122</v>
@@ -3459,7 +3459,7 @@
         <v>83.55036926269531</v>
       </c>
       <c r="B105" t="n">
-        <v>55.98207210366017</v>
+        <v>3133.992397019407</v>
       </c>
       <c r="C105" t="n">
         <v>-0.05406649187347024</v>
@@ -3488,7 +3488,7 @@
         <v>85.93287658691406</v>
       </c>
       <c r="B106" t="n">
-        <v>53.75488680945772</v>
+        <v>2889.587855897611</v>
       </c>
       <c r="C106" t="n">
         <v>-0.006898220305057601</v>
@@ -3517,7 +3517,7 @@
         <v>95.93144226074219</v>
       </c>
       <c r="B107" t="n">
-        <v>62.36016889181965</v>
+        <v>3888.790664216271</v>
       </c>
       <c r="C107" t="n">
         <v>0.6122125166804162</v>
@@ -3546,7 +3546,7 @@
         <v>104.4785614013672</v>
       </c>
       <c r="B108" t="n">
-        <v>25.52250422719357</v>
+        <v>651.3982220271137</v>
       </c>
       <c r="C108" t="n">
         <v>0.2869531766159893</v>
@@ -3575,7 +3575,7 @@
         <v>127.1048736572266</v>
       </c>
       <c r="B109" t="n">
-        <v>56.97657029366638</v>
+        <v>3246.329562429106</v>
       </c>
       <c r="C109" t="n">
         <v>-0.2407621348807229</v>
@@ -3604,7 +3604,7 @@
         <v>124.7142181396484</v>
       </c>
       <c r="B110" t="n">
-        <v>69.25388086692082</v>
+        <v>4796.100015129661</v>
       </c>
       <c r="C110" t="n">
         <v>-0.4008124575392817</v>
@@ -3633,7 +3633,7 @@
         <v>113.4693145751953</v>
       </c>
       <c r="B111" t="n">
-        <v>24.50098971228034</v>
+        <v>600.2984968812671</v>
       </c>
       <c r="C111" t="n">
         <v>0.362012721916871</v>
@@ -3662,7 +3662,7 @@
         <v>113.8357086181641</v>
       </c>
       <c r="B112" t="n">
-        <v>52.63110810117972</v>
+        <v>2770.033539958065</v>
       </c>
       <c r="C112" t="n">
         <v>-0.6556804666787177</v>
@@ -3691,7 +3691,7 @@
         <v>123.7270660400391</v>
       </c>
       <c r="B113" t="n">
-        <v>69.94315417197869</v>
+        <v>4892.04481552518</v>
       </c>
       <c r="C113" t="n">
         <v>-0.3331217480369761</v>
@@ -3720,7 +3720,7 @@
         <v>103.9413146972656</v>
       </c>
       <c r="B114" t="n">
-        <v>44.10174315873193</v>
+        <v>1944.963749638759</v>
       </c>
       <c r="C114" t="n">
         <v>-0.6497831274367643</v>
@@ -3749,7 +3749,7 @@
         <v>102.816650390625</v>
       </c>
       <c r="B115" t="n">
-        <v>47.67039474882322</v>
+        <v>2272.466535508633</v>
       </c>
       <c r="C115" t="n">
         <v>-0.2572458512558619</v>
@@ -3778,7 +3778,7 @@
         <v>117.5637512207031</v>
       </c>
       <c r="B116" t="n">
-        <v>55.96701763084079</v>
+        <v>3132.307062490843</v>
       </c>
       <c r="C116" t="n">
         <v>-0.3257565310532555</v>
@@ -3807,7 +3807,7 @@
         <v>82.88655090332031</v>
       </c>
       <c r="B117" t="n">
-        <v>37.9697087685111</v>
+        <v>1441.698783965549</v>
       </c>
       <c r="C117" t="n">
         <v>-0.2839519571472837</v>
@@ -3836,7 +3836,7 @@
         <v>203.5299987792969</v>
       </c>
       <c r="B118" t="n">
-        <v>69.49079636729414</v>
+        <v>4828.970779760741</v>
       </c>
       <c r="C118" t="n">
         <v>-1.343297498300561</v>
@@ -3865,7 +3865,7 @@
         <v>84.49879455566406</v>
       </c>
       <c r="B119" t="n">
-        <v>36.61752834826466</v>
+        <v>1340.843382335966</v>
       </c>
       <c r="C119" t="n">
         <v>-0.1117764748743013</v>
@@ -3894,7 +3894,7 @@
         <v>105.2569885253906</v>
       </c>
       <c r="B120" t="n">
-        <v>56.9205799340852</v>
+        <v>3239.952420032583</v>
       </c>
       <c r="C120" t="n">
         <v>-0.334017382825317</v>
@@ -3923,7 +3923,7 @@
         <v>127.3730621337891</v>
       </c>
       <c r="B121" t="n">
-        <v>65.08547822961533</v>
+        <v>4236.119476377731</v>
       </c>
       <c r="C121" t="n">
         <v>-0.01529153772289354</v>
@@ -3952,7 +3952,7 @@
         <v>85.64039611816406</v>
       </c>
       <c r="B122" t="n">
-        <v>48.02575758858311</v>
+        <v>2306.473391957348</v>
       </c>
       <c r="C122" t="n">
         <v>0.007808449030211868</v>
@@ -3981,7 +3981,7 @@
         <v>113.4502868652344</v>
       </c>
       <c r="B123" t="n">
-        <v>30.95726957582919</v>
+        <v>958.3525395905599</v>
       </c>
       <c r="C123" t="n">
         <v>-0.6726219385932407</v>
@@ -4010,7 +4010,7 @@
         <v>111.9918670654297</v>
       </c>
       <c r="B124" t="n">
-        <v>54.73451364565391</v>
+        <v>2995.866984026274</v>
       </c>
       <c r="C124" t="n">
         <v>-0.458403644585508</v>
@@ -4039,7 +4039,7 @@
         <v>96.52323913574219</v>
       </c>
       <c r="B125" t="n">
-        <v>54.75806086966778</v>
+        <v>2998.445230206242</v>
       </c>
       <c r="C125" t="n">
         <v>-0.260473747786194</v>
@@ -4068,7 +4068,7 @@
         <v>215.9348907470703</v>
       </c>
       <c r="B126" t="n">
-        <v>72.84766695127024</v>
+        <v>5306.782580243191</v>
       </c>
       <c r="C126" t="n">
         <v>-1.845574877608316</v>
@@ -4097,7 +4097,7 @@
         <v>112.3038787841797</v>
       </c>
       <c r="B127" t="n">
-        <v>56.51135642828961</v>
+        <v>3193.53340536519</v>
       </c>
       <c r="C127" t="n">
         <v>-0.19943742836836</v>
@@ -4126,7 +4126,7 @@
         <v>116.5951995849609</v>
       </c>
       <c r="B128" t="n">
-        <v>58.76674151240895</v>
+        <v>3453.529907986289</v>
       </c>
       <c r="C128" t="n">
         <v>-0.5160801675472456</v>
@@ -4155,7 +4155,7 @@
         <v>109.1024169921875</v>
       </c>
       <c r="B129" t="n">
-        <v>68.86657470315805</v>
+        <v>4742.605111345649</v>
       </c>
       <c r="C129" t="n">
         <v>-0.1308827397519972</v>
@@ -4184,7 +4184,7 @@
         <v>123.6268463134766</v>
       </c>
       <c r="B130" t="n">
-        <v>58.39577799214323</v>
+        <v>3410.066887307679</v>
       </c>
       <c r="C130" t="n">
         <v>-0.2350177426974351</v>
@@ -4213,7 +4213,7 @@
         <v>101.8573303222656</v>
       </c>
       <c r="B131" t="n">
-        <v>40.84210319224255</v>
+        <v>1668.07739316579</v>
       </c>
       <c r="C131" t="n">
         <v>-0.6306496258875169</v>
@@ -4242,7 +4242,7 @@
         <v>105.9387359619141</v>
       </c>
       <c r="B132" t="n">
-        <v>56.42795432505427</v>
+        <v>3184.114029310411</v>
       </c>
       <c r="C132" t="n">
         <v>-0.383615578849445</v>
@@ -4271,7 +4271,7 @@
         <v>134.7770080566406</v>
       </c>
       <c r="B133" t="n">
-        <v>47.28360924574323</v>
+        <v>2235.739703304134</v>
       </c>
       <c r="C133" t="n">
         <v>-0.1146082482235807</v>
@@ -4300,7 +4300,7 @@
         <v>109.0765838623047</v>
       </c>
       <c r="B134" t="n">
-        <v>68.89416598637314</v>
+        <v>4746.406106957933</v>
       </c>
       <c r="C134" t="n">
         <v>-0.1310165256637681</v>
@@ -4329,7 +4329,7 @@
         <v>94.26173400878906</v>
       </c>
       <c r="B135" t="n">
-        <v>30.6618479187735</v>
+        <v>940.1489177939948</v>
       </c>
       <c r="C135" t="n">
         <v>-0.1867371421767088</v>
@@ -4358,7 +4358,7 @@
         <v>105.8488922119141</v>
       </c>
       <c r="B136" t="n">
-        <v>54.9659477354383</v>
+        <v>3021.255410454934</v>
       </c>
       <c r="C136" t="n">
         <v>-0.3267135421151182</v>
@@ -4387,7 +4387,7 @@
         <v>98.86422729492188</v>
       </c>
       <c r="B137" t="n">
-        <v>45.01771296736006</v>
+        <v>2026.594480811618</v>
       </c>
       <c r="C137" t="n">
         <v>0.02691286868020672</v>
@@ -4416,7 +4416,7 @@
         <v>113.0144958496094</v>
       </c>
       <c r="B138" t="n">
-        <v>50.83875173339523</v>
+        <v>2584.578677809797</v>
       </c>
       <c r="C138" t="n">
         <v>-0.4189941937217133</v>
@@ -4445,7 +4445,7 @@
         <v>122.7789764404297</v>
       </c>
       <c r="B139" t="n">
-        <v>48.18614144969223</v>
+        <v>2321.904227809748</v>
       </c>
       <c r="C139" t="n">
         <v>-0.5334873091094082</v>
@@ -4474,7 +4474,7 @@
         <v>124.9105072021484</v>
       </c>
       <c r="B140" t="n">
-        <v>55.05497769984422</v>
+        <v>3031.050569530344</v>
       </c>
       <c r="C140" t="n">
         <v>-0.5407142651898424</v>
@@ -4503,7 +4503,7 @@
         <v>131.9805908203125</v>
       </c>
       <c r="B141" t="n">
-        <v>54.44894331811707</v>
+        <v>2964.687428459525</v>
       </c>
       <c r="C141" t="n">
         <v>-0.7486886200368039</v>
@@ -4532,7 +4532,7 @@
         <v>101.5757751464844</v>
       </c>
       <c r="B142" t="n">
-        <v>53.32033964351166</v>
+        <v>2843.058619699441</v>
       </c>
       <c r="C142" t="n">
         <v>-0.299096089104678</v>
@@ -4561,7 +4561,7 @@
         <v>86.95271301269531</v>
       </c>
       <c r="B143" t="n">
-        <v>51.85012411511042</v>
+        <v>2688.435370752355</v>
       </c>
       <c r="C143" t="n">
         <v>0.2149929308065282</v>
@@ -4590,7 +4590,7 @@
         <v>111.5143585205078</v>
       </c>
       <c r="B144" t="n">
-        <v>53.26473300748141</v>
+        <v>2837.131782358279</v>
       </c>
       <c r="C144" t="n">
         <v>-0.6972296200292779</v>
@@ -4619,7 +4619,7 @@
         <v>166.568603515625</v>
       </c>
       <c r="B145" t="n">
-        <v>42.87908997157083</v>
+        <v>1838.616356790066</v>
       </c>
       <c r="C145" t="n">
         <v>0.2797804916361463</v>
@@ -4648,7 +4648,7 @@
         <v>100.3700256347656</v>
       </c>
       <c r="B146" t="n">
-        <v>58.46706028736868</v>
+        <v>3418.397138646804</v>
       </c>
       <c r="C146" t="n">
         <v>-0.3657201231002275</v>
@@ -4677,7 +4677,7 @@
         <v>109.2806701660156</v>
       </c>
       <c r="B147" t="n">
-        <v>67.50804681955123</v>
+        <v>4557.336385390721</v>
       </c>
       <c r="C147" t="n">
         <v>-0.08364103479985048</v>
@@ -4706,7 +4706,7 @@
         <v>88.20529174804688</v>
       </c>
       <c r="B148" t="n">
-        <v>32.69829175606856</v>
+        <v>1069.178283764981</v>
       </c>
       <c r="C148" t="n">
         <v>0.4145635541098199</v>
@@ -4735,7 +4735,7 @@
         <v>97.66889953613281</v>
       </c>
       <c r="B149" t="n">
-        <v>21.80812827334198</v>
+        <v>475.5944587865379</v>
       </c>
       <c r="C149" t="n">
         <v>0.1836243597954348</v>
@@ -4764,7 +4764,7 @@
         <v>105.5722961425781</v>
       </c>
       <c r="B150" t="n">
-        <v>57.61588683130385</v>
+        <v>3319.590415357612</v>
       </c>
       <c r="C150" t="n">
         <v>0.3997260568176604</v>
@@ -4793,7 +4793,7 @@
         <v>107.1318054199219</v>
       </c>
       <c r="B151" t="n">
-        <v>51.17947007459568</v>
+        <v>2619.338157116435</v>
       </c>
       <c r="C151" t="n">
         <v>-0.1438181868006937</v>
@@ -4822,7 +4822,7 @@
         <v>131.9335632324219</v>
       </c>
       <c r="B152" t="n">
-        <v>68.12125813242578</v>
+        <v>4640.505809544586</v>
       </c>
       <c r="C152" t="n">
         <v>-0.2387681911535453</v>
@@ -4851,7 +4851,7 @@
         <v>126.13623046875</v>
       </c>
       <c r="B153" t="n">
-        <v>53.12014766074751</v>
+        <v>2821.750087499619</v>
       </c>
       <c r="C153" t="n">
         <v>-0.7185501065608042</v>
@@ -4880,7 +4880,7 @@
         <v>126.9204406738281</v>
       </c>
       <c r="B154" t="n">
-        <v>45.20292772545039</v>
+        <v>2043.304674952291</v>
       </c>
       <c r="C154" t="n">
         <v>-0.7771557803695065</v>
@@ -4909,7 +4909,7 @@
         <v>59.12031555175781</v>
       </c>
       <c r="B155" t="n">
-        <v>36.08268446615656</v>
+        <v>1301.960118284216</v>
       </c>
       <c r="C155" t="n">
         <v>0.5706119142667109</v>
@@ -4938,7 +4938,7 @@
         <v>109.1339263916016</v>
       </c>
       <c r="B156" t="n">
-        <v>73.1161494218298</v>
+        <v>5345.971306275344</v>
       </c>
       <c r="C156" t="n">
         <v>-0.1540399896310858</v>
@@ -4967,7 +4967,7 @@
         <v>95.21730041503906</v>
       </c>
       <c r="B157" t="n">
-        <v>50.74270749240236</v>
+        <v>2574.822363659507</v>
       </c>
       <c r="C157" t="n">
         <v>-0.3487472675457097</v>
@@ -4996,7 +4996,7 @@
         <v>121.28076171875</v>
       </c>
       <c r="B158" t="n">
-        <v>49.27046637878981</v>
+        <v>2427.578857183456</v>
       </c>
       <c r="C158" t="n">
         <v>-0.6351107797201202</v>
@@ -5025,7 +5025,7 @@
         <v>111.3432312011719</v>
       </c>
       <c r="B159" t="n">
-        <v>39.61661849705715</v>
+        <v>1569.47646114137</v>
       </c>
       <c r="C159" t="n">
         <v>-0.3751126979960572</v>
@@ -5054,7 +5054,7 @@
         <v>87.35502624511719</v>
       </c>
       <c r="B160" t="n">
-        <v>49.34042292746563</v>
+        <v>2434.477334661176</v>
       </c>
       <c r="C160" t="n">
         <v>0.04313271922728896</v>
@@ -5083,7 +5083,7 @@
         <v>108.3386993408203</v>
       </c>
       <c r="B161" t="n">
-        <v>63.46456123215788</v>
+        <v>4027.750532390317</v>
       </c>
       <c r="C161" t="n">
         <v>0.04662185501615244</v>
@@ -5112,7 +5112,7 @@
         <v>115.5980834960938</v>
       </c>
       <c r="B162" t="n">
-        <v>55.0095144912172</v>
+        <v>3026.046684559435</v>
       </c>
       <c r="C162" t="n">
         <v>-0.625188581702698</v>
@@ -5141,7 +5141,7 @@
         <v>92.76446533203125</v>
       </c>
       <c r="B163" t="n">
-        <v>46.17135189775873</v>
+        <v>2131.793736066669</v>
       </c>
       <c r="C163" t="n">
         <v>-0.1837223881483321</v>
@@ -5170,7 +5170,7 @@
         <v>86.80189514160156</v>
       </c>
       <c r="B164" t="n">
-        <v>53.87293793587843</v>
+        <v>2902.293441843009</v>
       </c>
       <c r="C164" t="n">
         <v>0.2018180839997665</v>
@@ -5199,7 +5199,7 @@
         <v>88.33920288085938</v>
       </c>
       <c r="B165" t="n">
-        <v>59.88138548119778</v>
+        <v>3585.780327147804</v>
       </c>
       <c r="C165" t="n">
         <v>0.01212744924637217</v>
@@ -5228,7 +5228,7 @@
         <v>77.10682678222656</v>
       </c>
       <c r="B166" t="n">
-        <v>39.58076411856519</v>
+        <v>1566.636888209498</v>
       </c>
       <c r="C166" t="n">
         <v>0.2954449321620666</v>
@@ -5257,7 +5257,7 @@
         <v>106.0562438964844</v>
       </c>
       <c r="B167" t="n">
-        <v>48.61370587980564</v>
+        <v>2363.292399368249</v>
       </c>
       <c r="C167" t="n">
         <v>-0.2275116085418446</v>
@@ -5286,7 +5286,7 @@
         <v>94.96168518066406</v>
       </c>
       <c r="B168" t="n">
-        <v>59.8759843005848</v>
+        <v>3585.133495963877</v>
       </c>
       <c r="C168" t="n">
         <v>-0.1048453143754944</v>
@@ -5315,7 +5315,7 @@
         <v>113.8351135253906</v>
       </c>
       <c r="B169" t="n">
-        <v>52.63306301613328</v>
+        <v>2770.239322460257</v>
       </c>
       <c r="C169" t="n">
         <v>-0.6557180225446926</v>
@@ -5344,7 +5344,7 @@
         <v>59.62220764160156</v>
       </c>
       <c r="B170" t="n">
-        <v>36.74230943804652</v>
+        <v>1349.997302841162</v>
       </c>
       <c r="C170" t="n">
         <v>0.02222031588245774</v>
@@ -5373,7 +5373,7 @@
         <v>118.0859222412109</v>
       </c>
       <c r="B171" t="n">
-        <v>50.69938791900381</v>
+        <v>2570.427935361629</v>
       </c>
       <c r="C171" t="n">
         <v>-0.2456142706752692</v>
@@ -5402,7 +5402,7 @@
         <v>130.97802734375</v>
       </c>
       <c r="B172" t="n">
-        <v>73.42496198231717</v>
+        <v>5391.225042104721</v>
       </c>
       <c r="C172" t="n">
         <v>-0.2593335731653506</v>
@@ -5431,7 +5431,7 @@
         <v>105.6817932128906</v>
       </c>
       <c r="B173" t="n">
-        <v>34.14898891838042</v>
+        <v>1166.153444147669</v>
       </c>
       <c r="C173" t="n">
         <v>-0.3769407675561779</v>
@@ -5460,7 +5460,7 @@
         <v>86.1195068359375</v>
       </c>
       <c r="B174" t="n">
-        <v>41.6316085055423</v>
+        <v>1733.190826758742</v>
       </c>
       <c r="C174" t="n">
         <v>-0.3494494041290014</v>
@@ -5489,7 +5489,7 @@
         <v>105.7985076904297</v>
       </c>
       <c r="B175" t="n">
-        <v>35.03834749959685</v>
+        <v>1227.685795502504</v>
       </c>
       <c r="C175" t="n">
         <v>0.2578942524489582</v>
@@ -5518,7 +5518,7 @@
         <v>223.9690093994141</v>
       </c>
       <c r="B176" t="n">
-        <v>57.57912514741653</v>
+        <v>3315.355652741855</v>
       </c>
       <c r="C176" t="n">
         <v>-2.200524500783895</v>
@@ -5547,7 +5547,7 @@
         <v>114.5853271484375</v>
       </c>
       <c r="B177" t="n">
-        <v>53.30476347954065</v>
+        <v>2841.397809609771</v>
       </c>
       <c r="C177" t="n">
         <v>-0.2305106331296678</v>
@@ -5576,7 +5576,7 @@
         <v>119.8699340820312</v>
       </c>
       <c r="B178" t="n">
-        <v>50.90264356273987</v>
+        <v>2591.079121675342</v>
       </c>
       <c r="C178" t="n">
         <v>-0.6850101032552431</v>
@@ -5605,7 +5605,7 @@
         <v>204.2778930664062</v>
       </c>
       <c r="B179" t="n">
-        <v>74.91386299251442</v>
+        <v>5612.086868461221</v>
       </c>
       <c r="C179" t="n">
         <v>-1.432375315904318</v>
@@ -5634,7 +5634,7 @@
         <v>103.2577819824219</v>
       </c>
       <c r="B180" t="n">
-        <v>47.01485565964853</v>
+        <v>2210.396652697586</v>
       </c>
       <c r="C180" t="n">
         <v>-0.225113906080198</v>
@@ -5663,7 +5663,7 @@
         <v>71.88673400878906</v>
       </c>
       <c r="B181" t="n">
-        <v>49.94096555011657</v>
+        <v>2494.10004007793</v>
       </c>
       <c r="C181" t="n">
         <v>-0.1129233054961809</v>
@@ -5692,7 +5692,7 @@
         <v>106.6286926269531</v>
       </c>
       <c r="B182" t="n">
-        <v>54.71622440474225</v>
+        <v>2993.865213110112</v>
       </c>
       <c r="C182" t="n">
         <v>-0.4774498638460375</v>
@@ -5721,7 +5721,7 @@
         <v>98.68348693847656</v>
       </c>
       <c r="B183" t="n">
-        <v>34.92999537893348</v>
+        <v>1220.104577172315</v>
       </c>
       <c r="C183" t="n">
         <v>-0.7095783119343034</v>
@@ -5750,7 +5750,7 @@
         <v>108.6661529541016</v>
       </c>
       <c r="B184" t="n">
-        <v>47.78193415736632</v>
+        <v>2283.11323181889</v>
       </c>
       <c r="C184" t="n">
         <v>-0.638545588468304</v>
@@ -5779,7 +5779,7 @@
         <v>103.3419952392578</v>
       </c>
       <c r="B185" t="n">
-        <v>66.91963407425582</v>
+        <v>4478.237424632302</v>
       </c>
       <c r="C185" t="n">
         <v>0.1546353063749374</v>
@@ -5808,7 +5808,7 @@
         <v>81.5634765625</v>
       </c>
       <c r="B186" t="n">
-        <v>49.42295064850072</v>
+        <v>2442.628050804138</v>
       </c>
       <c r="C186" t="n">
         <v>-0.05825570031014086</v>
@@ -5837,7 +5837,7 @@
         <v>124.5196533203125</v>
       </c>
       <c r="B187" t="n">
-        <v>67.92471439513797</v>
+        <v>4613.766825661063</v>
       </c>
       <c r="C187" t="n">
         <v>-0.3529809896211885</v>
@@ -5866,7 +5866,7 @@
         <v>102.5145416259766</v>
       </c>
       <c r="B188" t="n">
-        <v>52.39840053735558</v>
+        <v>2745.592378873145</v>
       </c>
       <c r="C188" t="n">
         <v>-0.3683264445751532</v>
@@ -5895,7 +5895,7 @@
         <v>125.3943481445312</v>
       </c>
       <c r="B189" t="n">
-        <v>47.401555003892</v>
+        <v>2246.907416786999</v>
       </c>
       <c r="C189" t="n">
         <v>-0.4271801383214071</v>
@@ -5924,7 +5924,7 @@
         <v>67.51084899902344</v>
       </c>
       <c r="B190" t="n">
-        <v>19.36097033565938</v>
+        <v>374.8471723382827</v>
       </c>
       <c r="C190" t="n">
         <v>0.6958621480886762</v>
@@ -5953,7 +5953,7 @@
         <v>123.7271270751953</v>
       </c>
       <c r="B191" t="n">
-        <v>69.9420112430949</v>
+        <v>4891.884936729213</v>
       </c>
       <c r="C191" t="n">
         <v>-0.3331110495253804</v>
@@ -5982,7 +5982,7 @@
         <v>84.47975158691406</v>
       </c>
       <c r="B192" t="n">
-        <v>51.28466653535336</v>
+        <v>2630.117021642393</v>
       </c>
       <c r="C192" t="n">
         <v>0.004790474328849739</v>
@@ -6011,7 +6011,7 @@
         <v>102.4732513427734</v>
       </c>
       <c r="B193" t="n">
-        <v>58.89193412197059</v>
+        <v>3468.259904626524</v>
       </c>
       <c r="C193" t="n">
         <v>-0.2349624772825373</v>
@@ -6040,7 +6040,7 @@
         <v>100.7543029785156</v>
       </c>
       <c r="B194" t="n">
-        <v>74.14138337938658</v>
+        <v>5496.944729409181</v>
       </c>
       <c r="C194" t="n">
         <v>0.0149824457173135</v>
@@ -6069,7 +6069,7 @@
         <v>84.214111328125</v>
       </c>
       <c r="B195" t="n">
-        <v>46.71151170506862</v>
+        <v>2181.965325772762</v>
       </c>
       <c r="C195" t="n">
         <v>-0.2294828161354641</v>
@@ -6098,7 +6098,7 @@
         <v>87.0452880859375</v>
       </c>
       <c r="B196" t="n">
-        <v>49.57432410644008</v>
+        <v>2457.613610610366</v>
       </c>
       <c r="C196" t="n">
         <v>0.02208919507629432</v>
@@ -6127,7 +6127,7 @@
         <v>233.8098754882812</v>
       </c>
       <c r="B197" t="n">
-        <v>46.69472153438705</v>
+        <v>2180.39701917395</v>
       </c>
       <c r="C197" t="n">
         <v>-2.6025364460128</v>
@@ -6156,7 +6156,7 @@
         <v>75.11082458496094</v>
       </c>
       <c r="B198" t="n">
-        <v>46.06887538580398</v>
+        <v>2122.341279312735</v>
       </c>
       <c r="C198" t="n">
         <v>0.02669476326120737</v>
@@ -6185,7 +6185,7 @@
         <v>97.62712097167969</v>
       </c>
       <c r="B199" t="n">
-        <v>26.61971691321696</v>
+        <v>708.6093285398092</v>
       </c>
       <c r="C199" t="n">
         <v>-0.4673322355587149</v>
@@ -6214,7 +6214,7 @@
         <v>76.56243896484375</v>
       </c>
       <c r="B200" t="n">
-        <v>54.54414112991677</v>
+        <v>2975.063331600279</v>
       </c>
       <c r="C200" t="n">
         <v>0.2862904286115295</v>
@@ -6243,7 +6243,7 @@
         <v>108.9372100830078</v>
       </c>
       <c r="B201" t="n">
-        <v>81.28586053388339</v>
+        <v>6607.391122733941</v>
       </c>
       <c r="C201" t="n">
         <v>0.08015749036070506</v>
@@ -6272,7 +6272,7 @@
         <v>109.9552307128906</v>
       </c>
       <c r="B202" t="n">
-        <v>21.03742575925501</v>
+        <v>442.5732825761661</v>
       </c>
       <c r="C202" t="n">
         <v>0.6120354451141798</v>
@@ -6301,7 +6301,7 @@
         <v>110.4174499511719</v>
       </c>
       <c r="B203" t="n">
-        <v>39.00839053235836</v>
+        <v>1521.654531924985</v>
       </c>
       <c r="C203" t="n">
         <v>-1.058937007843851</v>
@@ -6330,7 +6330,7 @@
         <v>90.69105529785156</v>
       </c>
       <c r="B204" t="n">
-        <v>59.58955706008649</v>
+        <v>3550.915310617303</v>
       </c>
       <c r="C204" t="n">
         <v>-0.1037122223971293</v>
@@ -6359,7 +6359,7 @@
         <v>112.4081420898438</v>
       </c>
       <c r="B205" t="n">
-        <v>56.59877211992957</v>
+        <v>3203.421005483717</v>
       </c>
       <c r="C205" t="n">
         <v>-0.3930830806924172</v>
@@ -6388,7 +6388,7 @@
         <v>104.4458312988281</v>
       </c>
       <c r="B206" t="n">
-        <v>45.26983405180524</v>
+        <v>2049.357875077985</v>
       </c>
       <c r="C206" t="n">
         <v>-0.3427660757660285</v>
@@ -6417,7 +6417,7 @@
         <v>131.7453308105469</v>
       </c>
       <c r="B207" t="n">
-        <v>68.69431289290659</v>
+        <v>4718.908623828553</v>
       </c>
       <c r="C207" t="n">
         <v>-0.1003785836385599</v>
@@ -6446,7 +6446,7 @@
         <v>213.2901611328125</v>
       </c>
       <c r="B208" t="n">
-        <v>37.2766460985803</v>
+        <v>1389.548344358802</v>
       </c>
       <c r="C208" t="n">
         <v>-0.7990065236823559</v>
@@ -6475,7 +6475,7 @@
         <v>93.80473327636719</v>
       </c>
       <c r="B209" t="n">
-        <v>63.47203110890071</v>
+        <v>4028.698733089259</v>
       </c>
       <c r="C209" t="n">
         <v>-0.105510523342866</v>
@@ -6504,7 +6504,7 @@
         <v>110.1961364746094</v>
       </c>
       <c r="B210" t="n">
-        <v>23.61535733925429</v>
+        <v>557.6851022606716</v>
       </c>
       <c r="C210" t="n">
         <v>-0.6955568662924146</v>
@@ -6533,7 +6533,7 @@
         <v>90.41458129882812</v>
       </c>
       <c r="B211" t="n">
-        <v>62.9614561127898</v>
+        <v>3964.144955842756</v>
       </c>
       <c r="C211" t="n">
         <v>-0.1553321670828785</v>
@@ -6562,7 +6562,7 @@
         <v>113.4370422363281</v>
       </c>
       <c r="B212" t="n">
-        <v>30.97311816745782</v>
+        <v>959.3340490153059</v>
       </c>
       <c r="C212" t="n">
         <v>-0.6728013629151313</v>
@@ -6591,7 +6591,7 @@
         <v>87.65476989746094</v>
       </c>
       <c r="B213" t="n">
-        <v>47.02371951121545</v>
+        <v>2211.230196669465</v>
       </c>
       <c r="C213" t="n">
         <v>-0.164817778684203</v>
@@ -6620,7 +6620,7 @@
         <v>117.6384429931641</v>
       </c>
       <c r="B214" t="n">
-        <v>56.15054873580993</v>
+        <v>3152.884123332566</v>
       </c>
       <c r="C214" t="n">
         <v>-0.4519493322634818</v>
@@ -6649,7 +6649,7 @@
         <v>102.4133911132812</v>
       </c>
       <c r="B215" t="n">
-        <v>33.46211364271317</v>
+        <v>1119.713049437851</v>
       </c>
       <c r="C215" t="n">
         <v>-0.3045416814054838</v>
@@ -6678,7 +6678,7 @@
         <v>103.7252349853516</v>
       </c>
       <c r="B216" t="n">
-        <v>55.77680896766537</v>
+        <v>3111.052418615436</v>
       </c>
       <c r="C216" t="n">
         <v>-0.3539482820264487</v>
@@ -6707,7 +6707,7 @@
         <v>78.66404724121094</v>
       </c>
       <c r="B217" t="n">
-        <v>52.12496696900852</v>
+        <v>2717.012181520229</v>
       </c>
       <c r="C217" t="n">
         <v>-0.05242347702926117</v>
@@ -6736,7 +6736,7 @@
         <v>105.5722808837891</v>
       </c>
       <c r="B218" t="n">
-        <v>57.61430866820876</v>
+        <v>3319.408563315636</v>
       </c>
       <c r="C218" t="n">
         <v>0.3997042472563527</v>
@@ -6765,7 +6765,7 @@
         <v>95.68807983398438</v>
       </c>
       <c r="B219" t="n">
-        <v>23.41679480219442</v>
+        <v>548.3462788080797</v>
       </c>
       <c r="C219" t="n">
         <v>0.7250253114358813</v>
@@ -6794,7 +6794,7 @@
         <v>76.02056884765625</v>
       </c>
       <c r="B220" t="n">
-        <v>46.23812899826719</v>
+        <v>2137.964573260397</v>
       </c>
       <c r="C220" t="n">
         <v>-0.01876769818767175</v>
@@ -6823,7 +6823,7 @@
         <v>126.8245086669922</v>
       </c>
       <c r="B221" t="n">
-        <v>54.94742036190399</v>
+        <v>3019.219004427781</v>
       </c>
       <c r="C221" t="n">
         <v>-0.4438913558136196</v>
@@ -6852,7 +6852,7 @@
         <v>130.7437133789062</v>
       </c>
       <c r="B222" t="n">
-        <v>58.39041795504399</v>
+        <v>3409.440908964723</v>
       </c>
       <c r="C222" t="n">
         <v>-0.5505932431951983</v>
@@ -6881,7 +6881,7 @@
         <v>116.0611724853516</v>
       </c>
       <c r="B223" t="n">
-        <v>54.65225814237528</v>
+        <v>2986.869320060825</v>
       </c>
       <c r="C223" t="n">
         <v>-0.2576548055457395</v>
@@ -6910,7 +6910,7 @@
         <v>100.5892791748047</v>
       </c>
       <c r="B224" t="n">
-        <v>49.87651707955116</v>
+        <v>2487.666955986759</v>
       </c>
       <c r="C224" t="n">
         <v>-0.3637694048357516</v>
@@ -6939,7 +6939,7 @@
         <v>77.54530334472656</v>
       </c>
       <c r="B225" t="n">
-        <v>42.57303250336694</v>
+        <v>1812.463096532738</v>
       </c>
       <c r="C225" t="n">
         <v>-0.2776234882255024</v>
@@ -6968,7 +6968,7 @@
         <v>125.3175659179688</v>
       </c>
       <c r="B226" t="n">
-        <v>55.45264109426305</v>
+        <v>3074.995404329151</v>
       </c>
       <c r="C226" t="n">
         <v>-0.4317394119345365</v>
@@ -6997,7 +6997,7 @@
         <v>104.3589324951172</v>
       </c>
       <c r="B227" t="n">
-        <v>55.84638778096326</v>
+        <v>3118.819028181722</v>
       </c>
       <c r="C227" t="n">
         <v>-0.1408226334317733</v>
@@ -7026,7 +7026,7 @@
         <v>105.4710083007812</v>
       </c>
       <c r="B228" t="n">
-        <v>55.4970610128447</v>
+        <v>3079.923781063408</v>
       </c>
       <c r="C228" t="n">
         <v>-0.4890665616606338</v>
@@ -7055,7 +7055,7 @@
         <v>131.8217163085938</v>
       </c>
       <c r="B229" t="n">
-        <v>57.89868798930085</v>
+        <v>3352.25807088241</v>
       </c>
       <c r="C229" t="n">
         <v>-0.430497084805854</v>
@@ -7084,7 +7084,7 @@
         <v>105.5240020751953</v>
       </c>
       <c r="B230" t="n">
-        <v>71.35850237980522</v>
+        <v>5092.035861888668</v>
       </c>
       <c r="C230" t="n">
         <v>-0.04349913642533364</v>
@@ -7113,7 +7113,7 @@
         <v>88.45037841796875</v>
       </c>
       <c r="B231" t="n">
-        <v>38.25191610298965</v>
+        <v>1463.209085550159</v>
       </c>
       <c r="C231" t="n">
         <v>-0.1382987387189468</v>
@@ -7142,7 +7142,7 @@
         <v>76.5621337890625</v>
       </c>
       <c r="B232" t="n">
-        <v>54.54455886560481</v>
+        <v>2975.108901843429</v>
       </c>
       <c r="C232" t="n">
         <v>0.2862493592759388</v>
@@ -7171,7 +7171,7 @@
         <v>105.4639892578125</v>
       </c>
       <c r="B233" t="n">
-        <v>23.1707196294876</v>
+        <v>536.8822481483221</v>
       </c>
       <c r="C233" t="n">
         <v>0.3325114866959161</v>
@@ -7200,7 +7200,7 @@
         <v>100.0784759521484</v>
       </c>
       <c r="B234" t="n">
-        <v>44.48155591366516</v>
+        <v>1978.60881650052</v>
       </c>
       <c r="C234" t="n">
         <v>-0.1459582874047927</v>
@@ -7229,7 +7229,7 @@
         <v>84.21420288085938</v>
       </c>
       <c r="B235" t="n">
-        <v>34.05067549831364</v>
+        <v>1159.448501891457</v>
       </c>
       <c r="C235" t="n">
         <v>-0.2278578738736576</v>
@@ -7258,7 +7258,7 @@
         <v>66.23249816894531</v>
       </c>
       <c r="B236" t="n">
-        <v>45.09316907106823</v>
+        <v>2033.393896871945</v>
       </c>
       <c r="C236" t="n">
         <v>0.3503584145644934</v>
@@ -7287,7 +7287,7 @@
         <v>110.0198516845703</v>
       </c>
       <c r="B237" t="n">
-        <v>28.70642055586775</v>
+        <v>824.0585811303463</v>
       </c>
       <c r="C237" t="n">
         <v>1.401255655667126</v>
@@ -7316,7 +7316,7 @@
         <v>89.3470458984375</v>
       </c>
       <c r="B238" t="n">
-        <v>44.56683419067528</v>
+        <v>1986.202709779143</v>
       </c>
       <c r="C238" t="n">
         <v>-0.2236424529508961</v>
@@ -7345,7 +7345,7 @@
         <v>80.73013305664062</v>
       </c>
       <c r="B239" t="n">
-        <v>40.40637785419243</v>
+        <v>1632.675371295772</v>
       </c>
       <c r="C239" t="n">
         <v>-0.2366807471516906</v>
@@ -7374,7 +7374,7 @@
         <v>203.1543121337891</v>
       </c>
       <c r="B240" t="n">
-        <v>70.9342743064559</v>
+        <v>5031.67127138353</v>
       </c>
       <c r="C240" t="n">
         <v>-1.186375644094964</v>
@@ -7403,7 +7403,7 @@
         <v>73.91433715820312</v>
       </c>
       <c r="B241" t="n">
-        <v>52.45299628803276</v>
+        <v>2751.316819592379</v>
       </c>
       <c r="C241" t="n">
         <v>0.6234619445678051</v>
@@ -7432,7 +7432,7 @@
         <v>85.41815185546875</v>
       </c>
       <c r="B242" t="n">
-        <v>39.46234286007657</v>
+        <v>1557.276504006237</v>
       </c>
       <c r="C242" t="n">
         <v>-0.4976503656130065</v>
@@ -7461,7 +7461,7 @@
         <v>81.17440795898438</v>
       </c>
       <c r="B243" t="n">
-        <v>30.48368587170489</v>
+        <v>929.2551043247804</v>
       </c>
       <c r="C243" t="n">
         <v>0.02626368125819052</v>
@@ -7490,7 +7490,7 @@
         <v>89.01072692871094</v>
       </c>
       <c r="B244" t="n">
-        <v>47.14422546478212</v>
+        <v>2222.577994674211</v>
       </c>
       <c r="C244" t="n">
         <v>0.1034803457638524</v>
@@ -7519,7 +7519,7 @@
         <v>118.3907470703125</v>
       </c>
       <c r="B245" t="n">
-        <v>48.71449962996383</v>
+        <v>2373.102474197745</v>
       </c>
       <c r="C245" t="n">
         <v>-0.5311928660151358</v>
@@ -7548,7 +7548,7 @@
         <v>105.3245086669922</v>
       </c>
       <c r="B246" t="n">
-        <v>59.53746426234566</v>
+        <v>3544.709650790086</v>
       </c>
       <c r="C246" t="n">
         <v>-0.180465034244002</v>
@@ -7577,7 +7577,7 @@
         <v>105.4619750976562</v>
       </c>
       <c r="B247" t="n">
-        <v>40.73163799367535</v>
+        <v>1659.066333647817</v>
       </c>
       <c r="C247" t="n">
         <v>-0.08717894684191931</v>
@@ -7606,7 +7606,7 @@
         <v>81.56391906738281</v>
       </c>
       <c r="B248" t="n">
-        <v>49.42157647956884</v>
+        <v>2442.492221725872</v>
       </c>
       <c r="C248" t="n">
         <v>-0.05830634536187632</v>
@@ -7635,7 +7635,7 @@
         <v>105.6164855957031</v>
       </c>
       <c r="B249" t="n">
-        <v>51.32357177961528</v>
+        <v>2634.109020217322</v>
       </c>
       <c r="C249" t="n">
         <v>-0.4602857638490686</v>
@@ -7664,7 +7664,7 @@
         <v>86.46635437011719</v>
       </c>
       <c r="B250" t="n">
-        <v>49.7161762233815</v>
+        <v>2471.698178274324</v>
       </c>
       <c r="C250" t="n">
         <v>-0.1607694115241928</v>
@@ -7693,7 +7693,7 @@
         <v>113.0836334228516</v>
       </c>
       <c r="B251" t="n">
-        <v>50.53709795519336</v>
+        <v>2553.998269732809</v>
       </c>
       <c r="C251" t="n">
         <v>-0.5496317499989948</v>
@@ -7722,7 +7722,7 @@
         <v>78.89683532714844</v>
       </c>
       <c r="B252" t="n">
-        <v>35.07101375224055</v>
+        <v>1229.976005609846</v>
       </c>
       <c r="C252" t="n">
         <v>-0.0933277672341301</v>
@@ -7751,7 +7751,7 @@
         <v>109.1892395019531</v>
       </c>
       <c r="B253" t="n">
-        <v>57.57248518157928</v>
+        <v>3314.591049983166</v>
       </c>
       <c r="C253" t="n">
         <v>-0.26595780566316</v>
@@ -7780,7 +7780,7 @@
         <v>110.6042938232422</v>
       </c>
       <c r="B254" t="n">
-        <v>63.05427842796927</v>
+        <v>3975.842028071871</v>
       </c>
       <c r="C254" t="n">
         <v>-0.1484955298256513</v>
@@ -7809,7 +7809,7 @@
         <v>93.75398254394531</v>
       </c>
       <c r="B255" t="n">
-        <v>63.52692430779249</v>
+        <v>4035.670112007996</v>
       </c>
       <c r="C255" t="n">
         <v>-0.1062967866660656</v>
@@ -7838,7 +7838,7 @@
         <v>134.3162536621094</v>
       </c>
       <c r="B256" t="n">
-        <v>61.93145276852174</v>
+        <v>3835.50484201964</v>
       </c>
       <c r="C256" t="n">
         <v>-0.3859083903654506</v>
@@ -7867,7 +7867,7 @@
         <v>88.07485961914062</v>
       </c>
       <c r="B257" t="n">
-        <v>50.87560056120422</v>
+        <v>2588.326732463203</v>
       </c>
       <c r="C257" t="n">
         <v>-0.1609539691317042</v>
@@ -7896,7 +7896,7 @@
         <v>114.5926818847656</v>
       </c>
       <c r="B258" t="n">
-        <v>53.29280813199495</v>
+        <v>2840.123398593627</v>
       </c>
       <c r="C258" t="n">
         <v>-0.2298088752463693</v>
@@ -7925,7 +7925,7 @@
         <v>100.2533721923828</v>
       </c>
       <c r="B259" t="n">
-        <v>60.91214313113622</v>
+        <v>3710.289180828026</v>
       </c>
       <c r="C259" t="n">
         <v>-0.3053039231929235</v>
@@ -7954,7 +7954,7 @@
         <v>124.6775817871094</v>
       </c>
       <c r="B260" t="n">
-        <v>44.62129350812001</v>
+        <v>1991.059834337793</v>
       </c>
       <c r="C260" t="n">
         <v>-0.1275975211143348</v>
@@ -7983,7 +7983,7 @@
         <v>84.81056213378906</v>
       </c>
       <c r="B261" t="n">
-        <v>46.9518668471088</v>
+        <v>2204.477800428635</v>
       </c>
       <c r="C261" t="n">
         <v>-0.1772900008979831</v>
@@ -8012,7 +8012,7 @@
         <v>77.40058898925781</v>
       </c>
       <c r="B262" t="n">
-        <v>58.31122280571235</v>
+        <v>3400.198705097428</v>
       </c>
       <c r="C262" t="n">
         <v>0.4620722596894882</v>
@@ -8041,7 +8041,7 @@
         <v>131.0511322021484</v>
       </c>
       <c r="B263" t="n">
-        <v>73.33882038400426</v>
+        <v>5378.582575317239</v>
       </c>
       <c r="C263" t="n">
         <v>-0.2568088627574063</v>
@@ -8070,7 +8070,7 @@
         <v>90.06391906738281</v>
       </c>
       <c r="B264" t="n">
-        <v>26.91956902436064</v>
+        <v>724.6631964573171</v>
       </c>
       <c r="C264" t="n">
         <v>-0.3988482020363834</v>
@@ -8099,7 +8099,7 @@
         <v>122.4061431884766</v>
       </c>
       <c r="B265" t="n">
-        <v>55.31169897663725</v>
+        <v>3059.384043682134</v>
       </c>
       <c r="C265" t="n">
         <v>-0.3334287908321201</v>
@@ -8128,7 +8128,7 @@
         <v>102.3382110595703</v>
       </c>
       <c r="B266" t="n">
-        <v>64.19934252724518</v>
+        <v>4121.555580930552</v>
       </c>
       <c r="C266" t="n">
         <v>-0.01041283894620321</v>
@@ -8157,7 +8157,7 @@
         <v>121.5558319091797</v>
       </c>
       <c r="B267" t="n">
-        <v>51.19324841553842</v>
+        <v>2620.748683335027</v>
       </c>
       <c r="C267" t="n">
         <v>-1.055112185672686</v>
@@ -8186,7 +8186,7 @@
         <v>97.32852172851562</v>
       </c>
       <c r="B268" t="n">
-        <v>58.65770714207383</v>
+        <v>3440.726607165299</v>
       </c>
       <c r="C268" t="n">
         <v>-0.06280617382915539</v>
@@ -8215,7 +8215,7 @@
         <v>111.1027526855469</v>
       </c>
       <c r="B269" t="n">
-        <v>38.53132327447498</v>
+        <v>1484.662873282097</v>
       </c>
       <c r="C269" t="n">
         <v>-0.9942925581471919</v>
@@ -8244,7 +8244,7 @@
         <v>92.23936462402344</v>
       </c>
       <c r="B270" t="n">
-        <v>47.11136955625908</v>
+        <v>2219.481141466415</v>
       </c>
       <c r="C270" t="n">
         <v>-0.1775361740501094</v>
@@ -8273,7 +8273,7 @@
         <v>86.51751708984375</v>
       </c>
       <c r="B271" t="n">
-        <v>45.3154494410476</v>
+        <v>2053.489958044142</v>
       </c>
       <c r="C271" t="n">
         <v>-0.3925382120516719</v>
@@ -8302,7 +8302,7 @@
         <v>131.7484436035156</v>
       </c>
       <c r="B272" t="n">
-        <v>68.69716751514575</v>
+        <v>4719.300824603997</v>
       </c>
       <c r="C272" t="n">
         <v>-0.1002012956912399</v>
@@ -8331,7 +8331,7 @@
         <v>108.9099578857422</v>
       </c>
       <c r="B273" t="n">
-        <v>35.83003796831947</v>
+        <v>1283.791620811215</v>
       </c>
       <c r="C273" t="n">
         <v>-0.3307879157708534</v>
@@ -8360,7 +8360,7 @@
         <v>116.7723541259766</v>
       </c>
       <c r="B274" t="n">
-        <v>53.09502956758568</v>
+        <v>2819.082164782798</v>
       </c>
       <c r="C274" t="n">
         <v>-0.3363006316128214</v>
@@ -8389,7 +8389,7 @@
         <v>102.8656463623047</v>
       </c>
       <c r="B275" t="n">
-        <v>36.27026600801848</v>
+        <v>1315.532196292421</v>
       </c>
       <c r="C275" t="n">
         <v>-0.2441393784086602</v>
@@ -8418,7 +8418,7 @@
         <v>100.3795318603516</v>
       </c>
       <c r="B276" t="n">
-        <v>58.45940365216517</v>
+        <v>3417.501875366783</v>
       </c>
       <c r="C276" t="n">
         <v>-0.365702398081014</v>
@@ -8447,7 +8447,7 @@
         <v>113.6089782714844</v>
       </c>
       <c r="B277" t="n">
-        <v>55.29929161200059</v>
+        <v>3058.011652789079</v>
       </c>
       <c r="C277" t="n">
         <v>0.11537325333247</v>
@@ -8476,7 +8476,7 @@
         <v>70.23536682128906</v>
       </c>
       <c r="B278" t="n">
-        <v>39.54176777439376</v>
+        <v>1563.551398724085</v>
       </c>
       <c r="C278" t="n">
         <v>0.001972582139413648</v>
@@ -8505,7 +8505,7 @@
         <v>105.3891754150391</v>
       </c>
       <c r="B279" t="n">
-        <v>59.3714242705472</v>
+        <v>3524.966019913321</v>
       </c>
       <c r="C279" t="n">
         <v>0.01469051304699123</v>
@@ -8534,7 +8534,7 @@
         <v>100.8574066162109</v>
       </c>
       <c r="B280" t="n">
-        <v>74.03687588943581</v>
+        <v>5481.45899146772</v>
       </c>
       <c r="C280" t="n">
         <v>0.01578094733593714</v>
@@ -8563,7 +8563,7 @@
         <v>85.01620483398438</v>
       </c>
       <c r="B281" t="n">
-        <v>70.61010355967511</v>
+        <v>4985.786724708043</v>
       </c>
       <c r="C281" t="n">
         <v>0.3796489242976505</v>
@@ -8592,7 +8592,7 @@
         <v>99.72575378417969</v>
       </c>
       <c r="B282" t="n">
-        <v>45.40541691880745</v>
+        <v>2061.651885570725</v>
       </c>
       <c r="C282" t="n">
         <v>-0.3763459462974804</v>
@@ -8621,7 +8621,7 @@
         <v>84.88758850097656</v>
       </c>
       <c r="B283" t="n">
-        <v>31.73536954540167</v>
+        <v>1007.133680183208</v>
       </c>
       <c r="C283" t="n">
         <v>0.08110347616491845</v>
@@ -8650,7 +8650,7 @@
         <v>125.384033203125</v>
       </c>
       <c r="B284" t="n">
-        <v>51.84848906245431</v>
+        <v>2688.265818059444</v>
       </c>
       <c r="C284" t="n">
         <v>-0.2564135894493851</v>
@@ -8679,7 +8679,7 @@
         <v>110.1317138671875</v>
       </c>
       <c r="B285" t="n">
-        <v>48.87649058470864</v>
+        <v>2388.911331877112</v>
       </c>
       <c r="C285" t="n">
         <v>-0.3589110100774254</v>
@@ -8708,7 +8708,7 @@
         <v>109.8757934570312</v>
       </c>
       <c r="B286" t="n">
-        <v>54.13418676753841</v>
+        <v>2930.510176982731</v>
       </c>
       <c r="C286" t="n">
         <v>-0.4195103898901796</v>
@@ -8737,7 +8737,7 @@
         <v>140.6981658935547</v>
       </c>
       <c r="B287" t="n">
-        <v>26.10144804216372</v>
+        <v>681.2855898977723</v>
       </c>
       <c r="C287" t="n">
         <v>-1.085486092316466</v>
@@ -8766,7 +8766,7 @@
         <v>81.32896423339844</v>
       </c>
       <c r="B288" t="n">
-        <v>45.30569097212684</v>
+        <v>2052.605634461856</v>
       </c>
       <c r="C288" t="n">
         <v>-0.07096682990705337</v>
@@ -8795,7 +8795,7 @@
         <v>120.4608154296875</v>
       </c>
       <c r="B289" t="n">
-        <v>54.45194882131025</v>
+        <v>2965.01473043859</v>
       </c>
       <c r="C289" t="n">
         <v>-0.4965320997266013</v>
@@ -8824,7 +8824,7 @@
         <v>73.02519226074219</v>
       </c>
       <c r="B290" t="n">
-        <v>40.75565329954189</v>
+        <v>1661.02327587246</v>
       </c>
       <c r="C290" t="n">
         <v>0.5506723843099294</v>
@@ -8853,7 +8853,7 @@
         <v>112.3883666992188</v>
       </c>
       <c r="B291" t="n">
-        <v>53.06026462705653</v>
+        <v>2815.391682293266</v>
       </c>
       <c r="C291" t="n">
         <v>-0.8400676997878707</v>
@@ -8882,7 +8882,7 @@
         <v>74.95901489257812</v>
       </c>
       <c r="B292" t="n">
-        <v>39.61969399801518</v>
+        <v>1569.72015249636</v>
       </c>
       <c r="C292" t="n">
         <v>-0.1885863755222831</v>
@@ -8911,7 +8911,7 @@
         <v>134.2663116455078</v>
       </c>
       <c r="B293" t="n">
-        <v>47.13136132210951</v>
+        <v>2221.36522007524</v>
       </c>
       <c r="C293" t="n">
         <v>-1.252994250431356</v>
@@ -8940,7 +8940,7 @@
         <v>83.63374328613281</v>
       </c>
       <c r="B294" t="n">
-        <v>56.51357838548744</v>
+        <v>3193.784541932633</v>
       </c>
       <c r="C294" t="n">
         <v>0.09326199299522046</v>
@@ -8969,7 +8969,7 @@
         <v>96.560546875</v>
       </c>
       <c r="B295" t="n">
-        <v>62.8251811269691</v>
+        <v>3947.003383636475</v>
       </c>
       <c r="C295" t="n">
         <v>-0.1630345662459206</v>
@@ -8998,7 +8998,7 @@
         <v>215.1889801025391</v>
       </c>
       <c r="B296" t="n">
-        <v>72.48315554773113</v>
+        <v>5253.807838156587</v>
       </c>
       <c r="C296" t="n">
         <v>-1.789795049644294</v>
@@ -9027,7 +9027,7 @@
         <v>123.3035125732422</v>
       </c>
       <c r="B297" t="n">
-        <v>55.80560948214389</v>
+        <v>3114.266049673548</v>
       </c>
       <c r="C297" t="n">
         <v>-0.4574294815291669</v>
@@ -9056,7 +9056,7 @@
         <v>84.59893798828125</v>
       </c>
       <c r="B298" t="n">
-        <v>50.55412888778324</v>
+        <v>2555.7199476026</v>
       </c>
       <c r="C298" t="n">
         <v>-0.1272680401777906</v>
@@ -9085,7 +9085,7 @@
         <v>128.0905151367188</v>
       </c>
       <c r="B299" t="n">
-        <v>55.0395702636112</v>
+        <v>3029.354294802994</v>
       </c>
       <c r="C299" t="n">
         <v>-0.3834521784282666</v>
@@ -9114,7 +9114,7 @@
         <v>97.25379943847656</v>
       </c>
       <c r="B300" t="n">
-        <v>32.10570366450907</v>
+        <v>1030.776207793271</v>
       </c>
       <c r="C300" t="n">
         <v>0.08765989268716698</v>
@@ -9143,7 +9143,7 @@
         <v>92.34385681152344</v>
       </c>
       <c r="B301" t="n">
-        <v>61.51412332604823</v>
+        <v>3783.98736857227</v>
       </c>
       <c r="C301" t="n">
         <v>-0.1433864584063052</v>

--- a/BlueChannel.xlsx
+++ b/BlueChannel.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L301"/>
+  <dimension ref="A1:N301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,16 @@
           <t>Correlation_B</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>IDM_B</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Smoothness_B</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -519,6 +529,12 @@
       <c r="L2" t="n">
         <v>0.8509681817418654</v>
       </c>
+      <c r="M2" t="n">
+        <v>0.001205584601949051</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0126411209218469</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -557,6 +573,12 @@
       <c r="L3" t="n">
         <v>0.8306198855451331</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.001201981418488809</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.012679581458579</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -595,6 +617,12 @@
       <c r="L4" t="n">
         <v>0.7944726218972304</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.0009088575901376786</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01677381621191392</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -633,6 +661,12 @@
       <c r="L5" t="n">
         <v>0.8947472586582648</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.001764372951388545</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.008632527163699097</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -671,6 +705,12 @@
       <c r="L6" t="n">
         <v>0.9212388936559259</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.001650590637034887</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.009229177224397178</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -709,6 +749,12 @@
       <c r="L7" t="n">
         <v>0.8869762914494788</v>
       </c>
+      <c r="M7" t="n">
+        <v>0.001684670017583568</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.009042211318648533</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -747,6 +793,12 @@
       <c r="L8" t="n">
         <v>0.9070151882863146</v>
       </c>
+      <c r="M8" t="n">
+        <v>0.001999183096652939</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.007617287127578955</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -785,6 +837,12 @@
       <c r="L9" t="n">
         <v>0.8987688911999009</v>
       </c>
+      <c r="M9" t="n">
+        <v>0.008765499279158854</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.001725789172412317</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -823,6 +881,12 @@
       <c r="L10" t="n">
         <v>0.8342181041067811</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.001560775179904465</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.009761061195179575</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -861,6 +925,12 @@
       <c r="L11" t="n">
         <v>0.6633297817966149</v>
       </c>
+      <c r="M11" t="n">
+        <v>0.000725635264958599</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02101304752052529</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -899,6 +969,12 @@
       <c r="L12" t="n">
         <v>0.871844178495586</v>
       </c>
+      <c r="M12" t="n">
+        <v>0.001704291488109693</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.008937499686081632</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -937,6 +1013,12 @@
       <c r="L13" t="n">
         <v>0.5103184433968952</v>
       </c>
+      <c r="M13" t="n">
+        <v>0.0004520434897256011</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03373987647758131</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -975,6 +1057,12 @@
       <c r="L14" t="n">
         <v>0.8580670131431076</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.0008733481552575101</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01745619978274476</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1013,6 +1101,12 @@
       <c r="L15" t="n">
         <v>0.7419795479988743</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.0007965947138359853</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01913989327183034</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1051,6 +1145,12 @@
       <c r="L16" t="n">
         <v>0.8937005531700279</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.001156547040189623</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01317580350900269</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1089,6 +1189,12 @@
       <c r="L17" t="n">
         <v>0.9859079658223292</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.02098488915610815</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0007122874589939842</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1127,6 +1233,12 @@
       <c r="L18" t="n">
         <v>0.7346527927508443</v>
       </c>
+      <c r="M18" t="n">
+        <v>0.0005988442014260956</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.02546478077448096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1165,6 +1277,12 @@
       <c r="L19" t="n">
         <v>0.9949869517976108</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.03206271720892582</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0004606146710541318</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1203,6 +1321,12 @@
       <c r="L20" t="n">
         <v>0.8550955564332295</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.0006409391151856374</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02379377849055945</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1241,6 +1365,12 @@
       <c r="L21" t="n">
         <v>0.9736957536362507</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.01158961766371981</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.001301660903445555</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1279,6 +1409,12 @@
       <c r="L22" t="n">
         <v>0.8853769615431825</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.001346170451786427</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01131945056657807</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1317,6 +1453,12 @@
       <c r="L23" t="n">
         <v>0.6910599784944554</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.0005664359527299282</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.02692310956660164</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1355,6 +1497,12 @@
       <c r="L24" t="n">
         <v>0.9224580843435668</v>
       </c>
+      <c r="M24" t="n">
+        <v>0.00171792906862542</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.008866347658853605</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1393,6 +1541,12 @@
       <c r="L25" t="n">
         <v>0.8911402659860364</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.001806020187465741</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.008435492137015891</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1431,6 +1585,12 @@
       <c r="L26" t="n">
         <v>0.9116742863449039</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.00306598566077075</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.004961907512987063</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1469,6 +1629,12 @@
       <c r="L27" t="n">
         <v>0.8924777393832696</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.001959196876022527</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.007773161649199826</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1507,6 +1673,12 @@
       <c r="L28" t="n">
         <v>0.9780791635980135</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.00884250284009634</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.001709635700401733</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1545,6 +1717,12 @@
       <c r="L29" t="n">
         <v>0.7849317330854523</v>
       </c>
+      <c r="M29" t="n">
+        <v>0.001055964482517004</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01443497549522967</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1583,6 +1761,12 @@
       <c r="L30" t="n">
         <v>0.8302295296782917</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.001077800898401972</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01414149430933846</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1621,6 +1805,12 @@
       <c r="L31" t="n">
         <v>0.6268336562207085</v>
       </c>
+      <c r="M31" t="n">
+        <v>0.0004589361861378425</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.03323278761067797</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1659,6 +1849,12 @@
       <c r="L32" t="n">
         <v>0.9037078168927269</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.001715595288242975</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.008878934637703194</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1697,6 +1893,12 @@
       <c r="L33" t="n">
         <v>0.9952448838967668</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.07046158475173896</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0002019835384086387</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1735,6 +1937,12 @@
       <c r="L34" t="n">
         <v>0.6975840606655895</v>
       </c>
+      <c r="M34" t="n">
+        <v>0.0005549011527225559</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02748308476622072</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1773,6 +1981,12 @@
       <c r="L35" t="n">
         <v>0.8825908174455211</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.001601413773720076</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.009512660995420098</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1811,6 +2025,12 @@
       <c r="L36" t="n">
         <v>0.8528993260333869</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.005503741485540608</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.00275745049986583</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1849,6 +2069,12 @@
       <c r="L37" t="n">
         <v>0.7533500533551098</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.001365907260505511</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01115611759469526</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1887,6 +2113,12 @@
       <c r="L38" t="n">
         <v>0.9430534863174301</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.001604023663187708</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.009497025664011357</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1925,6 +2157,12 @@
       <c r="L39" t="n">
         <v>0.8334106047097524</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.0006902106151281438</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.022095318298779</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1963,6 +2201,12 @@
       <c r="L40" t="n">
         <v>0.8973996384701534</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.002141982431520233</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.007108568562547757</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2001,6 +2245,12 @@
       <c r="L41" t="n">
         <v>0.882247705324954</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.001218390539737519</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.01250844591799572</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2039,6 +2289,12 @@
       <c r="L42" t="n">
         <v>0.8411686235652179</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.001073883397341757</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.01419386148361095</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2077,6 +2333,12 @@
       <c r="L43" t="n">
         <v>0.8411370940962766</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.001602704545825947</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.009507322582351426</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2115,6 +2377,12 @@
       <c r="L44" t="n">
         <v>0.925291187858681</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.001475378567691946</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01032885906651404</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2153,6 +2421,12 @@
       <c r="L45" t="n">
         <v>0.9369872208320694</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.005284186856818299</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.002872026527797469</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2191,6 +2465,12 @@
       <c r="L46" t="n">
         <v>0.8401804068369867</v>
       </c>
+      <c r="M46" t="n">
+        <v>0.001029526635234823</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.01480603845920722</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2229,6 +2509,12 @@
       <c r="L47" t="n">
         <v>0.9619299457081082</v>
       </c>
+      <c r="M47" t="n">
+        <v>0.006405716922411627</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.002366423563901385</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2267,6 +2553,12 @@
       <c r="L48" t="n">
         <v>0.7074879559819353</v>
       </c>
+      <c r="M48" t="n">
+        <v>0.0007385354315197154</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0206457565402557</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2305,6 +2597,12 @@
       <c r="L49" t="n">
         <v>0.558086879855652</v>
       </c>
+      <c r="M49" t="n">
+        <v>0.002074629197566057</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.007339914090364243</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2343,6 +2641,12 @@
       <c r="L50" t="n">
         <v>0.8539705548632326</v>
       </c>
+      <c r="M50" t="n">
+        <v>0.001133518762959794</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.01344582298428955</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2381,6 +2685,12 @@
       <c r="L51" t="n">
         <v>0.9643666521702212</v>
       </c>
+      <c r="M51" t="n">
+        <v>0.004581591482460857</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.003315460112848903</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2419,6 +2729,12 @@
       <c r="L52" t="n">
         <v>0.7513386038279505</v>
       </c>
+      <c r="M52" t="n">
+        <v>0.0005941609203614671</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.02566618648415696</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2457,6 +2773,12 @@
       <c r="L53" t="n">
         <v>0.9111022300455747</v>
       </c>
+      <c r="M53" t="n">
+        <v>0.00602188472710978</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.002518800326011809</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2495,6 +2817,12 @@
       <c r="L54" t="n">
         <v>0.9278138691864173</v>
       </c>
+      <c r="M54" t="n">
+        <v>0.002191718429965062</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.00694419428264677</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2533,6 +2861,12 @@
       <c r="L55" t="n">
         <v>0.9059768476092575</v>
       </c>
+      <c r="M55" t="n">
+        <v>0.00142195508856449</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01071562543997999</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2571,6 +2905,12 @@
       <c r="L56" t="n">
         <v>0.9041802821117215</v>
       </c>
+      <c r="M56" t="n">
+        <v>0.001379334672824501</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.01104700359070773</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2609,6 +2949,12 @@
       <c r="L57" t="n">
         <v>0.9030450645367402</v>
       </c>
+      <c r="M57" t="n">
+        <v>0.00147921018470051</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.01030040538680741</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2647,6 +2993,12 @@
       <c r="L58" t="n">
         <v>0.9810063516136202</v>
       </c>
+      <c r="M58" t="n">
+        <v>0.02007928639559011</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.000744502262478377</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2685,6 +3037,12 @@
       <c r="L59" t="n">
         <v>0.9872626376361471</v>
       </c>
+      <c r="M59" t="n">
+        <v>0.01864416531466991</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0008036048126524054</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2723,6 +3081,12 @@
       <c r="L60" t="n">
         <v>0.7308721169317417</v>
       </c>
+      <c r="M60" t="n">
+        <v>0.0007047313122505532</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.02163613326251378</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2761,6 +3125,12 @@
       <c r="L61" t="n">
         <v>0.9278188610814054</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.003141059721334884</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.004842560121306905</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2799,6 +3169,12 @@
       <c r="L62" t="n">
         <v>0.9836755177012017</v>
       </c>
+      <c r="M62" t="n">
+        <v>0.02607928515951173</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0005702332777043848</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2837,6 +3213,12 @@
       <c r="L63" t="n">
         <v>0.9198364492038837</v>
       </c>
+      <c r="M63" t="n">
+        <v>0.003108699381834375</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.004892951160001898</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2875,6 +3257,12 @@
       <c r="L64" t="n">
         <v>0.8091440238916799</v>
       </c>
+      <c r="M64" t="n">
+        <v>0.001178952913507219</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.01292751796629175</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2913,6 +3301,12 @@
       <c r="L65" t="n">
         <v>0.8257490242133041</v>
       </c>
+      <c r="M65" t="n">
+        <v>0.0008734620513135534</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.01745393035501193</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2951,6 +3345,12 @@
       <c r="L66" t="n">
         <v>0.9921347894076566</v>
       </c>
+      <c r="M66" t="n">
+        <v>0.03356292133424394</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0004385213440148785</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2989,6 +3389,12 @@
       <c r="L67" t="n">
         <v>0.8295218560042373</v>
       </c>
+      <c r="M67" t="n">
+        <v>0.0008662768990181331</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0175991346919927</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3027,6 +3433,12 @@
       <c r="L68" t="n">
         <v>0.7728536612176758</v>
       </c>
+      <c r="M68" t="n">
+        <v>0.0009454571852267627</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.01612393491768974</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3065,6 +3477,12 @@
       <c r="L69" t="n">
         <v>0.9095302348460937</v>
       </c>
+      <c r="M69" t="n">
+        <v>0.002446127177154327</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.006222327906593267</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3103,6 +3521,12 @@
       <c r="L70" t="n">
         <v>0.9398685045249683</v>
       </c>
+      <c r="M70" t="n">
+        <v>0.005198616023328618</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.00291988365222893</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3141,6 +3565,12 @@
       <c r="L71" t="n">
         <v>0.891683179792828</v>
       </c>
+      <c r="M71" t="n">
+        <v>0.002323259623694773</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.00655275800425068</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3179,6 +3609,12 @@
       <c r="L72" t="n">
         <v>0.8022367164683548</v>
       </c>
+      <c r="M72" t="n">
+        <v>0.0009504928712252124</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.01604000418879857</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3217,6 +3653,12 @@
       <c r="L73" t="n">
         <v>0.9970020100760538</v>
       </c>
+      <c r="M73" t="n">
+        <v>0.04993690310693354</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0002905641288075114</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3255,6 +3697,12 @@
       <c r="L74" t="n">
         <v>0.9008841269086348</v>
       </c>
+      <c r="M74" t="n">
+        <v>0.0008842160865769275</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.01724663890270542</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3293,6 +3741,12 @@
       <c r="L75" t="n">
         <v>0.9851049822036493</v>
       </c>
+      <c r="M75" t="n">
+        <v>0.02972948130286961</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.0004983603318359005</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3331,6 +3785,12 @@
       <c r="L76" t="n">
         <v>0.8718104495061474</v>
       </c>
+      <c r="M76" t="n">
+        <v>0.001026845807331529</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.01484650809515478</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3369,6 +3829,12 @@
       <c r="L77" t="n">
         <v>0.9930629616868386</v>
       </c>
+      <c r="M77" t="n">
+        <v>0.04812438912496883</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0003026092124609467</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3407,6 +3873,12 @@
       <c r="L78" t="n">
         <v>0.9929381805900399</v>
       </c>
+      <c r="M78" t="n">
+        <v>0.02614375540538424</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0005690710992158112</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3445,6 +3917,12 @@
       <c r="L79" t="n">
         <v>0.822232776339952</v>
       </c>
+      <c r="M79" t="n">
+        <v>0.0005792260291903144</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.02632889600747445</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3483,6 +3961,12 @@
       <c r="L80" t="n">
         <v>0.9647802390873376</v>
       </c>
+      <c r="M80" t="n">
+        <v>0.005608185232517342</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.002705421865395328</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3521,6 +4005,12 @@
       <c r="L81" t="n">
         <v>0.9192016006386268</v>
       </c>
+      <c r="M81" t="n">
+        <v>0.001523305313841515</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.01000166324937988</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3559,6 +4049,12 @@
       <c r="L82" t="n">
         <v>0.8845452214757624</v>
       </c>
+      <c r="M82" t="n">
+        <v>0.01017572157137595</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.001484604084868556</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3597,6 +4093,12 @@
       <c r="L83" t="n">
         <v>0.8859869366000226</v>
       </c>
+      <c r="M83" t="n">
+        <v>0.0014042327430546</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.01084991513720296</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3635,6 +4137,12 @@
       <c r="L84" t="n">
         <v>0.9785921765618859</v>
       </c>
+      <c r="M84" t="n">
+        <v>0.009628284330985686</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.001569607113267809</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3673,6 +4181,12 @@
       <c r="L85" t="n">
         <v>0.9928073213053636</v>
       </c>
+      <c r="M85" t="n">
+        <v>0.03870860721629107</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0003792465906676159</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3711,6 +4225,12 @@
       <c r="L86" t="n">
         <v>0.9759002959708966</v>
       </c>
+      <c r="M86" t="n">
+        <v>0.01553319608427437</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0009666586271102258</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3749,6 +4269,12 @@
       <c r="L87" t="n">
         <v>0.6879158826621802</v>
       </c>
+      <c r="M87" t="n">
+        <v>0.001703239810145779</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.008943623186578572</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3787,6 +4313,12 @@
       <c r="L88" t="n">
         <v>0.6535873365655547</v>
       </c>
+      <c r="M88" t="n">
+        <v>0.00186402780789889</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.008170738728088212</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3825,6 +4357,12 @@
       <c r="L89" t="n">
         <v>0.9073554011900521</v>
       </c>
+      <c r="M89" t="n">
+        <v>0.002840640001827659</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.005356531032328506</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3863,6 +4401,12 @@
       <c r="L90" t="n">
         <v>0.9915434731372118</v>
       </c>
+      <c r="M90" t="n">
+        <v>0.03568552181140604</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0004128482280695085</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3901,6 +4445,12 @@
       <c r="L91" t="n">
         <v>0.9684737768977113</v>
       </c>
+      <c r="M91" t="n">
+        <v>0.008029159341380966</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.001885424500205245</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3939,6 +4489,12 @@
       <c r="L92" t="n">
         <v>0.9961336048776153</v>
       </c>
+      <c r="M92" t="n">
+        <v>0.05534404994255956</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.0002605840738508986</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3977,6 +4533,12 @@
       <c r="L93" t="n">
         <v>0.9807775664623751</v>
       </c>
+      <c r="M93" t="n">
+        <v>0.007362693969224779</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.002056886571979022</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4015,6 +4577,12 @@
       <c r="L94" t="n">
         <v>0.8946012928100033</v>
       </c>
+      <c r="M94" t="n">
+        <v>0.001764019038030116</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.008634259672040569</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4053,6 +4621,12 @@
       <c r="L95" t="n">
         <v>0.9938427576975253</v>
       </c>
+      <c r="M95" t="n">
+        <v>0.03119790910756507</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0004733098957863783</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4091,6 +4665,12 @@
       <c r="L96" t="n">
         <v>0.9410521381536906</v>
       </c>
+      <c r="M96" t="n">
+        <v>0.002061039494605826</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.007387077666554844</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4129,6 +4709,12 @@
       <c r="L97" t="n">
         <v>0.8678819366682063</v>
       </c>
+      <c r="M97" t="n">
+        <v>0.001897743502249361</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.008027105283970354</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4167,6 +4753,12 @@
       <c r="L98" t="n">
         <v>0.9399562184629752</v>
       </c>
+      <c r="M98" t="n">
+        <v>0.003778875606600898</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.004022844317080922</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4205,6 +4797,12 @@
       <c r="L99" t="n">
         <v>0.9008253122154286</v>
       </c>
+      <c r="M99" t="n">
+        <v>0.001369736361388359</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.01112442442453017</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4243,6 +4841,12 @@
       <c r="L100" t="n">
         <v>0.5829456681189431</v>
       </c>
+      <c r="M100" t="n">
+        <v>0.0005327667763778629</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.02862552264162835</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4281,6 +4885,12 @@
       <c r="L101" t="n">
         <v>0.8869701271015727</v>
       </c>
+      <c r="M101" t="n">
+        <v>0.00168460273043604</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.009042573153903879</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4319,6 +4929,12 @@
       <c r="L102" t="n">
         <v>0.9080673329686686</v>
       </c>
+      <c r="M102" t="n">
+        <v>0.004663907653826278</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.003256113342693744</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4357,6 +4973,12 @@
       <c r="L103" t="n">
         <v>0.8969471340712724</v>
       </c>
+      <c r="M103" t="n">
+        <v>0.001111474282707306</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.01371495536036191</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4395,6 +5017,12 @@
       <c r="L104" t="n">
         <v>0.9340678455406179</v>
       </c>
+      <c r="M104" t="n">
+        <v>0.003961029333702738</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.003837167701036918</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4433,6 +5061,12 @@
       <c r="L105" t="n">
         <v>0.8650669706647534</v>
       </c>
+      <c r="M105" t="n">
+        <v>0.001184782640116442</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.01286546256736935</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4471,6 +5105,12 @@
       <c r="L106" t="n">
         <v>0.9772696547372196</v>
       </c>
+      <c r="M106" t="n">
+        <v>0.007553980255894144</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.002004512868207901</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4509,6 +5149,12 @@
       <c r="L107" t="n">
         <v>0.9243805073109801</v>
       </c>
+      <c r="M107" t="n">
+        <v>0.001702053983143623</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.008949651320417288</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4547,6 +5193,12 @@
       <c r="L108" t="n">
         <v>0.7795163810530594</v>
       </c>
+      <c r="M108" t="n">
+        <v>0.003467710787853873</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.004385197507797588</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4585,6 +5237,12 @@
       <c r="L109" t="n">
         <v>0.9601385332144944</v>
       </c>
+      <c r="M109" t="n">
+        <v>0.003848891833719489</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.003947019651356722</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4623,6 +5281,12 @@
       <c r="L110" t="n">
         <v>0.9549697285318902</v>
       </c>
+      <c r="M110" t="n">
+        <v>0.002311377440491292</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.006585378368191424</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4661,6 +5325,12 @@
       <c r="L111" t="n">
         <v>0.5103474671154898</v>
       </c>
+      <c r="M111" t="n">
+        <v>0.00169869456312271</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.008967603180455083</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4699,6 +5369,12 @@
       <c r="L112" t="n">
         <v>0.9484988069603483</v>
       </c>
+      <c r="M112" t="n">
+        <v>0.003486592307374266</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.004361253957740707</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4737,6 +5413,12 @@
       <c r="L113" t="n">
         <v>0.960058046908946</v>
       </c>
+      <c r="M113" t="n">
+        <v>0.002553849544576573</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.005958253517743345</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4775,6 +5457,12 @@
       <c r="L114" t="n">
         <v>0.855270116968601</v>
       </c>
+      <c r="M114" t="n">
+        <v>0.001769912896360867</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.008606033237537843</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4813,6 +5501,12 @@
       <c r="L115" t="n">
         <v>0.8808877340095371</v>
       </c>
+      <c r="M115" t="n">
+        <v>0.00184277478739219</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.008265059751092169</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4851,6 +5545,12 @@
       <c r="L116" t="n">
         <v>0.9321757998343589</v>
       </c>
+      <c r="M116" t="n">
+        <v>0.002346786591239714</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.006486912425743506</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4889,6 +5589,12 @@
       <c r="L117" t="n">
         <v>0.9949097860756955</v>
       </c>
+      <c r="M117" t="n">
+        <v>0.0638329795316893</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.0002241671061152589</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4927,6 +5633,12 @@
       <c r="L118" t="n">
         <v>0.8922552142478214</v>
       </c>
+      <c r="M118" t="n">
+        <v>0.0009581685962968431</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.01591227681277931</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4965,6 +5677,12 @@
       <c r="L119" t="n">
         <v>0.9872513737986526</v>
       </c>
+      <c r="M119" t="n">
+        <v>0.02844394678351496</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.0005215588224473846</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5003,6 +5721,12 @@
       <c r="L120" t="n">
         <v>0.9141391443627839</v>
       </c>
+      <c r="M120" t="n">
+        <v>0.001791883715532152</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.008500367614255501</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5041,6 +5765,12 @@
       <c r="L121" t="n">
         <v>0.9387210274159511</v>
       </c>
+      <c r="M121" t="n">
+        <v>0.001923632551071183</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.007917024572274259</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5079,6 +5809,12 @@
       <c r="L122" t="n">
         <v>0.955463478573761</v>
       </c>
+      <c r="M122" t="n">
+        <v>0.004846410811011308</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.00313291979186317</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5117,6 +5853,12 @@
       <c r="L123" t="n">
         <v>0.9086613423653298</v>
       </c>
+      <c r="M123" t="n">
+        <v>0.005674646564179374</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.002673798577769765</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5155,6 +5897,12 @@
       <c r="L124" t="n">
         <v>0.8442314299313889</v>
       </c>
+      <c r="M124" t="n">
+        <v>0.001068630531673853</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.01426367731000806</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5193,6 +5941,12 @@
       <c r="L125" t="n">
         <v>0.8203891455913085</v>
       </c>
+      <c r="M125" t="n">
+        <v>0.0009272395796195385</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.01644042194997824</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5231,6 +5985,12 @@
       <c r="L126" t="n">
         <v>0.9226450119070091</v>
       </c>
+      <c r="M126" t="n">
+        <v>0.001213859615906759</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.01256286503585619</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5269,6 +6029,12 @@
       <c r="L127" t="n">
         <v>0.8761147354758003</v>
       </c>
+      <c r="M127" t="n">
+        <v>0.001261165988811307</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.01208355856290956</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5307,6 +6073,12 @@
       <c r="L128" t="n">
         <v>0.897102218971887</v>
       </c>
+      <c r="M128" t="n">
+        <v>0.001402893657949393</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.01086130256435531</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5345,6 +6117,12 @@
       <c r="L129" t="n">
         <v>0.9428971175280685</v>
       </c>
+      <c r="M129" t="n">
+        <v>0.001843990103132003</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.00825735368536014</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5383,6 +6161,12 @@
       <c r="L130" t="n">
         <v>0.9287545451556243</v>
       </c>
+      <c r="M130" t="n">
+        <v>0.002054778098600284</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.007410211811921359</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5421,6 +6205,12 @@
       <c r="L131" t="n">
         <v>0.8565662408598148</v>
       </c>
+      <c r="M131" t="n">
+        <v>0.002082175872670076</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.007313186724547415</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5459,6 +6249,12 @@
       <c r="L132" t="n">
         <v>0.8392187630858511</v>
       </c>
+      <c r="M132" t="n">
+        <v>0.0009746419927825702</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.01564034775935002</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5497,6 +6293,12 @@
       <c r="L133" t="n">
         <v>0.9346334661754314</v>
       </c>
+      <c r="M133" t="n">
+        <v>0.003411727612716884</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.004456964759575042</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5535,6 +6337,12 @@
       <c r="L134" t="n">
         <v>0.9430161630514329</v>
       </c>
+      <c r="M134" t="n">
+        <v>0.001846339646084996</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.008246833793944273</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5573,6 +6381,12 @@
       <c r="L135" t="n">
         <v>0.98731805300122</v>
       </c>
+      <c r="M135" t="n">
+        <v>0.04029102289864368</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.0003639272624151964</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5611,6 +6425,12 @@
       <c r="L136" t="n">
         <v>0.9179759187452697</v>
       </c>
+      <c r="M136" t="n">
+        <v>0.002010419992671556</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.007574452902861756</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5649,6 +6469,12 @@
       <c r="L137" t="n">
         <v>0.8986123184511344</v>
       </c>
+      <c r="M137" t="n">
+        <v>0.002426914099612207</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.00627223065773921</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5687,6 +6513,12 @@
       <c r="L138" t="n">
         <v>0.8336192812375283</v>
       </c>
+      <c r="M138" t="n">
+        <v>0.001159825638912387</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.01314028462186679</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5725,6 +6557,12 @@
       <c r="L139" t="n">
         <v>0.8263924217819224</v>
       </c>
+      <c r="M139" t="n">
+        <v>0.001236823582631623</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.01232192310653928</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5763,6 +6601,12 @@
       <c r="L140" t="n">
         <v>0.8173567819141898</v>
       </c>
+      <c r="M140" t="n">
+        <v>0.0009006965993840609</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.01692595729142104</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5801,6 +6645,12 @@
       <c r="L141" t="n">
         <v>0.9000440591255729</v>
       </c>
+      <c r="M141" t="n">
+        <v>0.001681771288915922</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.009057489371769379</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5839,6 +6689,12 @@
       <c r="L142" t="n">
         <v>0.8389922205892895</v>
       </c>
+      <c r="M142" t="n">
+        <v>0.001091004236269864</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.01397071661923893</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5877,6 +6733,12 @@
       <c r="L143" t="n">
         <v>0.8946738875047052</v>
       </c>
+      <c r="M143" t="n">
+        <v>0.00176530905457961</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.008627938777322907</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5915,6 +6777,12 @@
       <c r="L144" t="n">
         <v>0.9044548058007221</v>
       </c>
+      <c r="M144" t="n">
+        <v>0.001837426617547739</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.008289309951091119</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5953,6 +6821,12 @@
       <c r="L145" t="n">
         <v>0.7526399157889168</v>
       </c>
+      <c r="M145" t="n">
+        <v>0.001098480083423557</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.01387563114499216</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5991,6 +6865,12 @@
       <c r="L146" t="n">
         <v>0.9262493388689557</v>
       </c>
+      <c r="M146" t="n">
+        <v>0.001978295341288074</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.007697107571849269</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6029,6 +6909,12 @@
       <c r="L147" t="n">
         <v>0.9433236505571059</v>
       </c>
+      <c r="M147" t="n">
+        <v>0.001934589090371758</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.007869513390420356</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6067,6 +6953,12 @@
       <c r="L148" t="n">
         <v>0.9609845841967957</v>
       </c>
+      <c r="M148" t="n">
+        <v>0.01187274069710071</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.001270264151954779</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6105,6 +6997,12 @@
       <c r="L149" t="n">
         <v>0.6100578454053667</v>
       </c>
+      <c r="M149" t="n">
+        <v>0.002686889123878035</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.005663969236086254</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6143,6 +7041,12 @@
       <c r="L150" t="n">
         <v>0.9494487521034845</v>
       </c>
+      <c r="M150" t="n">
+        <v>0.00297874160826142</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.005103208869262407</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6181,6 +7085,12 @@
       <c r="L151" t="n">
         <v>0.9916115253797771</v>
       </c>
+      <c r="M151" t="n">
+        <v>0.0222291791219945</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.0006710122309564994</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6219,6 +7129,12 @@
       <c r="L152" t="n">
         <v>0.973305638315098</v>
       </c>
+      <c r="M152" t="n">
+        <v>0.004018954962533135</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.003780647551136715</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6257,6 +7173,12 @@
       <c r="L153" t="n">
         <v>0.9251518409415673</v>
       </c>
+      <c r="M153" t="n">
+        <v>0.002357280312959839</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.006457982793384471</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6295,6 +7217,12 @@
       <c r="L154" t="n">
         <v>0.8908314478976173</v>
       </c>
+      <c r="M154" t="n">
+        <v>0.002234522002482713</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.006813236643477518</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6333,6 +7261,12 @@
       <c r="L155" t="n">
         <v>0.9625737380906048</v>
       </c>
+      <c r="M155" t="n">
+        <v>0.01021506329683096</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.001478814925337465</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6371,6 +7305,12 @@
       <c r="L156" t="n">
         <v>0.9372808021959397</v>
       </c>
+      <c r="M156" t="n">
+        <v>0.001488685691282324</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.01023405763790762</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6409,6 +7349,12 @@
       <c r="L157" t="n">
         <v>0.9651587265525744</v>
       </c>
+      <c r="M157" t="n">
+        <v>0.005539613484260969</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.002739290366066002</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6447,6 +7393,12 @@
       <c r="L158" t="n">
         <v>0.8616389037587298</v>
       </c>
+      <c r="M158" t="n">
+        <v>0.001485153170452617</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.01025885407589104</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6485,6 +7437,12 @@
       <c r="L159" t="n">
         <v>0.7512962372181093</v>
       </c>
+      <c r="M159" t="n">
+        <v>0.00127840669982655</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.0119205015391163</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6523,6 +7481,12 @@
       <c r="L160" t="n">
         <v>0.9470837956430446</v>
       </c>
+      <c r="M160" t="n">
+        <v>0.00386974124250449</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.003927597811145537</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6561,6 +7525,12 @@
       <c r="L161" t="n">
         <v>0.857980548293648</v>
       </c>
+      <c r="M161" t="n">
+        <v>0.0008732311338817761</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.01745854079401101</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6599,6 +7569,12 @@
       <c r="L162" t="n">
         <v>0.8658949218634072</v>
       </c>
+      <c r="M162" t="n">
+        <v>0.001229688880730038</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.01239295914519602</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6637,6 +7613,12 @@
       <c r="L163" t="n">
         <v>0.805773390450323</v>
       </c>
+      <c r="M163" t="n">
+        <v>0.001205125796100384</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.01264646021222788</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6675,6 +7657,12 @@
       <c r="L164" t="n">
         <v>0.8736196871349297</v>
       </c>
+      <c r="M164" t="n">
+        <v>0.001366326266343963</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.01115120573300884</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6713,6 +7701,12 @@
       <c r="L165" t="n">
         <v>0.939108484069162</v>
       </c>
+      <c r="M165" t="n">
+        <v>0.002285311732877898</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.006662058202071442</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6751,6 +7745,12 @@
       <c r="L166" t="n">
         <v>0.9906405977737858</v>
       </c>
+      <c r="M166" t="n">
+        <v>0.03296888386925655</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.0004474985520314226</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -6789,6 +7789,12 @@
       <c r="L167" t="n">
         <v>0.8530826116568573</v>
       </c>
+      <c r="M167" t="n">
+        <v>0.001437886727565229</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.01059680611719777</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6827,6 +7833,12 @@
       <c r="L168" t="n">
         <v>0.9722263786879105</v>
       </c>
+      <c r="M168" t="n">
+        <v>0.004993463059176256</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.00304013039714448</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6865,6 +7877,12 @@
       <c r="L169" t="n">
         <v>0.9484934364988061</v>
       </c>
+      <c r="M169" t="n">
+        <v>0.0034859617152454</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.004362045016217803</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6903,6 +7921,12 @@
       <c r="L170" t="n">
         <v>0.9925783843171168</v>
       </c>
+      <c r="M170" t="n">
+        <v>0.04755328671187738</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.0003059847896072909</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6941,6 +7965,12 @@
       <c r="L171" t="n">
         <v>0.9685545436579687</v>
       </c>
+      <c r="M171" t="n">
+        <v>0.006148328852298591</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.002465693573855932</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6979,6 +8009,12 @@
       <c r="L172" t="n">
         <v>0.9563516485451775</v>
       </c>
+      <c r="M172" t="n">
+        <v>0.002120109296140735</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.007181231724152035</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7017,6 +8053,12 @@
       <c r="L173" t="n">
         <v>0.9540008309220129</v>
       </c>
+      <c r="M173" t="n">
+        <v>0.009227520794871352</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.001638612405338634</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7055,6 +8097,12 @@
       <c r="L174" t="n">
         <v>0.9625626701757448</v>
       </c>
+      <c r="M174" t="n">
+        <v>0.007645210236561971</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.001980819862661042</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7093,6 +8141,12 @@
       <c r="L175" t="n">
         <v>0.9667779771687682</v>
       </c>
+      <c r="M175" t="n">
+        <v>0.01212732054534083</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.001243294811832995</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7131,6 +8185,12 @@
       <c r="L176" t="n">
         <v>0.8721697648975297</v>
       </c>
+      <c r="M176" t="n">
+        <v>0.001175669736292536</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.01297039031419546</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7169,6 +8229,12 @@
       <c r="L177" t="n">
         <v>0.8788522098760388</v>
       </c>
+      <c r="M177" t="n">
+        <v>0.001447632893026275</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.01052497172429198</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7207,6 +8273,12 @@
       <c r="L178" t="n">
         <v>0.8703968069794688</v>
       </c>
+      <c r="M178" t="n">
+        <v>0.001484329192812877</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.01026445270730458</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7245,6 +8317,12 @@
       <c r="L179" t="n">
         <v>0.8487407540654364</v>
       </c>
+      <c r="M179" t="n">
+        <v>0.0005874375972823765</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.02596396446021425</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7283,6 +8361,12 @@
       <c r="L180" t="n">
         <v>0.7761174041642795</v>
       </c>
+      <c r="M180" t="n">
+        <v>0.001009039904006643</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.01510643862775086</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -7321,6 +8405,12 @@
       <c r="L181" t="n">
         <v>0.8954286618736692</v>
       </c>
+      <c r="M181" t="n">
+        <v>0.001918086542186989</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.007941958483298529</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7359,6 +8449,12 @@
       <c r="L182" t="n">
         <v>0.9302450372079671</v>
       </c>
+      <c r="M182" t="n">
+        <v>0.002386193061982818</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.006379423419909494</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -7397,6 +8493,12 @@
       <c r="L183" t="n">
         <v>0.9447925145349795</v>
       </c>
+      <c r="M183" t="n">
+        <v>0.007359059952315717</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.002058401692820507</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -7435,6 +8537,12 @@
       <c r="L184" t="n">
         <v>0.9109838414475947</v>
       </c>
+      <c r="M184" t="n">
+        <v>0.002449446424235357</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.006214476054386078</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -7473,6 +8581,12 @@
       <c r="L185" t="n">
         <v>0.9489132729141622</v>
       </c>
+      <c r="M185" t="n">
+        <v>0.002181217777551635</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.006980534032494208</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -7511,6 +8625,12 @@
       <c r="L186" t="n">
         <v>0.7968406198529824</v>
       </c>
+      <c r="M186" t="n">
+        <v>0.001006420420120982</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.01514598868566722</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7549,6 +8669,12 @@
       <c r="L187" t="n">
         <v>0.9516918749727046</v>
       </c>
+      <c r="M187" t="n">
+        <v>0.002236612405237871</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.006807115110054882</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7587,6 +8713,12 @@
       <c r="L188" t="n">
         <v>0.7790191180526161</v>
       </c>
+      <c r="M188" t="n">
+        <v>0.0008226061731488833</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.01853375507850216</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7625,6 +8757,12 @@
       <c r="L189" t="n">
         <v>0.7671983482918699</v>
       </c>
+      <c r="M189" t="n">
+        <v>0.0009550835804456303</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.01596126932993113</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -7663,6 +8801,12 @@
       <c r="L190" t="n">
         <v>0.6872440611066247</v>
       </c>
+      <c r="M190" t="n">
+        <v>0.004247101809749691</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.003577814555362795</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7701,6 +8845,12 @@
       <c r="L191" t="n">
         <v>0.9600542711033738</v>
       </c>
+      <c r="M191" t="n">
+        <v>0.002553699982585096</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.005958600098987621</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7739,6 +8889,12 @@
       <c r="L192" t="n">
         <v>0.9754633387549456</v>
       </c>
+      <c r="M192" t="n">
+        <v>0.007687379972977203</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.001969885476923955</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -7777,6 +8933,12 @@
       <c r="L193" t="n">
         <v>0.9813908367081372</v>
       </c>
+      <c r="M193" t="n">
+        <v>0.007682023756326685</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.001970778521836399</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7815,6 +8977,12 @@
       <c r="L194" t="n">
         <v>0.9403832706317471</v>
       </c>
+      <c r="M194" t="n">
+        <v>0.001523977576390769</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.009995197066972774</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -7853,6 +9021,12 @@
       <c r="L195" t="n">
         <v>0.8170728998343083</v>
       </c>
+      <c r="M195" t="n">
+        <v>0.001250218951999633</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.01218962777443216</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7891,6 +9065,12 @@
       <c r="L196" t="n">
         <v>0.9939196336275143</v>
       </c>
+      <c r="M196" t="n">
+        <v>0.0323893867396039</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.0004564122110891691</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -7929,6 +9109,12 @@
       <c r="L197" t="n">
         <v>0.891732917640208</v>
       </c>
+      <c r="M197" t="n">
+        <v>0.002109245776334141</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.007226830775384397</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -7967,6 +9153,12 @@
       <c r="L198" t="n">
         <v>0.9930663009677764</v>
       </c>
+      <c r="M198" t="n">
+        <v>0.03290319902290405</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.0004488966107849707</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8005,6 +9197,12 @@
       <c r="L199" t="n">
         <v>0.919967638081108</v>
       </c>
+      <c r="M199" t="n">
+        <v>0.008732791965005668</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.001732387384245805</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -8043,6 +9241,12 @@
       <c r="L200" t="n">
         <v>0.9275312704055384</v>
       </c>
+      <c r="M200" t="n">
+        <v>0.002315177492836479</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.006575796474895652</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -8081,6 +9285,12 @@
       <c r="L201" t="n">
         <v>0.9682711804086869</v>
       </c>
+      <c r="M201" t="n">
+        <v>0.002379824143660965</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.006396227700260541</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -8119,6 +9329,12 @@
       <c r="L202" t="n">
         <v>0.7287952728619775</v>
       </c>
+      <c r="M202" t="n">
+        <v>0.004156517275877005</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.00365612005820997</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -8157,6 +9373,12 @@
       <c r="L203" t="n">
         <v>0.7735589314591607</v>
       </c>
+      <c r="M203" t="n">
+        <v>0.00144560398047807</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.01054025723699513</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8195,6 +9417,12 @@
       <c r="L204" t="n">
         <v>0.9148945613626041</v>
       </c>
+      <c r="M204" t="n">
+        <v>0.001656166280790106</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.009199845460266797</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -8233,6 +9461,12 @@
       <c r="L205" t="n">
         <v>0.7763660612532213</v>
       </c>
+      <c r="M205" t="n">
+        <v>0.0006968898489640785</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.02188013511475338</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8271,6 +9505,12 @@
       <c r="L206" t="n">
         <v>0.8021122757927752</v>
       </c>
+      <c r="M206" t="n">
+        <v>0.001230962907710061</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.01238070734867863</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -8309,6 +9549,12 @@
       <c r="L207" t="n">
         <v>0.923886269178179</v>
       </c>
+      <c r="M207" t="n">
+        <v>0.001390820479924122</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.01095586527942084</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8347,6 +9593,12 @@
       <c r="L208" t="n">
         <v>0.6092333685187826</v>
       </c>
+      <c r="M208" t="n">
+        <v>0.0009200351281511877</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.01657081874835805</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -8385,6 +9637,12 @@
       <c r="L209" t="n">
         <v>0.9464388923471249</v>
       </c>
+      <c r="M209" t="n">
+        <v>0.002309771729876189</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.006591324373558366</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -8423,6 +9681,12 @@
       <c r="L210" t="n">
         <v>0.898770971588798</v>
       </c>
+      <c r="M210" t="n">
+        <v>0.00876602871663365</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.001725683987745067</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -8461,6 +9725,12 @@
       <c r="L211" t="n">
         <v>0.8818298514316694</v>
       </c>
+      <c r="M211" t="n">
+        <v>0.001068533700785016</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.01426671907007809</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -8499,6 +9769,12 @@
       <c r="L212" t="n">
         <v>0.9088439636231668</v>
       </c>
+      <c r="M212" t="n">
+        <v>0.005680160946633126</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.002671188128072309</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -8537,6 +9813,12 @@
       <c r="L213" t="n">
         <v>0.8602364922524015</v>
       </c>
+      <c r="M213" t="n">
+        <v>0.001613952357369299</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.009439223649317556</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -8575,6 +9857,12 @@
       <c r="L214" t="n">
         <v>0.7020197941950117</v>
       </c>
+      <c r="M214" t="n">
+        <v>0.0005309244543841414</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.02872490902346448</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -8613,6 +9901,12 @@
       <c r="L215" t="n">
         <v>0.9457878850595735</v>
       </c>
+      <c r="M215" t="n">
+        <v>0.008160380776267507</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.001854704059531532</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -8651,6 +9945,12 @@
       <c r="L216" t="n">
         <v>0.85919546694682</v>
       </c>
+      <c r="M216" t="n">
+        <v>0.001139222387505979</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.01337843441489979</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -8689,6 +9989,12 @@
       <c r="L217" t="n">
         <v>0.8469608705377366</v>
       </c>
+      <c r="M217" t="n">
+        <v>0.001206039447264911</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.01263851166848539</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8727,6 +10033,12 @@
       <c r="L218" t="n">
         <v>0.9494350658845931</v>
       </c>
+      <c r="M218" t="n">
+        <v>0.002978111536231457</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.005104281582161699</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8765,6 +10077,12 @@
       <c r="L219" t="n">
         <v>0.5434939948840281</v>
       </c>
+      <c r="M219" t="n">
+        <v>0.001993219284174238</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.007640333102782563</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -8803,6 +10121,12 @@
       <c r="L220" t="n">
         <v>0.9854049914784433</v>
       </c>
+      <c r="M220" t="n">
+        <v>0.01577461091084626</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.0009523410766297053</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -8841,6 +10165,12 @@
       <c r="L221" t="n">
         <v>0.7069036898209576</v>
       </c>
+      <c r="M221" t="n">
+        <v>0.0005638362752745797</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.02704729979334314</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -8879,6 +10209,12 @@
       <c r="L222" t="n">
         <v>0.9312471365493515</v>
       </c>
+      <c r="M222" t="n">
+        <v>0.002124097752759701</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.007168403075136436</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -8917,6 +10253,12 @@
       <c r="L223" t="n">
         <v>0.8366856701950376</v>
       </c>
+      <c r="M223" t="n">
+        <v>0.001022882548441924</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.01490230520614643</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -8955,6 +10297,12 @@
       <c r="L224" t="n">
         <v>0.7744984700572397</v>
       </c>
+      <c r="M224" t="n">
+        <v>0.0008898473410417412</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.01713212517613988</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -8993,6 +10341,12 @@
       <c r="L225" t="n">
         <v>0.9886010378626365</v>
       </c>
+      <c r="M225" t="n">
+        <v>0.02362865190358163</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.0006307638340845549</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -9031,6 +10385,12 @@
       <c r="L226" t="n">
         <v>0.9281965555980733</v>
       </c>
+      <c r="M226" t="n">
+        <v>0.002257754562468475</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.006743062538843529</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -9069,6 +10429,12 @@
       <c r="L227" t="n">
         <v>0.8975644112940979</v>
       </c>
+      <c r="M227" t="n">
+        <v>0.001564716704072065</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.009734955358271362</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -9107,6 +10473,12 @@
       <c r="L228" t="n">
         <v>0.8126716311475635</v>
       </c>
+      <c r="M228" t="n">
+        <v>0.0008648089986412377</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.01762859074886199</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -9145,6 +10517,12 @@
       <c r="L229" t="n">
         <v>0.8656402250178957</v>
       </c>
+      <c r="M229" t="n">
+        <v>0.001107754030505773</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.01375936899011935</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9183,6 +10561,12 @@
       <c r="L230" t="n">
         <v>0.9559941225871927</v>
       </c>
+      <c r="M230" t="n">
+        <v>0.002222747132726445</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.006849819561838961</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -9221,6 +10605,12 @@
       <c r="L231" t="n">
         <v>0.952359592197132</v>
       </c>
+      <c r="M231" t="n">
+        <v>0.007124220870528234</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.002126681901044035</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -9259,6 +10649,12 @@
       <c r="L232" t="n">
         <v>0.9275589919767505</v>
       </c>
+      <c r="M232" t="n">
+        <v>0.002316015069087365</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.006573412552334853</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -9297,6 +10693,12 @@
       <c r="L233" t="n">
         <v>0.7926315435684637</v>
       </c>
+      <c r="M233" t="n">
+        <v>0.004468484224812728</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.003399759683627686</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -9335,6 +10737,12 @@
       <c r="L234" t="n">
         <v>0.8111142932347496</v>
       </c>
+      <c r="M234" t="n">
+        <v>0.001336166074133207</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.01140454537358374</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -9373,6 +10781,12 @@
       <c r="L235" t="n">
         <v>0.9938065150516396</v>
       </c>
+      <c r="M235" t="n">
+        <v>0.06523623811437017</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.0002191888177441559</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9411,6 +10825,12 @@
       <c r="L236" t="n">
         <v>0.9965046005806635</v>
       </c>
+      <c r="M236" t="n">
+        <v>0.06566021653178143</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.0002171440124876943</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9449,6 +10869,12 @@
       <c r="L237" t="n">
         <v>0.9605621619887066</v>
       </c>
+      <c r="M237" t="n">
+        <v>0.01512918569388445</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.0009936949495986671</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9487,6 +10913,12 @@
       <c r="L238" t="n">
         <v>0.9595258432183922</v>
       </c>
+      <c r="M238" t="n">
+        <v>0.006180479594192633</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.0024533556736841</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -9525,6 +10957,12 @@
       <c r="L239" t="n">
         <v>0.9714983059999561</v>
       </c>
+      <c r="M239" t="n">
+        <v>0.01063166367239064</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.001420233438492555</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -9563,6 +11001,12 @@
       <c r="L240" t="n">
         <v>0.9274602155728391</v>
       </c>
+      <c r="M240" t="n">
+        <v>0.001365835066874943</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.01116072101357383</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -9601,6 +11045,12 @@
       <c r="L241" t="n">
         <v>0.9085921252295469</v>
       </c>
+      <c r="M241" t="n">
+        <v>0.001991676416607331</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.007646230508697601</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -9639,6 +11089,12 @@
       <c r="L242" t="n">
         <v>0.9887052526383721</v>
       </c>
+      <c r="M242" t="n">
+        <v>0.02762306988096747</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.0005374297664329978</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -9677,6 +11133,12 @@
       <c r="L243" t="n">
         <v>0.9111331220875103</v>
       </c>
+      <c r="M243" t="n">
+        <v>0.006024206744471301</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.002517823648640098</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -9715,6 +11177,12 @@
       <c r="L244" t="n">
         <v>0.6518551054404316</v>
       </c>
+      <c r="M244" t="n">
+        <v>0.0006458132902721795</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.02361210253777147</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -9753,6 +11221,12 @@
       <c r="L245" t="n">
         <v>0.8555437299943502</v>
       </c>
+      <c r="M245" t="n">
+        <v>0.001455125560745628</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.01047026774287439</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -9791,6 +11265,12 @@
       <c r="L246" t="n">
         <v>0.8865704326074122</v>
       </c>
+      <c r="M246" t="n">
+        <v>0.001243375252845273</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.01225677726728006</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9829,6 +11309,12 @@
       <c r="L247" t="n">
         <v>0.9252432371210543</v>
       </c>
+      <c r="M247" t="n">
+        <v>0.004011182649266124</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.003789037555407466</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -9867,6 +11353,12 @@
       <c r="L248" t="n">
         <v>0.7968808057757981</v>
       </c>
+      <c r="M248" t="n">
+        <v>0.001006675418918831</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.01514214827659404</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -9905,6 +11397,12 @@
       <c r="L249" t="n">
         <v>0.7863615956273168</v>
       </c>
+      <c r="M249" t="n">
+        <v>0.0008874712734840242</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.01717748101125731</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -9943,6 +11441,12 @@
       <c r="L250" t="n">
         <v>0.7960439233613026</v>
       </c>
+      <c r="M250" t="n">
+        <v>0.0009902232832735022</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.01539399774506279</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -9981,6 +11485,12 @@
       <c r="L251" t="n">
         <v>0.824208606551422</v>
       </c>
+      <c r="M251" t="n">
+        <v>0.001110869338471518</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.01372067759050538</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -10019,6 +11529,12 @@
       <c r="L252" t="n">
         <v>0.9849939562411525</v>
       </c>
+      <c r="M252" t="n">
+        <v>0.02636554710166245</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.0005632437814867804</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -10057,6 +11573,12 @@
       <c r="L253" t="n">
         <v>0.8790787104443337</v>
       </c>
+      <c r="M253" t="n">
+        <v>0.001244244664555028</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.01224833512858132</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -10095,6 +11617,12 @@
       <c r="L254" t="n">
         <v>0.9053258334641037</v>
       </c>
+      <c r="M254" t="n">
+        <v>0.001328770102896253</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.01146739584102336</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -10133,6 +11661,12 @@
       <c r="L255" t="n">
         <v>0.9465411481176264</v>
       </c>
+      <c r="M255" t="n">
+        <v>0.002310200212606547</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.006590110148338659</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -10171,6 +11705,12 @@
       <c r="L256" t="n">
         <v>0.9211912058595105</v>
       </c>
+      <c r="M256" t="n">
+        <v>0.00164959956636285</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.009234729997000181</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -10209,6 +11749,12 @@
       <c r="L257" t="n">
         <v>0.9913376787335562</v>
       </c>
+      <c r="M257" t="n">
+        <v>0.02179781368855471</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.0006848848809626688</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -10247,6 +11793,12 @@
       <c r="L258" t="n">
         <v>0.8787817685588221</v>
       </c>
+      <c r="M258" t="n">
+        <v>0.001447437491021912</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.01052639716085346</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -10285,6 +11837,12 @@
       <c r="L259" t="n">
         <v>0.8378367664299383</v>
       </c>
+      <c r="M259" t="n">
+        <v>0.0008334085221627642</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.01829547402869676</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -10323,6 +11881,12 @@
       <c r="L260" t="n">
         <v>0.9775228841346357</v>
       </c>
+      <c r="M260" t="n">
+        <v>0.01104288135418783</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.001366857870960639</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -10361,6 +11925,12 @@
       <c r="L261" t="n">
         <v>0.9273620830427617</v>
       </c>
+      <c r="M261" t="n">
+        <v>0.003113538275890325</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.004885700173168996</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -10399,6 +11969,12 @@
       <c r="L262" t="n">
         <v>0.9403334298306244</v>
       </c>
+      <c r="M262" t="n">
+        <v>0.002470058814441758</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.006159799436403755</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -10437,6 +12013,12 @@
       <c r="L263" t="n">
         <v>0.9561945731731439</v>
       </c>
+      <c r="M263" t="n">
+        <v>0.002117476022048199</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.007190167557835574</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -10475,6 +12057,12 @@
       <c r="L264" t="n">
         <v>0.9247865822233969</v>
       </c>
+      <c r="M264" t="n">
+        <v>0.009103682186106221</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.001661225233061589</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -10513,6 +12101,12 @@
       <c r="L265" t="n">
         <v>0.9009297814520196</v>
       </c>
+      <c r="M265" t="n">
+        <v>0.001645412408688457</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.009257895198691119</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -10551,6 +12145,12 @@
       <c r="L266" t="n">
         <v>0.945441546187052</v>
       </c>
+      <c r="M266" t="n">
+        <v>0.002219776818494535</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0.006858582016723701</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -10589,6 +12189,12 @@
       <c r="L267" t="n">
         <v>0.9538794497626429</v>
       </c>
+      <c r="M267" t="n">
+        <v>0.004110997717264735</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.003696696126643068</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -10627,6 +12233,12 @@
       <c r="L268" t="n">
         <v>0.8973042975204144</v>
       </c>
+      <c r="M268" t="n">
+        <v>0.001413584707865779</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.010779059944196</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -10665,6 +12277,12 @@
       <c r="L269" t="n">
         <v>0.7799306664811679</v>
       </c>
+      <c r="M269" t="n">
+        <v>0.001524923323822545</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.00999120234875585</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -10703,6 +12321,12 @@
       <c r="L270" t="n">
         <v>0.9852078319379987</v>
       </c>
+      <c r="M270" t="n">
+        <v>0.01498416449537471</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.001002831680582738</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -10741,6 +12365,12 @@
       <c r="L271" t="n">
         <v>0.9902980981105554</v>
       </c>
+      <c r="M271" t="n">
+        <v>0.02447148275595947</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0.0006087438877305301</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -10779,6 +12409,12 @@
       <c r="L272" t="n">
         <v>0.9239259234239505</v>
       </c>
+      <c r="M272" t="n">
+        <v>0.00139141575542472</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.0109511739370778</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -10817,6 +12453,12 @@
       <c r="L273" t="n">
         <v>0.9789543906011339</v>
       </c>
+      <c r="M273" t="n">
+        <v>0.01816622122754851</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.0008246840992050875</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10855,6 +12497,12 @@
       <c r="L274" t="n">
         <v>0.8183329455520688</v>
       </c>
+      <c r="M274" t="n">
+        <v>0.000982085504654539</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0.01551532315249995</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -10893,6 +12541,12 @@
       <c r="L275" t="n">
         <v>0.9336610431603631</v>
       </c>
+      <c r="M275" t="n">
+        <v>0.005695383349070409</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.002663938745824776</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -10931,6 +12585,12 @@
       <c r="L276" t="n">
         <v>0.9261793747827445</v>
       </c>
+      <c r="M276" t="n">
+        <v>0.001976927253926214</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.007702446198348717</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10969,6 +12629,12 @@
       <c r="L277" t="n">
         <v>0.9381941348894683</v>
       </c>
+      <c r="M277" t="n">
+        <v>0.002636678687444955</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.005772050076956699</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -11007,6 +12673,12 @@
       <c r="L278" t="n">
         <v>0.9920369214925914</v>
       </c>
+      <c r="M278" t="n">
+        <v>0.03858564224046495</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.00038004573647997</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -11045,6 +12717,12 @@
       <c r="L279" t="n">
         <v>0.9193212881701029</v>
       </c>
+      <c r="M279" t="n">
+        <v>0.001755895398615504</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.008673370282313587</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -11083,6 +12761,12 @@
       <c r="L280" t="n">
         <v>0.9401272660504705</v>
       </c>
+      <c r="M280" t="n">
+        <v>0.001521759851786166</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.01000975456081262</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -11121,6 +12805,12 @@
       <c r="L281" t="n">
         <v>0.9440386228493813</v>
       </c>
+      <c r="M281" t="n">
+        <v>0.001791604345001916</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0.008499165239891769</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -11159,6 +12849,12 @@
       <c r="L282" t="n">
         <v>0.7767230002237232</v>
       </c>
+      <c r="M282" t="n">
+        <v>0.001083743020125016</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0.01406450743526678</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -11197,6 +12893,12 @@
       <c r="L283" t="n">
         <v>0.9742169617094989</v>
       </c>
+      <c r="M283" t="n">
+        <v>0.01889393462421233</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0.0007922268022920239</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -11235,6 +12937,12 @@
       <c r="L284" t="n">
         <v>0.99034949300775</v>
       </c>
+      <c r="M284" t="n">
+        <v>0.01889557364860206</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0.0007926739893226338</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -11273,6 +12981,12 @@
       <c r="L285" t="n">
         <v>0.7090416073858389</v>
       </c>
+      <c r="M285" t="n">
+        <v>0.0007180930767243703</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0.02123370342371969</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -11311,6 +13025,12 @@
       <c r="L286" t="n">
         <v>0.7993663473358202</v>
       </c>
+      <c r="M286" t="n">
+        <v>0.0008488550737678924</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0.01796022871465153</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -11349,6 +13069,12 @@
       <c r="L287" t="n">
         <v>0.9162430623527515</v>
       </c>
+      <c r="M287" t="n">
+        <v>0.008681548484089426</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0.001742677044167095</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -11387,6 +13113,12 @@
       <c r="L288" t="n">
         <v>0.9794669931149851</v>
       </c>
+      <c r="M288" t="n">
+        <v>0.01172468211085966</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0.001286482301879759</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -11425,6 +13157,12 @@
       <c r="L289" t="n">
         <v>0.9153659033565343</v>
       </c>
+      <c r="M289" t="n">
+        <v>0.001985360402978721</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.007670543914297736</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -11463,6 +13201,12 @@
       <c r="L290" t="n">
         <v>0.9424640731449692</v>
       </c>
+      <c r="M290" t="n">
+        <v>0.005222717454611764</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0.002904377087910603</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -11501,6 +13245,12 @@
       <c r="L291" t="n">
         <v>0.9510379381651641</v>
       </c>
+      <c r="M291" t="n">
+        <v>0.003607264483667133</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.00421492895073487</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -11539,6 +13289,12 @@
       <c r="L292" t="n">
         <v>0.9906481158505182</v>
       </c>
+      <c r="M292" t="n">
+        <v>0.0329312793197608</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.0004485882913084362</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -11577,6 +13333,12 @@
       <c r="L293" t="n">
         <v>0.8629776539929117</v>
       </c>
+      <c r="M293" t="n">
+        <v>0.001637158942471817</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.009305063398087291</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -11615,6 +13377,12 @@
       <c r="L294" t="n">
         <v>0.9222270436791973</v>
       </c>
+      <c r="M294" t="n">
+        <v>0.002011258899042321</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.007571071333741366</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -11653,6 +13421,12 @@
       <c r="L295" t="n">
         <v>0.9455340732602586</v>
       </c>
+      <c r="M295" t="n">
+        <v>0.002316697333640333</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.006571490376445105</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -11691,6 +13465,12 @@
       <c r="L296" t="n">
         <v>0.9566016395788159</v>
       </c>
+      <c r="M296" t="n">
+        <v>0.002184304425414937</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.006977582069451147</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -11729,6 +13509,12 @@
       <c r="L297" t="n">
         <v>0.894660437114029</v>
       </c>
+      <c r="M297" t="n">
+        <v>0.001518802537354806</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.01003144862690653</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -11767,6 +13553,12 @@
       <c r="L298" t="n">
         <v>0.9924149942195647</v>
       </c>
+      <c r="M298" t="n">
+        <v>0.02513684968931745</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0.0005916514932523493</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -11805,6 +13597,12 @@
       <c r="L299" t="n">
         <v>0.9091696347333994</v>
       </c>
+      <c r="M299" t="n">
+        <v>0.001811305853149126</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0.008408994606621952</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -11843,6 +13641,12 @@
       <c r="L300" t="n">
         <v>0.8764623865572982</v>
       </c>
+      <c r="M300" t="n">
+        <v>0.003916776419382631</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.003880562587716014</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -11880,6 +13684,12 @@
       </c>
       <c r="L301" t="n">
         <v>0.8943485177590624</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.001252786515073376</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.01216651240291388</v>
       </c>
     </row>
   </sheetData>
